--- a/public/files/Template_Capex_export.xlsx
+++ b/public/files/Template_Capex_export.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\request-budget-master\public\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7970"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -13,139 +18,139 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
+    <definedName name="__CIP20042">#REF!</definedName>
+    <definedName name="_0201">#REF!</definedName>
+    <definedName name="_8">#REF!</definedName>
+    <definedName name="_CIP20042">#REF!</definedName>
+    <definedName name="acc_acc_code">#REF!</definedName>
+    <definedName name="APR">#REF!</definedName>
+    <definedName name="BRAKE">#REF!</definedName>
+    <definedName name="CALIPER">#REF!</definedName>
+    <definedName name="cc_grn_assy">#REF!</definedName>
+    <definedName name="cc_hdl_assy">#REF!</definedName>
+    <definedName name="cc_prd_body_assy">#REF!</definedName>
+    <definedName name="cc_seat_assy">#REF!</definedName>
+    <definedName name="cost_center_all">#REF!</definedName>
+    <definedName name="cost_center_body">#REF!</definedName>
+    <definedName name="cost_center_unit">#REF!</definedName>
+    <definedName name="CPL_acc_code">#REF!</definedName>
+    <definedName name="CY_Market_Value_of_Equity">#REF!</definedName>
+    <definedName name="CY_Tangible_Net_Worth">#REF!</definedName>
+    <definedName name="CY_Working_Capital">#REF!</definedName>
+    <definedName name="Data_for_Spreadsheet">#REF!</definedName>
+    <definedName name="dert">#REF!</definedName>
     <definedName name="DRUM">#REF!</definedName>
-    <definedName name="kurs_domestic">#REF!</definedName>
-    <definedName name="mte_s_acc_code">#REF!</definedName>
-    <definedName name="mte_acc_code">#REF!</definedName>
-    <definedName name="生产列17">#REF!</definedName>
-    <definedName name="PrintArea">#REF!</definedName>
-    <definedName name="ppb_acc_code">#REF!</definedName>
-    <definedName name="生产期2">#REF!</definedName>
+    <definedName name="enb_acc_code">#REF!</definedName>
+    <definedName name="ENG_BODY">#REF!</definedName>
+    <definedName name="eng_unit">#REF!</definedName>
+    <definedName name="enu_acc_code">#REF!</definedName>
+    <definedName name="fac">#REF!</definedName>
+    <definedName name="fin_acc_code">#REF!</definedName>
+    <definedName name="FRAME">#REF!</definedName>
+    <definedName name="gaf_acc_code">#REF!</definedName>
     <definedName name="gf">#REF!</definedName>
     <definedName name="glklfg">#REF!</definedName>
-    <definedName name="omc_acc_code">#REF!</definedName>
+    <definedName name="HINGE">#REF!</definedName>
+    <definedName name="hrd_acc_code">#REF!</definedName>
+    <definedName name="hrga">#REF!</definedName>
+    <definedName name="irl">#REF!</definedName>
+    <definedName name="irl_acc_code">#REF!</definedName>
+    <definedName name="itd">#REF!</definedName>
+    <definedName name="itd_acc_code">#REF!</definedName>
+    <definedName name="kurs_domestic">#REF!</definedName>
+    <definedName name="kurs_import">#REF!</definedName>
+    <definedName name="LOCK">#REF!</definedName>
     <definedName name="mkt">#REF!</definedName>
-    <definedName name="_0201">#REF!</definedName>
-    <definedName name="enb_acc_code">#REF!</definedName>
-    <definedName name="Spec">#REF!</definedName>
-    <definedName name="T_capextype">#REF!</definedName>
-    <definedName name="APR">#REF!</definedName>
-    <definedName name="cc_hdl_assy">#REF!</definedName>
-    <definedName name="qa_unit">#REF!</definedName>
-    <definedName name="itd_acc_code">#REF!</definedName>
-    <definedName name="__CIP20042">#REF!</definedName>
-    <definedName name="profit_center_unit">#REF!</definedName>
-    <definedName name="生产期17">#REF!</definedName>
-    <definedName name="ppic">#REF!</definedName>
-    <definedName name="profit_center_body">#REF!</definedName>
-    <definedName name="hrga">#REF!</definedName>
-    <definedName name="irl_acc_code">#REF!</definedName>
-    <definedName name="汇率">#REF!</definedName>
-    <definedName name="acc_acc_code">#REF!</definedName>
-    <definedName name="生产期9">#REF!</definedName>
-    <definedName name="cc_grn_assy">#REF!</definedName>
-    <definedName name="qa_body">#REF!</definedName>
-    <definedName name="omc">#REF!</definedName>
-    <definedName name="profit_center_admin">#REF!</definedName>
-    <definedName name="生产期1">#REF!</definedName>
-    <definedName name="fac">#REF!</definedName>
-    <definedName name="fin_acc_code">#REF!</definedName>
-    <definedName name="生产期16">#REF!</definedName>
-    <definedName name="pru_acc_code">#REF!</definedName>
-    <definedName name="HINGE">#REF!</definedName>
-    <definedName name="生产列4">#REF!</definedName>
-    <definedName name="qab_acc_code">#REF!</definedName>
-    <definedName name="LOCK">#REF!</definedName>
-    <definedName name="cost_center_unit">#REF!</definedName>
-    <definedName name="生产列15">#REF!</definedName>
-    <definedName name="qa_system">#REF!</definedName>
-    <definedName name="PY2_Retained_Earnings">#REF!</definedName>
-    <definedName name="kurs_import">#REF!</definedName>
-    <definedName name="T_costcenter">#REF!</definedName>
-    <definedName name="ENG_BODY">#REF!</definedName>
-    <definedName name="UFPrn20050811133035">#REF!</definedName>
-    <definedName name="cost_center_body">#REF!</definedName>
-    <definedName name="eng_unit">#REF!</definedName>
-    <definedName name="生产列7">#REF!</definedName>
-    <definedName name="生产期6">#REF!</definedName>
-    <definedName name="tabel_dept">#REF!</definedName>
-    <definedName name="WPOP">#REF!</definedName>
-    <definedName name="生产列9">#REF!</definedName>
-    <definedName name="mte_m_acc_code">#REF!</definedName>
-    <definedName name="PY2_Tangible_Net_Worth">#REF!</definedName>
-    <definedName name="profit_center_all">#REF!</definedName>
-    <definedName name="生产期19">#REF!</definedName>
-    <definedName name="CY_Working_Capital">#REF!</definedName>
-    <definedName name="生产期3">#REF!</definedName>
-    <definedName name="CY_Market_Value_of_Equity">#REF!</definedName>
-    <definedName name="PY_Market_Value_of_Equity">#REF!</definedName>
-    <definedName name="prd_body">#REF!</definedName>
-    <definedName name="PY_Working_Capital">#REF!</definedName>
-    <definedName name="mte_e_acc_code">#REF!</definedName>
-    <definedName name="qas_acc_code">#REF!</definedName>
-    <definedName name="mte_d_acc_code">#REF!</definedName>
-    <definedName name="cc_seat_assy">#REF!</definedName>
-    <definedName name="生产列8">#REF!</definedName>
-    <definedName name="PY2_Working_Capital">#REF!</definedName>
-    <definedName name="生产列11">#REF!</definedName>
-    <definedName name="enu_acc_code">#REF!</definedName>
-    <definedName name="生产期20">#REF!</definedName>
-    <definedName name="FRAME">#REF!</definedName>
-    <definedName name="生产期8">#REF!</definedName>
-    <definedName name="生产列16">#REF!</definedName>
     <definedName name="mkt_acc_code">#REF!</definedName>
-    <definedName name="gaf_acc_code">#REF!</definedName>
-    <definedName name="BRAKE">#REF!</definedName>
-    <definedName name="CALIPER">#REF!</definedName>
-    <definedName name="生产列20">#REF!</definedName>
     <definedName name="MOLD">#REF!</definedName>
     <definedName name="mte">#REF!</definedName>
-    <definedName name="CPL_acc_code">#REF!</definedName>
-    <definedName name="irl">#REF!</definedName>
+    <definedName name="mte_acc_code">#REF!</definedName>
+    <definedName name="mte_d_acc_code">#REF!</definedName>
+    <definedName name="mte_e_acc_code">#REF!</definedName>
+    <definedName name="mte_m_acc_code">#REF!</definedName>
+    <definedName name="mte_s_acc_code">#REF!</definedName>
+    <definedName name="omc">#REF!</definedName>
+    <definedName name="omc_acc_code">#REF!</definedName>
+    <definedName name="PKG">#REF!</definedName>
+    <definedName name="PLAN">#REF!</definedName>
+    <definedName name="ppb_acc_code">#REF!</definedName>
+    <definedName name="ppc_acc_code">#REF!</definedName>
+    <definedName name="ppic">#REF!</definedName>
+    <definedName name="ppu_acc_code">#REF!</definedName>
+    <definedName name="prb_acc_code">#REF!</definedName>
+    <definedName name="prd_body">#REF!</definedName>
+    <definedName name="prd_unit">#REF!</definedName>
+    <definedName name="Print_Area_MI">#REF!</definedName>
+    <definedName name="PrintArea">#REF!</definedName>
+    <definedName name="profit_center_admin">#REF!</definedName>
+    <definedName name="profit_center_all">#REF!</definedName>
+    <definedName name="profit_center_body">#REF!</definedName>
+    <definedName name="profit_center_unit">#REF!</definedName>
+    <definedName name="pru_acc_code">#REF!</definedName>
+    <definedName name="pur">#REF!</definedName>
+    <definedName name="pur_acc_code">#REF!</definedName>
+    <definedName name="PY_Market_Value_of_Equity">#REF!</definedName>
+    <definedName name="PY_Tangible_Net_Worth">#REF!</definedName>
+    <definedName name="PY_Working_Capital">#REF!</definedName>
+    <definedName name="PY2_Retained_Earnings">#REF!</definedName>
+    <definedName name="PY2_Tangible_Net_Worth">#REF!</definedName>
+    <definedName name="PY2_Working_Capital">#REF!</definedName>
+    <definedName name="qa_body">#REF!</definedName>
+    <definedName name="qa_system">#REF!</definedName>
+    <definedName name="qa_unit">#REF!</definedName>
+    <definedName name="qab_acc_code">#REF!</definedName>
+    <definedName name="qas_acc_code">#REF!</definedName>
+    <definedName name="qau_acc_code">#REF!</definedName>
+    <definedName name="Report">#REF!</definedName>
+    <definedName name="SEPT">#REF!</definedName>
+    <definedName name="Spec">#REF!</definedName>
+    <definedName name="STOTAL">#REF!</definedName>
+    <definedName name="T_capextype">#REF!</definedName>
+    <definedName name="T_costcenter">#REF!</definedName>
     <definedName name="T_currency">#REF!</definedName>
+    <definedName name="T_impdom">#REF!</definedName>
+    <definedName name="T_periode">#REF!</definedName>
+    <definedName name="T_profitcenter">#REF!</definedName>
+    <definedName name="T_profitcode">#REF!</definedName>
+    <definedName name="tabel_dept">#REF!</definedName>
+    <definedName name="TOTAL">#REF!</definedName>
+    <definedName name="UFPrn20050811133035">#REF!</definedName>
+    <definedName name="VAND">#REF!</definedName>
+    <definedName name="WPOP">#REF!</definedName>
+    <definedName name="汇率">#REF!</definedName>
+    <definedName name="生产列1">#REF!</definedName>
+    <definedName name="生产列11">#REF!</definedName>
+    <definedName name="生产列15">#REF!</definedName>
+    <definedName name="生产列16">#REF!</definedName>
+    <definedName name="生产列17">#REF!</definedName>
+    <definedName name="生产列19">#REF!</definedName>
+    <definedName name="生产列2">#REF!</definedName>
+    <definedName name="生产列20">#REF!</definedName>
+    <definedName name="生产列3">#REF!</definedName>
+    <definedName name="生产列4">#REF!</definedName>
+    <definedName name="生产列5">#REF!</definedName>
+    <definedName name="生产列6">#REF!</definedName>
+    <definedName name="生产列7">#REF!</definedName>
+    <definedName name="生产列8">#REF!</definedName>
+    <definedName name="生产列9">#REF!</definedName>
+    <definedName name="生产期">#REF!</definedName>
+    <definedName name="生产期1">#REF!</definedName>
+    <definedName name="生产期11">#REF!</definedName>
+    <definedName name="生产期15">#REF!</definedName>
+    <definedName name="生产期16">#REF!</definedName>
+    <definedName name="生产期17">#REF!</definedName>
+    <definedName name="生产期19">#REF!</definedName>
+    <definedName name="生产期2">#REF!</definedName>
+    <definedName name="生产期20">#REF!</definedName>
+    <definedName name="生产期3">#REF!</definedName>
+    <definedName name="生产期4">#REF!</definedName>
     <definedName name="生产期5">#REF!</definedName>
-    <definedName name="Report">#REF!</definedName>
-    <definedName name="T_profitcenter">#REF!</definedName>
-    <definedName name="itd">#REF!</definedName>
-    <definedName name="ppu_acc_code">#REF!</definedName>
-    <definedName name="_8">#REF!</definedName>
-    <definedName name="qau_acc_code">#REF!</definedName>
-    <definedName name="生产期11">#REF!</definedName>
-    <definedName name="生产列1">#REF!</definedName>
-    <definedName name="pur">#REF!</definedName>
-    <definedName name="STOTAL">#REF!</definedName>
-    <definedName name="TOTAL">#REF!</definedName>
-    <definedName name="生产列6">#REF!</definedName>
-    <definedName name="生产列19">#REF!</definedName>
-    <definedName name="SEPT">#REF!</definedName>
-    <definedName name="Print_Area_MI">#REF!</definedName>
-    <definedName name="T_profitcode">#REF!</definedName>
-    <definedName name="生产期15">#REF!</definedName>
-    <definedName name="VAND">#REF!</definedName>
-    <definedName name="生产列3">#REF!</definedName>
-    <definedName name="生产期">#REF!</definedName>
-    <definedName name="_CIP20042">#REF!</definedName>
-    <definedName name="cc_prd_body_assy">#REF!</definedName>
-    <definedName name="生产期4">#REF!</definedName>
-    <definedName name="PKG">#REF!</definedName>
-    <definedName name="T_impdom">#REF!</definedName>
-    <definedName name="生产列5">#REF!</definedName>
-    <definedName name="hrd_acc_code">#REF!</definedName>
-    <definedName name="prb_acc_code">#REF!</definedName>
-    <definedName name="dert">#REF!</definedName>
-    <definedName name="pur_acc_code">#REF!</definedName>
-    <definedName name="prd_unit">#REF!</definedName>
-    <definedName name="ppc_acc_code">#REF!</definedName>
-    <definedName name="cost_center_all">#REF!</definedName>
-    <definedName name="CY_Tangible_Net_Worth">#REF!</definedName>
+    <definedName name="生产期6">#REF!</definedName>
     <definedName name="生产期7">#REF!</definedName>
-    <definedName name="PY_Tangible_Net_Worth">#REF!</definedName>
-    <definedName name="PLAN">#REF!</definedName>
-    <definedName name="Data_for_Spreadsheet">#REF!</definedName>
-    <definedName name="生产列2">#REF!</definedName>
-    <definedName name="T_periode">#REF!</definedName>
+    <definedName name="生产期8">#REF!</definedName>
+    <definedName name="生产期9">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -285,19 +290,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@"/>
-    <numFmt numFmtId="180" formatCode="[$-409]mmm\-yy"/>
-    <numFmt numFmtId="181" formatCode="0.0%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="5">
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@"/>
+    <numFmt numFmtId="171" formatCode="[$-409]mmm\-yy"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,152 +346,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,194 +378,8 @@
         <bgColor rgb="FFFFE598"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -825,251 +496,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1100,17 +529,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1127,76 +556,50 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1214,13 +617,23 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="#REF"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
 </externalLink>
 </file>
 
@@ -1416,60 +829,61 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AO1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:X3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="14.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="9.57142857142857" customWidth="1"/>
-    <col min="4" max="4" width="23.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="24.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="18.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="12.4285714285714" customWidth="1"/>
-    <col min="8" max="8" width="23.4285714285714" customWidth="1"/>
-    <col min="9" max="10" width="18.1428571428571" customWidth="1"/>
-    <col min="11" max="11" width="13.8571428571429" customWidth="1"/>
-    <col min="12" max="12" width="44.4285714285714" customWidth="1"/>
-    <col min="13" max="13" width="25.4285714285714" customWidth="1"/>
-    <col min="14" max="14" width="6.85714285714286" customWidth="1"/>
-    <col min="15" max="15" width="13.8571428571429" customWidth="1"/>
-    <col min="16" max="16" width="18.5714285714286" customWidth="1"/>
+    <col min="1" max="2" width="14.54296875" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="8" width="23.453125" customWidth="1"/>
+    <col min="9" max="10" width="18.1796875" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" customWidth="1"/>
+    <col min="12" max="12" width="44.453125" customWidth="1"/>
+    <col min="13" max="13" width="25.453125" customWidth="1"/>
+    <col min="14" max="14" width="6.81640625" customWidth="1"/>
+    <col min="15" max="15" width="13.81640625" customWidth="1"/>
+    <col min="16" max="16" width="18.54296875" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
     <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="20" width="19.4285714285714" customWidth="1"/>
-    <col min="21" max="21" width="14.4285714285714" customWidth="1"/>
-    <col min="22" max="22" width="19.4285714285714" customWidth="1"/>
-    <col min="23" max="24" width="14.4285714285714" customWidth="1"/>
-    <col min="25" max="26" width="9.85714285714286" customWidth="1"/>
+    <col min="19" max="20" width="19.453125" customWidth="1"/>
+    <col min="21" max="21" width="14.453125" customWidth="1"/>
+    <col min="22" max="22" width="19.453125" customWidth="1"/>
+    <col min="23" max="24" width="14.453125" customWidth="1"/>
+    <col min="25" max="26" width="9.81640625" customWidth="1"/>
     <col min="27" max="27" width="9" customWidth="1"/>
-    <col min="28" max="28" width="8.42857142857143" customWidth="1"/>
-    <col min="29" max="29" width="9.71428571428571" customWidth="1"/>
-    <col min="30" max="30" width="9.42857142857143" customWidth="1"/>
-    <col min="31" max="31" width="8.71428571428571" customWidth="1"/>
-    <col min="32" max="32" width="9.71428571428571" customWidth="1"/>
-    <col min="33" max="34" width="9.42857142857143" customWidth="1"/>
-    <col min="35" max="35" width="9.85714285714286" customWidth="1"/>
-    <col min="36" max="36" width="10.1428571428571" customWidth="1"/>
-    <col min="37" max="37" width="8.71428571428571" customWidth="1"/>
-    <col min="38" max="38" width="5.42857142857143" customWidth="1"/>
-    <col min="39" max="39" width="50.5714285714286" customWidth="1"/>
+    <col min="28" max="28" width="8.453125" customWidth="1"/>
+    <col min="29" max="29" width="9.7265625" customWidth="1"/>
+    <col min="30" max="30" width="9.453125" customWidth="1"/>
+    <col min="31" max="31" width="8.7265625" customWidth="1"/>
+    <col min="32" max="32" width="9.7265625" customWidth="1"/>
+    <col min="33" max="34" width="9.453125" customWidth="1"/>
+    <col min="35" max="35" width="9.81640625" customWidth="1"/>
+    <col min="36" max="36" width="10.1796875" customWidth="1"/>
+    <col min="37" max="37" width="8.7265625" customWidth="1"/>
+    <col min="38" max="38" width="5.453125" customWidth="1"/>
+    <col min="39" max="39" width="50.54296875" customWidth="1"/>
     <col min="40" max="40" width="19" customWidth="1"/>
-    <col min="41" max="41" width="9.14285714285714" customWidth="1"/>
+    <col min="41" max="41" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="49.5" customHeight="1" spans="2:36">
+    <row r="1" spans="1:36" ht="49.5" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1576,7 +990,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" ht="39.75" customHeight="1" spans="1:36">
+    <row r="2" spans="1:36" ht="39.75" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>35</v>
@@ -1618,7 +1032,7 @@
       <c r="AI2" s="19"/>
       <c r="AJ2" s="19"/>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" ht="14.5">
       <c r="A3" s="6"/>
       <c r="C3" s="8">
         <v>2</v>
@@ -1657,7 +1071,7 @@
       <c r="AI3" s="19"/>
       <c r="AJ3" s="19"/>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" ht="14.5">
       <c r="A4" s="6"/>
       <c r="C4" s="8">
         <v>3</v>
@@ -1676,17 +1090,13 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
-      <c r="N4" s="9">
-        <v>1</v>
-      </c>
+      <c r="N4" s="9"/>
       <c r="O4" s="10"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="16">
-        <v>0</v>
-      </c>
+      <c r="R4" s="16"/>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
       <c r="U4" s="13"/>
@@ -1706,7 +1116,7 @@
       <c r="AI4" s="19"/>
       <c r="AJ4" s="19"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" ht="14.5">
       <c r="A5" s="6"/>
       <c r="C5" s="8">
         <v>4</v>
@@ -1725,17 +1135,13 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
-      <c r="N5" s="9">
-        <v>1</v>
-      </c>
+      <c r="N5" s="9"/>
       <c r="O5" s="10"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R5" s="16">
-        <v>0</v>
-      </c>
+      <c r="R5" s="16"/>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
       <c r="U5" s="13"/>
@@ -1755,7 +1161,7 @@
       <c r="AI5" s="19"/>
       <c r="AJ5" s="19"/>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" ht="14.5">
       <c r="A6" s="6"/>
       <c r="C6" s="8">
         <v>5</v>
@@ -1774,17 +1180,13 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="9">
-        <v>1</v>
-      </c>
+      <c r="N6" s="9"/>
       <c r="O6" s="10"/>
       <c r="P6" s="13"/>
       <c r="Q6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="16">
-        <v>0</v>
-      </c>
+      <c r="R6" s="16"/>
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
       <c r="U6" s="13"/>
@@ -1804,7 +1206,7 @@
       <c r="AI6" s="19"/>
       <c r="AJ6" s="19"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" ht="14.5">
       <c r="A7" s="6"/>
       <c r="C7" s="8">
         <v>6</v>
@@ -1823,17 +1225,13 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="9">
-        <v>1</v>
-      </c>
+      <c r="N7" s="9"/>
       <c r="O7" s="10"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="16">
-        <v>0</v>
-      </c>
+      <c r="R7" s="16"/>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
       <c r="U7" s="13"/>
@@ -1853,7 +1251,7 @@
       <c r="AI7" s="19"/>
       <c r="AJ7" s="19"/>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" ht="14.5">
       <c r="A8" s="6"/>
       <c r="C8" s="8">
         <v>7</v>
@@ -1872,17 +1270,13 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="9">
-        <v>1</v>
-      </c>
+      <c r="N8" s="9"/>
       <c r="O8" s="10"/>
       <c r="P8" s="13"/>
       <c r="Q8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R8" s="16">
-        <v>0</v>
-      </c>
+      <c r="R8" s="16"/>
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
       <c r="U8" s="13"/>
@@ -1902,7 +1296,7 @@
       <c r="AI8" s="19"/>
       <c r="AJ8" s="19"/>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" ht="14.5">
       <c r="A9" s="6"/>
       <c r="C9" s="8">
         <v>8</v>
@@ -1921,17 +1315,13 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="9">
-        <v>1</v>
-      </c>
+      <c r="N9" s="9"/>
       <c r="O9" s="10"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R9" s="16">
-        <v>0</v>
-      </c>
+      <c r="R9" s="16"/>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
       <c r="U9" s="13"/>
@@ -1951,7 +1341,7 @@
       <c r="AI9" s="19"/>
       <c r="AJ9" s="19"/>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" ht="14.5">
       <c r="A10" s="6"/>
       <c r="C10" s="8">
         <v>9</v>
@@ -1970,17 +1360,13 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="9">
-        <v>1</v>
-      </c>
+      <c r="N10" s="9"/>
       <c r="O10" s="10"/>
       <c r="P10" s="13"/>
       <c r="Q10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R10" s="16">
-        <v>0</v>
-      </c>
+      <c r="R10" s="16"/>
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
       <c r="U10" s="13"/>
@@ -2000,7 +1386,7 @@
       <c r="AI10" s="19"/>
       <c r="AJ10" s="19"/>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" ht="14.5">
       <c r="A11" s="6"/>
       <c r="C11" s="8">
         <v>10</v>
@@ -2019,17 +1405,13 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="9">
-        <v>1</v>
-      </c>
+      <c r="N11" s="9"/>
       <c r="O11" s="10"/>
       <c r="P11" s="13"/>
       <c r="Q11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="16">
-        <v>0</v>
-      </c>
+      <c r="R11" s="16"/>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
       <c r="U11" s="13"/>
@@ -2049,7 +1431,7 @@
       <c r="AI11" s="19"/>
       <c r="AJ11" s="19"/>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" ht="14.5">
       <c r="A12" s="6"/>
       <c r="C12" s="8">
         <v>11</v>
@@ -2068,17 +1450,13 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="9">
-        <v>1</v>
-      </c>
+      <c r="N12" s="9"/>
       <c r="O12" s="10"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R12" s="16">
-        <v>0</v>
-      </c>
+      <c r="R12" s="16"/>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
       <c r="U12" s="13"/>
@@ -2098,7 +1476,7 @@
       <c r="AI12" s="19"/>
       <c r="AJ12" s="19"/>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" ht="14.5">
       <c r="A13" s="6"/>
       <c r="C13" s="8">
         <v>12</v>
@@ -2117,17 +1495,13 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="9">
-        <v>1</v>
-      </c>
+      <c r="N13" s="9"/>
       <c r="O13" s="10"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="16">
-        <v>0</v>
-      </c>
+      <c r="R13" s="16"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="13"/>
@@ -2147,7 +1521,7 @@
       <c r="AI13" s="19"/>
       <c r="AJ13" s="19"/>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" ht="14.5">
       <c r="A14" s="6"/>
       <c r="C14" s="8">
         <v>13</v>
@@ -2166,17 +1540,13 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="9">
-        <v>1</v>
-      </c>
+      <c r="N14" s="9"/>
       <c r="O14" s="10"/>
       <c r="P14" s="13"/>
       <c r="Q14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R14" s="16">
-        <v>0</v>
-      </c>
+      <c r="R14" s="16"/>
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
       <c r="U14" s="13"/>
@@ -2196,7 +1566,7 @@
       <c r="AI14" s="19"/>
       <c r="AJ14" s="19"/>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" ht="14.5">
       <c r="A15" s="6"/>
       <c r="C15" s="8">
         <v>14</v>
@@ -2215,17 +1585,13 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="9">
-        <v>1</v>
-      </c>
+      <c r="N15" s="9"/>
       <c r="O15" s="10"/>
       <c r="P15" s="13"/>
       <c r="Q15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R15" s="16">
-        <v>0</v>
-      </c>
+      <c r="R15" s="16"/>
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
       <c r="U15" s="13"/>
@@ -2245,7 +1611,7 @@
       <c r="AI15" s="19"/>
       <c r="AJ15" s="19"/>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" ht="14.5">
       <c r="A16" s="6"/>
       <c r="C16" s="8">
         <v>15</v>
@@ -2264,17 +1630,13 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
-      <c r="N16" s="9">
-        <v>1</v>
-      </c>
+      <c r="N16" s="9"/>
       <c r="O16" s="10"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R16" s="16">
-        <v>0</v>
-      </c>
+      <c r="R16" s="16"/>
       <c r="S16" s="17"/>
       <c r="T16" s="17"/>
       <c r="U16" s="13"/>
@@ -2294,7 +1656,7 @@
       <c r="AI16" s="19"/>
       <c r="AJ16" s="19"/>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" ht="14.5">
       <c r="A17" s="6"/>
       <c r="C17" s="8">
         <v>16</v>
@@ -2313,17 +1675,13 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
-      <c r="N17" s="9">
-        <v>1</v>
-      </c>
+      <c r="N17" s="9"/>
       <c r="O17" s="10"/>
       <c r="P17" s="13"/>
       <c r="Q17" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R17" s="16">
-        <v>0</v>
-      </c>
+      <c r="R17" s="16"/>
       <c r="S17" s="17"/>
       <c r="T17" s="17"/>
       <c r="U17" s="13"/>
@@ -2343,7 +1701,7 @@
       <c r="AI17" s="19"/>
       <c r="AJ17" s="19"/>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" ht="14.5">
       <c r="A18" s="6"/>
       <c r="C18" s="8">
         <v>17</v>
@@ -2362,17 +1720,13 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
-      <c r="N18" s="9">
-        <v>1</v>
-      </c>
+      <c r="N18" s="9"/>
       <c r="O18" s="10"/>
       <c r="P18" s="13"/>
       <c r="Q18" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R18" s="16">
-        <v>0</v>
-      </c>
+      <c r="R18" s="16"/>
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
       <c r="U18" s="13"/>
@@ -2392,7 +1746,7 @@
       <c r="AI18" s="19"/>
       <c r="AJ18" s="19"/>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" ht="14.5">
       <c r="A19" s="6"/>
       <c r="C19" s="8">
         <v>18</v>
@@ -2411,17 +1765,13 @@
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
-      <c r="N19" s="9">
-        <v>1</v>
-      </c>
+      <c r="N19" s="9"/>
       <c r="O19" s="10"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R19" s="16">
-        <v>0</v>
-      </c>
+      <c r="R19" s="16"/>
       <c r="S19" s="17"/>
       <c r="T19" s="17"/>
       <c r="U19" s="13"/>
@@ -2441,7 +1791,7 @@
       <c r="AI19" s="19"/>
       <c r="AJ19" s="19"/>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" ht="14.5">
       <c r="A20" s="6"/>
       <c r="C20" s="8">
         <v>19</v>
@@ -2460,17 +1810,13 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
-      <c r="N20" s="9">
-        <v>1</v>
-      </c>
+      <c r="N20" s="9"/>
       <c r="O20" s="10"/>
       <c r="P20" s="13"/>
       <c r="Q20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R20" s="16">
-        <v>0</v>
-      </c>
+      <c r="R20" s="16"/>
       <c r="S20" s="17"/>
       <c r="T20" s="17"/>
       <c r="U20" s="13"/>
@@ -2490,7 +1836,7 @@
       <c r="AI20" s="19"/>
       <c r="AJ20" s="19"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" spans="1:36">
+    <row r="21" spans="1:36" ht="15.75" customHeight="1">
       <c r="A21" s="6"/>
       <c r="C21" s="8">
         <v>20</v>
@@ -2509,17 +1855,13 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
-      <c r="N21" s="9">
-        <v>1</v>
-      </c>
+      <c r="N21" s="9"/>
       <c r="O21" s="10"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R21" s="16">
-        <v>0</v>
-      </c>
+      <c r="R21" s="16"/>
       <c r="S21" s="17"/>
       <c r="T21" s="17"/>
       <c r="U21" s="13"/>
@@ -2539,7 +1881,7 @@
       <c r="AI21" s="19"/>
       <c r="AJ21" s="19"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1" spans="1:36">
+    <row r="22" spans="1:36" ht="15.75" customHeight="1">
       <c r="A22" s="6"/>
       <c r="C22" s="8">
         <v>21</v>
@@ -2558,17 +1900,13 @@
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="9">
-        <v>1</v>
-      </c>
+      <c r="N22" s="9"/>
       <c r="O22" s="10"/>
       <c r="P22" s="13"/>
       <c r="Q22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R22" s="16">
-        <v>0</v>
-      </c>
+      <c r="R22" s="16"/>
       <c r="S22" s="17"/>
       <c r="T22" s="17"/>
       <c r="U22" s="13"/>
@@ -2588,7 +1926,7 @@
       <c r="AI22" s="19"/>
       <c r="AJ22" s="19"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1" spans="1:36">
+    <row r="23" spans="1:36" ht="15.75" customHeight="1">
       <c r="A23" s="6"/>
       <c r="C23" s="8">
         <v>22</v>
@@ -2607,17 +1945,13 @@
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="9">
-        <v>1</v>
-      </c>
+      <c r="N23" s="9"/>
       <c r="O23" s="10"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R23" s="16">
-        <v>0</v>
-      </c>
+      <c r="R23" s="16"/>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
       <c r="U23" s="13"/>
@@ -2637,7 +1971,7 @@
       <c r="AI23" s="19"/>
       <c r="AJ23" s="19"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1" spans="1:36">
+    <row r="24" spans="1:36" ht="15.75" customHeight="1">
       <c r="A24" s="6"/>
       <c r="C24" s="8">
         <v>23</v>
@@ -2656,17 +1990,13 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
-      <c r="N24" s="9">
-        <v>1</v>
-      </c>
+      <c r="N24" s="9"/>
       <c r="O24" s="10"/>
       <c r="P24" s="13"/>
       <c r="Q24" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R24" s="16">
-        <v>0</v>
-      </c>
+      <c r="R24" s="16"/>
       <c r="S24" s="17"/>
       <c r="T24" s="17"/>
       <c r="U24" s="13"/>
@@ -2686,7 +2016,7 @@
       <c r="AI24" s="19"/>
       <c r="AJ24" s="19"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1" spans="1:36">
+    <row r="25" spans="1:36" ht="15.75" customHeight="1">
       <c r="A25" s="6"/>
       <c r="C25" s="8">
         <v>24</v>
@@ -2705,17 +2035,13 @@
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
-      <c r="N25" s="9">
-        <v>1</v>
-      </c>
+      <c r="N25" s="9"/>
       <c r="O25" s="10"/>
       <c r="P25" s="13"/>
       <c r="Q25" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R25" s="16">
-        <v>0</v>
-      </c>
+      <c r="R25" s="16"/>
       <c r="S25" s="17"/>
       <c r="T25" s="17"/>
       <c r="U25" s="13"/>
@@ -2735,7 +2061,7 @@
       <c r="AI25" s="19"/>
       <c r="AJ25" s="19"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1" spans="1:36">
+    <row r="26" spans="1:36" ht="15.75" customHeight="1">
       <c r="A26" s="6"/>
       <c r="C26" s="8">
         <v>25</v>
@@ -2754,17 +2080,13 @@
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
-      <c r="N26" s="9">
-        <v>1</v>
-      </c>
+      <c r="N26" s="9"/>
       <c r="O26" s="10"/>
       <c r="P26" s="13"/>
       <c r="Q26" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R26" s="16">
-        <v>0</v>
-      </c>
+      <c r="R26" s="16"/>
       <c r="S26" s="17"/>
       <c r="T26" s="17"/>
       <c r="U26" s="13"/>
@@ -2784,7 +2106,7 @@
       <c r="AI26" s="19"/>
       <c r="AJ26" s="19"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1" spans="1:36">
+    <row r="27" spans="1:36" ht="15.75" customHeight="1">
       <c r="A27" s="6"/>
       <c r="C27" s="8">
         <v>26</v>
@@ -2803,17 +2125,13 @@
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
-      <c r="N27" s="9">
-        <v>1</v>
-      </c>
+      <c r="N27" s="9"/>
       <c r="O27" s="10"/>
       <c r="P27" s="13"/>
       <c r="Q27" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="16">
-        <v>0</v>
-      </c>
+      <c r="R27" s="16"/>
       <c r="S27" s="17"/>
       <c r="T27" s="17"/>
       <c r="U27" s="13"/>
@@ -2833,7 +2151,7 @@
       <c r="AI27" s="19"/>
       <c r="AJ27" s="19"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1" spans="1:36">
+    <row r="28" spans="1:36" ht="15.75" customHeight="1">
       <c r="A28" s="6"/>
       <c r="C28" s="8">
         <v>27</v>
@@ -2852,17 +2170,13 @@
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
-      <c r="N28" s="9">
-        <v>1</v>
-      </c>
+      <c r="N28" s="9"/>
       <c r="O28" s="10"/>
       <c r="P28" s="13"/>
       <c r="Q28" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R28" s="16">
-        <v>0</v>
-      </c>
+      <c r="R28" s="16"/>
       <c r="S28" s="17"/>
       <c r="T28" s="17"/>
       <c r="U28" s="13"/>
@@ -2882,7 +2196,7 @@
       <c r="AI28" s="19"/>
       <c r="AJ28" s="19"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1" spans="1:36">
+    <row r="29" spans="1:36" ht="15.75" customHeight="1">
       <c r="A29" s="6"/>
       <c r="C29" s="8">
         <v>28</v>
@@ -2901,17 +2215,13 @@
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
-      <c r="N29" s="9">
-        <v>1</v>
-      </c>
+      <c r="N29" s="9"/>
       <c r="O29" s="10"/>
       <c r="P29" s="13"/>
       <c r="Q29" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R29" s="16">
-        <v>0</v>
-      </c>
+      <c r="R29" s="16"/>
       <c r="S29" s="17"/>
       <c r="T29" s="17"/>
       <c r="U29" s="13"/>
@@ -2931,7 +2241,7 @@
       <c r="AI29" s="19"/>
       <c r="AJ29" s="19"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1" spans="1:36">
+    <row r="30" spans="1:36" ht="15.75" customHeight="1">
       <c r="A30" s="6"/>
       <c r="C30" s="8">
         <v>29</v>
@@ -2950,17 +2260,13 @@
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
-      <c r="N30" s="9">
-        <v>1</v>
-      </c>
+      <c r="N30" s="9"/>
       <c r="O30" s="10"/>
       <c r="P30" s="13"/>
       <c r="Q30" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R30" s="16">
-        <v>0</v>
-      </c>
+      <c r="R30" s="16"/>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
       <c r="U30" s="13"/>
@@ -2980,7 +2286,7 @@
       <c r="AI30" s="19"/>
       <c r="AJ30" s="19"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1" spans="1:36">
+    <row r="31" spans="1:36" ht="15.75" customHeight="1">
       <c r="A31" s="6"/>
       <c r="C31" s="8">
         <v>30</v>
@@ -2999,17 +2305,13 @@
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
-      <c r="N31" s="9">
-        <v>1</v>
-      </c>
+      <c r="N31" s="9"/>
       <c r="O31" s="10"/>
       <c r="P31" s="13"/>
       <c r="Q31" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R31" s="16">
-        <v>0</v>
-      </c>
+      <c r="R31" s="16"/>
       <c r="S31" s="17"/>
       <c r="T31" s="17"/>
       <c r="U31" s="13"/>
@@ -3029,7 +2331,7 @@
       <c r="AI31" s="19"/>
       <c r="AJ31" s="19"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1" spans="1:36">
+    <row r="32" spans="1:36" ht="15.75" customHeight="1">
       <c r="A32" s="6"/>
       <c r="C32" s="8">
         <v>31</v>
@@ -3048,17 +2350,13 @@
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
-      <c r="N32" s="9">
-        <v>1</v>
-      </c>
+      <c r="N32" s="9"/>
       <c r="O32" s="10"/>
       <c r="P32" s="13"/>
       <c r="Q32" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R32" s="16">
-        <v>0</v>
-      </c>
+      <c r="R32" s="16"/>
       <c r="S32" s="17"/>
       <c r="T32" s="17"/>
       <c r="U32" s="13"/>
@@ -3078,7 +2376,7 @@
       <c r="AI32" s="19"/>
       <c r="AJ32" s="19"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1" spans="1:36">
+    <row r="33" spans="1:36" ht="15.75" customHeight="1">
       <c r="A33" s="6"/>
       <c r="C33" s="8">
         <v>32</v>
@@ -3097,17 +2395,13 @@
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
-      <c r="N33" s="9">
-        <v>1</v>
-      </c>
+      <c r="N33" s="9"/>
       <c r="O33" s="10"/>
       <c r="P33" s="13"/>
       <c r="Q33" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R33" s="16">
-        <v>0</v>
-      </c>
+      <c r="R33" s="16"/>
       <c r="S33" s="17"/>
       <c r="T33" s="17"/>
       <c r="U33" s="13"/>
@@ -3127,7 +2421,7 @@
       <c r="AI33" s="19"/>
       <c r="AJ33" s="19"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1" spans="1:36">
+    <row r="34" spans="1:36" ht="15.75" customHeight="1">
       <c r="A34" s="6"/>
       <c r="C34" s="8">
         <v>33</v>
@@ -3146,17 +2440,13 @@
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
-      <c r="N34" s="9">
-        <v>1</v>
-      </c>
+      <c r="N34" s="9"/>
       <c r="O34" s="10"/>
       <c r="P34" s="13"/>
       <c r="Q34" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R34" s="16">
-        <v>0</v>
-      </c>
+      <c r="R34" s="16"/>
       <c r="S34" s="17"/>
       <c r="T34" s="17"/>
       <c r="U34" s="13"/>
@@ -3176,7 +2466,7 @@
       <c r="AI34" s="19"/>
       <c r="AJ34" s="19"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1" spans="1:36">
+    <row r="35" spans="1:36" ht="15.75" customHeight="1">
       <c r="A35" s="6"/>
       <c r="C35" s="8">
         <v>34</v>
@@ -3195,17 +2485,13 @@
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
-      <c r="N35" s="9">
-        <v>1</v>
-      </c>
+      <c r="N35" s="9"/>
       <c r="O35" s="10"/>
       <c r="P35" s="13"/>
       <c r="Q35" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R35" s="16">
-        <v>0</v>
-      </c>
+      <c r="R35" s="16"/>
       <c r="S35" s="17"/>
       <c r="T35" s="17"/>
       <c r="U35" s="13"/>
@@ -3225,7 +2511,7 @@
       <c r="AI35" s="19"/>
       <c r="AJ35" s="19"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1" spans="1:36">
+    <row r="36" spans="1:36" ht="15.75" customHeight="1">
       <c r="A36" s="6"/>
       <c r="C36" s="8">
         <v>35</v>
@@ -3244,17 +2530,13 @@
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="9">
-        <v>1</v>
-      </c>
+      <c r="N36" s="9"/>
       <c r="O36" s="10"/>
       <c r="P36" s="13"/>
       <c r="Q36" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R36" s="16">
-        <v>0</v>
-      </c>
+      <c r="R36" s="16"/>
       <c r="S36" s="17"/>
       <c r="T36" s="17"/>
       <c r="U36" s="13"/>
@@ -3274,7 +2556,7 @@
       <c r="AI36" s="19"/>
       <c r="AJ36" s="19"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1" spans="1:36">
+    <row r="37" spans="1:36" ht="15.75" customHeight="1">
       <c r="A37" s="6"/>
       <c r="C37" s="8">
         <v>36</v>
@@ -3293,17 +2575,13 @@
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
-      <c r="N37" s="9">
-        <v>1</v>
-      </c>
+      <c r="N37" s="9"/>
       <c r="O37" s="10"/>
       <c r="P37" s="13"/>
       <c r="Q37" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R37" s="16">
-        <v>0</v>
-      </c>
+      <c r="R37" s="16"/>
       <c r="S37" s="17"/>
       <c r="T37" s="17"/>
       <c r="U37" s="13"/>
@@ -3323,7 +2601,7 @@
       <c r="AI37" s="19"/>
       <c r="AJ37" s="19"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1" spans="1:36">
+    <row r="38" spans="1:36" ht="15.75" customHeight="1">
       <c r="A38" s="6"/>
       <c r="C38" s="8">
         <v>37</v>
@@ -3342,17 +2620,13 @@
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
-      <c r="N38" s="9">
-        <v>1</v>
-      </c>
+      <c r="N38" s="9"/>
       <c r="O38" s="10"/>
       <c r="P38" s="13"/>
       <c r="Q38" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R38" s="16">
-        <v>0</v>
-      </c>
+      <c r="R38" s="16"/>
       <c r="S38" s="17"/>
       <c r="T38" s="17"/>
       <c r="U38" s="13"/>
@@ -3372,7 +2646,7 @@
       <c r="AI38" s="19"/>
       <c r="AJ38" s="19"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1" spans="1:36">
+    <row r="39" spans="1:36" ht="15.75" customHeight="1">
       <c r="A39" s="6"/>
       <c r="C39" s="8">
         <v>38</v>
@@ -3391,17 +2665,13 @@
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
-      <c r="N39" s="9">
-        <v>1</v>
-      </c>
+      <c r="N39" s="9"/>
       <c r="O39" s="10"/>
       <c r="P39" s="13"/>
       <c r="Q39" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R39" s="16">
-        <v>0</v>
-      </c>
+      <c r="R39" s="16"/>
       <c r="S39" s="17"/>
       <c r="T39" s="17"/>
       <c r="U39" s="13"/>
@@ -3421,7 +2691,7 @@
       <c r="AI39" s="19"/>
       <c r="AJ39" s="19"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1" spans="1:36">
+    <row r="40" spans="1:36" ht="15.75" customHeight="1">
       <c r="A40" s="6"/>
       <c r="C40" s="8">
         <v>39</v>
@@ -3440,17 +2710,13 @@
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
-      <c r="N40" s="9">
-        <v>1</v>
-      </c>
+      <c r="N40" s="9"/>
       <c r="O40" s="10"/>
       <c r="P40" s="13"/>
       <c r="Q40" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R40" s="16">
-        <v>0</v>
-      </c>
+      <c r="R40" s="16"/>
       <c r="S40" s="17"/>
       <c r="T40" s="17"/>
       <c r="U40" s="13"/>
@@ -3470,7 +2736,7 @@
       <c r="AI40" s="19"/>
       <c r="AJ40" s="19"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1" spans="1:36">
+    <row r="41" spans="1:36" ht="15.75" customHeight="1">
       <c r="A41" s="6"/>
       <c r="C41" s="8">
         <v>40</v>
@@ -3489,17 +2755,13 @@
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
-      <c r="N41" s="9">
-        <v>1</v>
-      </c>
+      <c r="N41" s="9"/>
       <c r="O41" s="10"/>
       <c r="P41" s="13"/>
       <c r="Q41" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R41" s="16">
-        <v>0</v>
-      </c>
+      <c r="R41" s="16"/>
       <c r="S41" s="17"/>
       <c r="T41" s="17"/>
       <c r="U41" s="13"/>
@@ -3519,7 +2781,7 @@
       <c r="AI41" s="19"/>
       <c r="AJ41" s="19"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1" spans="1:36">
+    <row r="42" spans="1:36" ht="15.75" customHeight="1">
       <c r="A42" s="6"/>
       <c r="C42" s="8">
         <v>41</v>
@@ -3538,17 +2800,13 @@
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
-      <c r="N42" s="9">
-        <v>1</v>
-      </c>
+      <c r="N42" s="9"/>
       <c r="O42" s="10"/>
       <c r="P42" s="13"/>
       <c r="Q42" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R42" s="16">
-        <v>0</v>
-      </c>
+      <c r="R42" s="16"/>
       <c r="S42" s="17"/>
       <c r="T42" s="17"/>
       <c r="U42" s="13"/>
@@ -3568,7 +2826,7 @@
       <c r="AI42" s="19"/>
       <c r="AJ42" s="19"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1" spans="1:36">
+    <row r="43" spans="1:36" ht="15.75" customHeight="1">
       <c r="A43" s="6"/>
       <c r="C43" s="8">
         <v>42</v>
@@ -3587,17 +2845,13 @@
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
-      <c r="N43" s="9">
-        <v>1</v>
-      </c>
+      <c r="N43" s="9"/>
       <c r="O43" s="10"/>
       <c r="P43" s="13"/>
       <c r="Q43" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R43" s="16">
-        <v>0</v>
-      </c>
+      <c r="R43" s="16"/>
       <c r="S43" s="17"/>
       <c r="T43" s="17"/>
       <c r="U43" s="13"/>
@@ -3617,7 +2871,7 @@
       <c r="AI43" s="19"/>
       <c r="AJ43" s="19"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1" spans="1:36">
+    <row r="44" spans="1:36" ht="15.75" customHeight="1">
       <c r="A44" s="6"/>
       <c r="C44" s="8">
         <v>43</v>
@@ -3636,17 +2890,13 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
-      <c r="N44" s="9">
-        <v>1</v>
-      </c>
+      <c r="N44" s="9"/>
       <c r="O44" s="10"/>
       <c r="P44" s="13"/>
       <c r="Q44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R44" s="16">
-        <v>0</v>
-      </c>
+      <c r="R44" s="16"/>
       <c r="S44" s="17"/>
       <c r="T44" s="17"/>
       <c r="U44" s="13"/>
@@ -3666,7 +2916,7 @@
       <c r="AI44" s="19"/>
       <c r="AJ44" s="19"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1" spans="1:36">
+    <row r="45" spans="1:36" ht="15.75" customHeight="1">
       <c r="A45" s="6"/>
       <c r="C45" s="8">
         <v>44</v>
@@ -3685,17 +2935,13 @@
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
-      <c r="N45" s="9">
-        <v>1</v>
-      </c>
+      <c r="N45" s="9"/>
       <c r="O45" s="10"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R45" s="16">
-        <v>0</v>
-      </c>
+      <c r="R45" s="16"/>
       <c r="S45" s="17"/>
       <c r="T45" s="17"/>
       <c r="U45" s="13"/>
@@ -3715,7 +2961,7 @@
       <c r="AI45" s="19"/>
       <c r="AJ45" s="19"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1" spans="1:36">
+    <row r="46" spans="1:36" ht="15.75" customHeight="1">
       <c r="A46" s="6"/>
       <c r="C46" s="8">
         <v>45</v>
@@ -3734,17 +2980,13 @@
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
-      <c r="N46" s="9">
-        <v>1</v>
-      </c>
+      <c r="N46" s="9"/>
       <c r="O46" s="10"/>
       <c r="P46" s="13"/>
       <c r="Q46" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R46" s="16">
-        <v>0</v>
-      </c>
+      <c r="R46" s="16"/>
       <c r="S46" s="17"/>
       <c r="T46" s="17"/>
       <c r="U46" s="13"/>
@@ -3764,7 +3006,7 @@
       <c r="AI46" s="19"/>
       <c r="AJ46" s="19"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" spans="1:36">
+    <row r="47" spans="1:36" ht="15.75" customHeight="1">
       <c r="A47" s="6"/>
       <c r="C47" s="8">
         <v>46</v>
@@ -3783,17 +3025,13 @@
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
-      <c r="N47" s="9">
-        <v>1</v>
-      </c>
+      <c r="N47" s="9"/>
       <c r="O47" s="10"/>
       <c r="P47" s="13"/>
       <c r="Q47" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R47" s="16">
-        <v>0</v>
-      </c>
+      <c r="R47" s="16"/>
       <c r="S47" s="17"/>
       <c r="T47" s="17"/>
       <c r="U47" s="13"/>
@@ -3813,7 +3051,7 @@
       <c r="AI47" s="19"/>
       <c r="AJ47" s="19"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1" spans="1:36">
+    <row r="48" spans="1:36" ht="15.75" customHeight="1">
       <c r="A48" s="6"/>
       <c r="C48" s="8">
         <v>47</v>
@@ -3832,17 +3070,13 @@
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
-      <c r="N48" s="9">
-        <v>1</v>
-      </c>
+      <c r="N48" s="9"/>
       <c r="O48" s="10"/>
       <c r="P48" s="13"/>
       <c r="Q48" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R48" s="16">
-        <v>0</v>
-      </c>
+      <c r="R48" s="16"/>
       <c r="S48" s="17"/>
       <c r="T48" s="17"/>
       <c r="U48" s="13"/>
@@ -3862,7 +3096,7 @@
       <c r="AI48" s="19"/>
       <c r="AJ48" s="19"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1" spans="1:36">
+    <row r="49" spans="1:41" ht="15.75" customHeight="1">
       <c r="A49" s="6"/>
       <c r="C49" s="8">
         <v>48</v>
@@ -3881,17 +3115,13 @@
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
-      <c r="N49" s="9">
-        <v>1</v>
-      </c>
+      <c r="N49" s="9"/>
       <c r="O49" s="10"/>
       <c r="P49" s="13"/>
       <c r="Q49" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R49" s="16">
-        <v>0</v>
-      </c>
+      <c r="R49" s="16"/>
       <c r="S49" s="17"/>
       <c r="T49" s="17"/>
       <c r="U49" s="13"/>
@@ -3911,7 +3141,7 @@
       <c r="AI49" s="19"/>
       <c r="AJ49" s="19"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" spans="1:36">
+    <row r="50" spans="1:41" ht="15.75" customHeight="1">
       <c r="A50" s="6"/>
       <c r="C50" s="8">
         <v>49</v>
@@ -3930,17 +3160,13 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
-      <c r="N50" s="9">
-        <v>1</v>
-      </c>
+      <c r="N50" s="9"/>
       <c r="O50" s="10"/>
       <c r="P50" s="13"/>
       <c r="Q50" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R50" s="16">
-        <v>0</v>
-      </c>
+      <c r="R50" s="16"/>
       <c r="S50" s="17"/>
       <c r="T50" s="17"/>
       <c r="U50" s="13"/>
@@ -3960,7 +3186,7 @@
       <c r="AI50" s="19"/>
       <c r="AJ50" s="19"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" spans="1:36">
+    <row r="51" spans="1:41" ht="15.75" customHeight="1">
       <c r="A51" s="6"/>
       <c r="C51" s="8">
         <v>50</v>
@@ -3979,17 +3205,13 @@
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
-      <c r="N51" s="9">
-        <v>1</v>
-      </c>
+      <c r="N51" s="9"/>
       <c r="O51" s="10"/>
       <c r="P51" s="13"/>
       <c r="Q51" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R51" s="16">
-        <v>0</v>
-      </c>
+      <c r="R51" s="16"/>
       <c r="S51" s="17"/>
       <c r="T51" s="17"/>
       <c r="U51" s="13"/>
@@ -4009,7 +3231,7 @@
       <c r="AI51" s="19"/>
       <c r="AJ51" s="19"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" spans="1:36">
+    <row r="52" spans="1:41" ht="15.75" customHeight="1">
       <c r="A52" s="6"/>
       <c r="C52" s="8">
         <v>51</v>
@@ -4028,17 +3250,13 @@
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
-      <c r="N52" s="9">
-        <v>1</v>
-      </c>
+      <c r="N52" s="9"/>
       <c r="O52" s="10"/>
       <c r="P52" s="13"/>
       <c r="Q52" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R52" s="16">
-        <v>0</v>
-      </c>
+      <c r="R52" s="16"/>
       <c r="S52" s="17"/>
       <c r="T52" s="17"/>
       <c r="U52" s="13"/>
@@ -4058,9 +3276,9 @@
       <c r="AI52" s="19"/>
       <c r="AJ52" s="19"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1" spans="38:41">
+    <row r="53" spans="1:41" ht="15.75" customHeight="1"/>
+    <row r="54" spans="1:41" ht="15.75" customHeight="1"/>
+    <row r="55" spans="1:41" ht="15.75" customHeight="1">
       <c r="AL55" s="20" t="s">
         <v>37</v>
       </c>
@@ -4074,7 +3292,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1" spans="38:41">
+    <row r="56" spans="1:41" ht="15.75" customHeight="1">
       <c r="AL56" s="23">
         <v>1</v>
       </c>
@@ -4091,7 +3309,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1" spans="38:41">
+    <row r="57" spans="1:41" ht="15.75" customHeight="1">
       <c r="AL57" s="23">
         <v>2</v>
       </c>
@@ -4108,7 +3326,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1" spans="38:41">
+    <row r="58" spans="1:41" ht="15.75" customHeight="1">
       <c r="AL58" s="23">
         <v>3</v>
       </c>
@@ -4125,7 +3343,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1" spans="38:41">
+    <row r="59" spans="1:41" ht="15.75" customHeight="1">
       <c r="AL59" s="23">
         <v>4</v>
       </c>
@@ -4142,7 +3360,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1" spans="38:41">
+    <row r="60" spans="1:41" ht="15.75" customHeight="1">
       <c r="AL60" s="23">
         <v>5</v>
       </c>
@@ -4159,7 +3377,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1" spans="38:41">
+    <row r="61" spans="1:41" ht="15.75" customHeight="1">
       <c r="AL61" s="23">
         <v>6</v>
       </c>
@@ -4176,7 +3394,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1" spans="38:41">
+    <row r="62" spans="1:41" ht="15.75" customHeight="1">
       <c r="AL62" s="23">
         <v>7</v>
       </c>
@@ -4193,7 +3411,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1" spans="38:41">
+    <row r="63" spans="1:41" ht="15.75" customHeight="1">
       <c r="AL63" s="23">
         <v>8</v>
       </c>
@@ -4210,7 +3428,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1" spans="38:41">
+    <row r="64" spans="1:41" ht="15.75" customHeight="1">
       <c r="AL64" s="23">
         <v>9</v>
       </c>
@@ -4227,7 +3445,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1" spans="38:41">
+    <row r="65" spans="38:41" ht="15.75" customHeight="1">
       <c r="AL65" s="27">
         <v>10</v>
       </c>
@@ -4239,15 +3457,15 @@
         <f>LARGE(#REF!,10)</f>
         <v>#REF!</v>
       </c>
-      <c r="AO65" s="34" t="e">
+      <c r="AO65" s="32" t="e">
         <f>AN65/#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="66" ht="3.75" customHeight="1" spans="41:41">
-      <c r="AO66" s="35"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1" spans="38:41">
+    <row r="66" spans="38:41" ht="3.75" customHeight="1">
+      <c r="AO66" s="33"/>
+    </row>
+    <row r="67" spans="38:41" ht="15.75" customHeight="1">
       <c r="AL67" s="8">
         <v>11</v>
       </c>
@@ -4258,37 +3476,37 @@
         <f>AN68-SUM(AN56:AN65)</f>
         <v>#REF!</v>
       </c>
-      <c r="AO67" s="36" t="e">
+      <c r="AO67" s="34" t="e">
         <f>AN67/#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1" spans="38:41">
-      <c r="AL68" s="31" t="s">
+    <row r="68" spans="38:41" ht="15.75" customHeight="1">
+      <c r="AL68" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AM68" s="32"/>
-      <c r="AN68" s="33" t="e">
+      <c r="AM68" s="37"/>
+      <c r="AN68" s="31" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AO68" s="37" t="e">
+      <c r="AO68" s="35" t="e">
         <f>AN68/#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="69" spans="38:41" ht="15.75" customHeight="1"/>
+    <row r="70" spans="38:41" ht="15.75" customHeight="1"/>
+    <row r="71" spans="38:41" ht="15.75" customHeight="1"/>
+    <row r="72" spans="38:41" ht="15.75" customHeight="1"/>
+    <row r="73" spans="38:41" ht="15.75" customHeight="1"/>
+    <row r="74" spans="38:41" ht="15.75" customHeight="1"/>
+    <row r="75" spans="38:41" ht="15.75" customHeight="1"/>
+    <row r="76" spans="38:41" ht="15.75" customHeight="1"/>
+    <row r="77" spans="38:41" ht="15.75" customHeight="1"/>
+    <row r="78" spans="38:41" ht="15.75" customHeight="1"/>
+    <row r="79" spans="38:41" ht="15.75" customHeight="1"/>
+    <row r="80" spans="38:41" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -5214,21 +4432,21 @@
     <mergeCell ref="AL68:AM68"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="between" text="not ">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="not ">
       <formula>NOT(ISERROR(SEARCH("not ",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:B52">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="between" text="not ">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="not ">
       <formula>NOT(ISERROR(SEARCH("not ",A52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B51">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="between" text="not ">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="not ">
       <formula>NOT(ISERROR(SEARCH("not ",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="9">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2">
       <formula1>tabel_dept</formula1>
     </dataValidation>
@@ -5241,24 +4459,41 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F52 H2:H52 O2:O52">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I52">
-      <formula1>'[1]#REF'!$W$26:$W$32</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K2:K52">
       <formula1>T_impdom</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T2:T52 V2:V52">
-      <formula1>'[1]#REF'!$Y$51:$Y$70</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S2:S52">
-      <formula1>'[1]#REF'!$Y$17:$Y$28</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X2:X52">
-      <formula1>'[1]#REF'!$X$73:$X$75</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[1]#REF'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I52</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[1]#REF'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>T2:T52 V2:V52</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[1]#REF'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>S2:S52</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[1]#REF'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>X2:X52</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/public/files/Template_Capex_export.xlsx
+++ b/public/files/Template_Capex_export.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Project Management\01_Source code\new_cubic_pro\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/handika/Documents/02_SOURCE_CODE/01_LARAVEL/02_PHP_7_3/cubic_pro/public/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D305841-673A-43E3-AEC1-CD9EC2B8995A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED9D57A-B2F3-BE45-A28D-18EE76557F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="44">
   <si>
     <t>DEPT :</t>
   </si>
@@ -309,11 +309,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@"/>
-    <numFmt numFmtId="167" formatCode="[$-409]mmm\-yy"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]mmm\-yy"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -328,39 +328,39 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -545,16 +545,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -571,24 +571,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,47 +834,47 @@
   </sheetPr>
   <dimension ref="B1:AO1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:Y36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A148" zoomScale="50" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="R194" sqref="R194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" customWidth="1"/>
-    <col min="6" max="6" width="18.54296875" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="8" width="23.453125" customWidth="1"/>
-    <col min="9" max="10" width="18.1796875" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" customWidth="1"/>
-    <col min="12" max="12" width="44.453125" customWidth="1"/>
-    <col min="13" max="13" width="25.453125" customWidth="1"/>
-    <col min="14" max="14" width="6.81640625" customWidth="1"/>
-    <col min="15" max="15" width="13.81640625" customWidth="1"/>
-    <col min="16" max="16" width="18.54296875" customWidth="1"/>
+    <col min="1" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="23.5" customWidth="1"/>
+    <col min="9" max="10" width="18.1640625" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" customWidth="1"/>
+    <col min="12" max="12" width="44.5" customWidth="1"/>
+    <col min="13" max="13" width="25.5" customWidth="1"/>
+    <col min="14" max="14" width="6.83203125" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" customWidth="1"/>
+    <col min="16" max="16" width="18.5" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
     <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="20" width="19.453125" customWidth="1"/>
-    <col min="21" max="21" width="14.453125" customWidth="1"/>
-    <col min="22" max="22" width="19.453125" customWidth="1"/>
-    <col min="23" max="24" width="14.453125" customWidth="1"/>
-    <col min="25" max="26" width="9.81640625" customWidth="1"/>
+    <col min="19" max="20" width="19.5" customWidth="1"/>
+    <col min="21" max="21" width="14.5" customWidth="1"/>
+    <col min="22" max="22" width="19.5" customWidth="1"/>
+    <col min="23" max="24" width="14.5" customWidth="1"/>
+    <col min="25" max="26" width="9.83203125" customWidth="1"/>
     <col min="27" max="27" width="9" customWidth="1"/>
-    <col min="28" max="28" width="8.453125" customWidth="1"/>
-    <col min="29" max="29" width="9.7265625" customWidth="1"/>
-    <col min="30" max="30" width="9.453125" customWidth="1"/>
-    <col min="31" max="31" width="8.7265625" customWidth="1"/>
-    <col min="32" max="32" width="9.7265625" customWidth="1"/>
-    <col min="33" max="34" width="9.453125" customWidth="1"/>
-    <col min="35" max="35" width="9.81640625" customWidth="1"/>
-    <col min="36" max="36" width="10.1796875" customWidth="1"/>
-    <col min="37" max="37" width="8.7265625" customWidth="1"/>
-    <col min="38" max="38" width="5.453125" customWidth="1"/>
-    <col min="39" max="39" width="50.54296875" customWidth="1"/>
+    <col min="28" max="28" width="8.5" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" customWidth="1"/>
+    <col min="30" max="30" width="9.5" customWidth="1"/>
+    <col min="31" max="31" width="8.6640625" customWidth="1"/>
+    <col min="32" max="32" width="9.6640625" customWidth="1"/>
+    <col min="33" max="34" width="9.5" customWidth="1"/>
+    <col min="35" max="35" width="9.83203125" customWidth="1"/>
+    <col min="36" max="36" width="10.1640625" customWidth="1"/>
+    <col min="37" max="37" width="8.6640625" customWidth="1"/>
+    <col min="38" max="38" width="5.5" customWidth="1"/>
+    <col min="39" max="39" width="50.5" customWidth="1"/>
     <col min="40" max="40" width="19" customWidth="1"/>
-    <col min="41" max="41" width="9.1796875" customWidth="1"/>
+    <col min="41" max="41" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:37" ht="49.5" customHeight="1">
@@ -1009,12 +1009,12 @@
       <c r="P2" s="12"/>
       <c r="Q2" s="14"/>
       <c r="R2" s="15"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
       <c r="Y2" s="12"/>
       <c r="Z2" s="17"/>
       <c r="AA2" s="17"/>
@@ -1029,7 +1029,7 @@
       <c r="AJ2" s="17"/>
       <c r="AK2" s="17"/>
     </row>
-    <row r="3" spans="2:37" ht="14.5">
+    <row r="3" spans="2:37">
       <c r="C3" s="7">
         <v>2</v>
       </c>
@@ -1048,12 +1048,12 @@
       <c r="P3" s="12"/>
       <c r="Q3" s="14"/>
       <c r="R3" s="15"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="17"/>
       <c r="AA3" s="17"/>
@@ -1068,7 +1068,7 @@
       <c r="AJ3" s="17"/>
       <c r="AK3" s="17"/>
     </row>
-    <row r="4" spans="2:37" ht="14.5">
+    <row r="4" spans="2:37">
       <c r="C4" s="7">
         <v>3</v>
       </c>
@@ -1093,12 +1093,12 @@
         <v>36</v>
       </c>
       <c r="R4" s="15"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="17"/>
       <c r="AA4" s="17"/>
@@ -1113,7 +1113,7 @@
       <c r="AJ4" s="17"/>
       <c r="AK4" s="17"/>
     </row>
-    <row r="5" spans="2:37" ht="14.5">
+    <row r="5" spans="2:37">
       <c r="C5" s="7">
         <v>4</v>
       </c>
@@ -1138,12 +1138,12 @@
         <v>36</v>
       </c>
       <c r="R5" s="15"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="17"/>
       <c r="AA5" s="17"/>
@@ -1158,7 +1158,7 @@
       <c r="AJ5" s="17"/>
       <c r="AK5" s="17"/>
     </row>
-    <row r="6" spans="2:37" ht="14.5">
+    <row r="6" spans="2:37">
       <c r="C6" s="7">
         <v>5</v>
       </c>
@@ -1183,12 +1183,12 @@
         <v>36</v>
       </c>
       <c r="R6" s="15"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="17"/>
       <c r="AA6" s="17"/>
@@ -1203,7 +1203,7 @@
       <c r="AJ6" s="17"/>
       <c r="AK6" s="17"/>
     </row>
-    <row r="7" spans="2:37" ht="14.5">
+    <row r="7" spans="2:37">
       <c r="C7" s="7">
         <v>6</v>
       </c>
@@ -1228,12 +1228,12 @@
         <v>36</v>
       </c>
       <c r="R7" s="15"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="17"/>
       <c r="AA7" s="17"/>
@@ -1248,7 +1248,7 @@
       <c r="AJ7" s="17"/>
       <c r="AK7" s="17"/>
     </row>
-    <row r="8" spans="2:37" ht="14.5">
+    <row r="8" spans="2:37">
       <c r="C8" s="7">
         <v>7</v>
       </c>
@@ -1273,12 +1273,12 @@
         <v>36</v>
       </c>
       <c r="R8" s="15"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
       <c r="Y8" s="12"/>
       <c r="Z8" s="17"/>
       <c r="AA8" s="17"/>
@@ -1293,7 +1293,7 @@
       <c r="AJ8" s="17"/>
       <c r="AK8" s="17"/>
     </row>
-    <row r="9" spans="2:37" ht="14.5">
+    <row r="9" spans="2:37">
       <c r="C9" s="7">
         <v>8</v>
       </c>
@@ -1318,12 +1318,12 @@
         <v>36</v>
       </c>
       <c r="R9" s="15"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
       <c r="Y9" s="12"/>
       <c r="Z9" s="17"/>
       <c r="AA9" s="17"/>
@@ -1338,7 +1338,7 @@
       <c r="AJ9" s="17"/>
       <c r="AK9" s="17"/>
     </row>
-    <row r="10" spans="2:37" ht="14.5">
+    <row r="10" spans="2:37">
       <c r="C10" s="7">
         <v>9</v>
       </c>
@@ -1363,12 +1363,12 @@
         <v>36</v>
       </c>
       <c r="R10" s="15"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
       <c r="Y10" s="12"/>
       <c r="Z10" s="17"/>
       <c r="AA10" s="17"/>
@@ -1383,7 +1383,7 @@
       <c r="AJ10" s="17"/>
       <c r="AK10" s="17"/>
     </row>
-    <row r="11" spans="2:37" ht="14.5">
+    <row r="11" spans="2:37">
       <c r="C11" s="7">
         <v>10</v>
       </c>
@@ -1408,12 +1408,12 @@
         <v>36</v>
       </c>
       <c r="R11" s="15"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
       <c r="Y11" s="12"/>
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
@@ -1428,7 +1428,7 @@
       <c r="AJ11" s="17"/>
       <c r="AK11" s="17"/>
     </row>
-    <row r="12" spans="2:37" ht="14.5">
+    <row r="12" spans="2:37">
       <c r="C12" s="7">
         <v>11</v>
       </c>
@@ -1453,12 +1453,12 @@
         <v>36</v>
       </c>
       <c r="R12" s="15"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
       <c r="Y12" s="12"/>
       <c r="Z12" s="17"/>
       <c r="AA12" s="17"/>
@@ -1473,7 +1473,7 @@
       <c r="AJ12" s="17"/>
       <c r="AK12" s="17"/>
     </row>
-    <row r="13" spans="2:37" ht="14.5">
+    <row r="13" spans="2:37">
       <c r="C13" s="7">
         <v>12</v>
       </c>
@@ -1498,12 +1498,12 @@
         <v>36</v>
       </c>
       <c r="R13" s="15"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
       <c r="Y13" s="12"/>
       <c r="Z13" s="17"/>
       <c r="AA13" s="17"/>
@@ -1518,7 +1518,7 @@
       <c r="AJ13" s="17"/>
       <c r="AK13" s="17"/>
     </row>
-    <row r="14" spans="2:37" ht="14.5">
+    <row r="14" spans="2:37">
       <c r="C14" s="7">
         <v>13</v>
       </c>
@@ -1543,12 +1543,12 @@
         <v>36</v>
       </c>
       <c r="R14" s="15"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="17"/>
       <c r="AA14" s="17"/>
@@ -1563,7 +1563,7 @@
       <c r="AJ14" s="17"/>
       <c r="AK14" s="17"/>
     </row>
-    <row r="15" spans="2:37" ht="14.5">
+    <row r="15" spans="2:37">
       <c r="C15" s="7">
         <v>14</v>
       </c>
@@ -1588,12 +1588,12 @@
         <v>36</v>
       </c>
       <c r="R15" s="15"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="17"/>
       <c r="AA15" s="17"/>
@@ -1608,7 +1608,7 @@
       <c r="AJ15" s="17"/>
       <c r="AK15" s="17"/>
     </row>
-    <row r="16" spans="2:37" ht="14.5">
+    <row r="16" spans="2:37">
       <c r="C16" s="7">
         <v>15</v>
       </c>
@@ -1633,12 +1633,12 @@
         <v>36</v>
       </c>
       <c r="R16" s="15"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="17"/>
       <c r="AA16" s="17"/>
@@ -1653,7 +1653,7 @@
       <c r="AJ16" s="17"/>
       <c r="AK16" s="17"/>
     </row>
-    <row r="17" spans="3:37" ht="14.5">
+    <row r="17" spans="3:37">
       <c r="C17" s="7">
         <v>16</v>
       </c>
@@ -1678,12 +1678,12 @@
         <v>36</v>
       </c>
       <c r="R17" s="15"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="17"/>
       <c r="AA17" s="17"/>
@@ -1698,7 +1698,7 @@
       <c r="AJ17" s="17"/>
       <c r="AK17" s="17"/>
     </row>
-    <row r="18" spans="3:37" ht="14.5">
+    <row r="18" spans="3:37">
       <c r="C18" s="7">
         <v>17</v>
       </c>
@@ -1723,12 +1723,12 @@
         <v>36</v>
       </c>
       <c r="R18" s="15"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="17"/>
       <c r="AA18" s="17"/>
@@ -1743,7 +1743,7 @@
       <c r="AJ18" s="17"/>
       <c r="AK18" s="17"/>
     </row>
-    <row r="19" spans="3:37" ht="14.5">
+    <row r="19" spans="3:37">
       <c r="C19" s="7">
         <v>18</v>
       </c>
@@ -1768,12 +1768,12 @@
         <v>36</v>
       </c>
       <c r="R19" s="15"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
       <c r="Y19" s="12"/>
       <c r="Z19" s="17"/>
       <c r="AA19" s="17"/>
@@ -1788,7 +1788,7 @@
       <c r="AJ19" s="17"/>
       <c r="AK19" s="17"/>
     </row>
-    <row r="20" spans="3:37" ht="14.5">
+    <row r="20" spans="3:37">
       <c r="C20" s="7">
         <v>19</v>
       </c>
@@ -1813,12 +1813,12 @@
         <v>36</v>
       </c>
       <c r="R20" s="15"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
       <c r="Y20" s="12"/>
       <c r="Z20" s="17"/>
       <c r="AA20" s="17"/>
@@ -1858,12 +1858,12 @@
         <v>36</v>
       </c>
       <c r="R21" s="15"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
       <c r="Y21" s="12"/>
       <c r="Z21" s="17"/>
       <c r="AA21" s="17"/>
@@ -1903,12 +1903,12 @@
         <v>36</v>
       </c>
       <c r="R22" s="15"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
       <c r="Y22" s="12"/>
       <c r="Z22" s="17"/>
       <c r="AA22" s="17"/>
@@ -1948,12 +1948,12 @@
         <v>36</v>
       </c>
       <c r="R23" s="15"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
       <c r="Y23" s="12"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="17"/>
@@ -1993,12 +1993,12 @@
         <v>36</v>
       </c>
       <c r="R24" s="15"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="17"/>
@@ -2038,12 +2038,12 @@
         <v>36</v>
       </c>
       <c r="R25" s="15"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
       <c r="Y25" s="12"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="17"/>
@@ -2083,12 +2083,12 @@
         <v>36</v>
       </c>
       <c r="R26" s="15"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
       <c r="Y26" s="12"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="17"/>
@@ -2128,12 +2128,12 @@
         <v>36</v>
       </c>
       <c r="R27" s="15"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
       <c r="Y27" s="12"/>
       <c r="Z27" s="17"/>
       <c r="AA27" s="17"/>
@@ -2173,12 +2173,12 @@
         <v>36</v>
       </c>
       <c r="R28" s="15"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
       <c r="Y28" s="12"/>
       <c r="Z28" s="17"/>
       <c r="AA28" s="17"/>
@@ -2218,12 +2218,12 @@
         <v>36</v>
       </c>
       <c r="R29" s="15"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
       <c r="Y29" s="12"/>
       <c r="Z29" s="17"/>
       <c r="AA29" s="17"/>
@@ -2263,12 +2263,12 @@
         <v>36</v>
       </c>
       <c r="R30" s="15"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
       <c r="Y30" s="12"/>
       <c r="Z30" s="17"/>
       <c r="AA30" s="17"/>
@@ -2308,12 +2308,12 @@
         <v>36</v>
       </c>
       <c r="R31" s="15"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
       <c r="Y31" s="12"/>
       <c r="Z31" s="17"/>
       <c r="AA31" s="17"/>
@@ -2353,12 +2353,12 @@
         <v>36</v>
       </c>
       <c r="R32" s="15"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="17"/>
       <c r="AA32" s="17"/>
@@ -2398,12 +2398,12 @@
         <v>36</v>
       </c>
       <c r="R33" s="15"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="36"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34"/>
       <c r="Y33" s="12"/>
       <c r="Z33" s="17"/>
       <c r="AA33" s="17"/>
@@ -2443,12 +2443,12 @@
         <v>36</v>
       </c>
       <c r="R34" s="15"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
       <c r="Y34" s="12"/>
       <c r="Z34" s="17"/>
       <c r="AA34" s="17"/>
@@ -2488,12 +2488,12 @@
         <v>36</v>
       </c>
       <c r="R35" s="15"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34"/>
       <c r="Y35" s="12"/>
       <c r="Z35" s="17"/>
       <c r="AA35" s="17"/>
@@ -2533,12 +2533,12 @@
         <v>36</v>
       </c>
       <c r="R36" s="15"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="36"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
       <c r="Y36" s="12"/>
       <c r="Z36" s="17"/>
       <c r="AA36" s="17"/>
@@ -2578,12 +2578,12 @@
         <v>36</v>
       </c>
       <c r="R37" s="15"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="36"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="36"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
       <c r="Y37" s="12"/>
       <c r="Z37" s="17"/>
       <c r="AA37" s="17"/>
@@ -2623,12 +2623,12 @@
         <v>36</v>
       </c>
       <c r="R38" s="15"/>
-      <c r="S38" s="36"/>
-      <c r="T38" s="36"/>
-      <c r="U38" s="36"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="36"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34"/>
       <c r="Y38" s="12"/>
       <c r="Z38" s="17"/>
       <c r="AA38" s="17"/>
@@ -2668,12 +2668,12 @@
         <v>36</v>
       </c>
       <c r="R39" s="15"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="36"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
       <c r="Y39" s="12"/>
       <c r="Z39" s="17"/>
       <c r="AA39" s="17"/>
@@ -2713,12 +2713,12 @@
         <v>36</v>
       </c>
       <c r="R40" s="15"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="36"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="34"/>
       <c r="Y40" s="12"/>
       <c r="Z40" s="17"/>
       <c r="AA40" s="17"/>
@@ -2758,12 +2758,12 @@
         <v>36</v>
       </c>
       <c r="R41" s="15"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="36"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="36"/>
-      <c r="W41" s="36"/>
-      <c r="X41" s="36"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="34"/>
+      <c r="X41" s="34"/>
       <c r="Y41" s="12"/>
       <c r="Z41" s="17"/>
       <c r="AA41" s="17"/>
@@ -2803,12 +2803,12 @@
         <v>36</v>
       </c>
       <c r="R42" s="15"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="36"/>
-      <c r="U42" s="36"/>
-      <c r="V42" s="36"/>
-      <c r="W42" s="36"/>
-      <c r="X42" s="36"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="34"/>
       <c r="Y42" s="12"/>
       <c r="Z42" s="17"/>
       <c r="AA42" s="17"/>
@@ -2848,12 +2848,12 @@
         <v>36</v>
       </c>
       <c r="R43" s="15"/>
-      <c r="S43" s="36"/>
-      <c r="T43" s="36"/>
-      <c r="U43" s="36"/>
-      <c r="V43" s="36"/>
-      <c r="W43" s="36"/>
-      <c r="X43" s="36"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="34"/>
       <c r="Y43" s="12"/>
       <c r="Z43" s="17"/>
       <c r="AA43" s="17"/>
@@ -2893,12 +2893,12 @@
         <v>36</v>
       </c>
       <c r="R44" s="15"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="36"/>
-      <c r="U44" s="36"/>
-      <c r="V44" s="36"/>
-      <c r="W44" s="36"/>
-      <c r="X44" s="36"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="34"/>
+      <c r="X44" s="34"/>
       <c r="Y44" s="12"/>
       <c r="Z44" s="17"/>
       <c r="AA44" s="17"/>
@@ -2938,12 +2938,12 @@
         <v>36</v>
       </c>
       <c r="R45" s="15"/>
-      <c r="S45" s="36"/>
-      <c r="T45" s="36"/>
-      <c r="U45" s="36"/>
-      <c r="V45" s="36"/>
-      <c r="W45" s="36"/>
-      <c r="X45" s="36"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="34"/>
       <c r="Y45" s="12"/>
       <c r="Z45" s="17"/>
       <c r="AA45" s="17"/>
@@ -2983,12 +2983,12 @@
         <v>36</v>
       </c>
       <c r="R46" s="15"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="36"/>
-      <c r="U46" s="36"/>
-      <c r="V46" s="36"/>
-      <c r="W46" s="36"/>
-      <c r="X46" s="36"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="34"/>
+      <c r="W46" s="34"/>
+      <c r="X46" s="34"/>
       <c r="Y46" s="12"/>
       <c r="Z46" s="17"/>
       <c r="AA46" s="17"/>
@@ -3028,12 +3028,12 @@
         <v>36</v>
       </c>
       <c r="R47" s="15"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="36"/>
-      <c r="W47" s="36"/>
-      <c r="X47" s="36"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="34"/>
       <c r="Y47" s="12"/>
       <c r="Z47" s="17"/>
       <c r="AA47" s="17"/>
@@ -3073,12 +3073,12 @@
         <v>36</v>
       </c>
       <c r="R48" s="15"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="36"/>
-      <c r="V48" s="36"/>
-      <c r="W48" s="36"/>
-      <c r="X48" s="36"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="34"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="34"/>
       <c r="Y48" s="12"/>
       <c r="Z48" s="17"/>
       <c r="AA48" s="17"/>
@@ -3118,12 +3118,12 @@
         <v>36</v>
       </c>
       <c r="R49" s="15"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="36"/>
-      <c r="W49" s="36"/>
-      <c r="X49" s="36"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="34"/>
+      <c r="W49" s="34"/>
+      <c r="X49" s="34"/>
       <c r="Y49" s="12"/>
       <c r="Z49" s="17"/>
       <c r="AA49" s="17"/>
@@ -3163,12 +3163,12 @@
         <v>36</v>
       </c>
       <c r="R50" s="15"/>
-      <c r="S50" s="36"/>
-      <c r="T50" s="36"/>
-      <c r="U50" s="36"/>
-      <c r="V50" s="36"/>
-      <c r="W50" s="36"/>
-      <c r="X50" s="36"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="34"/>
+      <c r="V50" s="34"/>
+      <c r="W50" s="34"/>
+      <c r="X50" s="34"/>
       <c r="Y50" s="12"/>
       <c r="Z50" s="17"/>
       <c r="AA50" s="17"/>
@@ -3208,12 +3208,12 @@
         <v>36</v>
       </c>
       <c r="R51" s="15"/>
-      <c r="S51" s="36"/>
-      <c r="T51" s="36"/>
-      <c r="U51" s="36"/>
-      <c r="V51" s="36"/>
-      <c r="W51" s="36"/>
-      <c r="X51" s="36"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="34"/>
+      <c r="V51" s="34"/>
+      <c r="W51" s="34"/>
+      <c r="X51" s="34"/>
       <c r="Y51" s="12"/>
       <c r="Z51" s="17"/>
       <c r="AA51" s="17"/>
@@ -3253,12 +3253,12 @@
         <v>36</v>
       </c>
       <c r="R52" s="15"/>
-      <c r="S52" s="36"/>
-      <c r="T52" s="36"/>
-      <c r="U52" s="36"/>
-      <c r="V52" s="36"/>
-      <c r="W52" s="36"/>
-      <c r="X52" s="36"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="34"/>
+      <c r="V52" s="34"/>
+      <c r="W52" s="34"/>
+      <c r="X52" s="34"/>
       <c r="Y52" s="12"/>
       <c r="Z52" s="17"/>
       <c r="AA52" s="17"/>
@@ -3273,9 +3273,140 @@
       <c r="AJ52" s="17"/>
       <c r="AK52" s="17"/>
     </row>
-    <row r="53" spans="3:41" ht="15.75" customHeight="1"/>
-    <row r="54" spans="3:41" ht="15.75" customHeight="1"/>
+    <row r="53" spans="3:41" ht="15.75" customHeight="1">
+      <c r="C53" s="7">
+        <v>52</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R53" s="15"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="34"/>
+      <c r="V53" s="34"/>
+      <c r="W53" s="34"/>
+      <c r="X53" s="34"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="17"/>
+      <c r="AA53" s="17"/>
+      <c r="AB53" s="17"/>
+      <c r="AC53" s="17"/>
+      <c r="AD53" s="17"/>
+      <c r="AE53" s="17"/>
+      <c r="AF53" s="17"/>
+      <c r="AG53" s="17"/>
+      <c r="AH53" s="17"/>
+      <c r="AI53" s="17"/>
+      <c r="AJ53" s="17"/>
+      <c r="AK53" s="17"/>
+    </row>
+    <row r="54" spans="3:41" ht="15.75" customHeight="1">
+      <c r="C54" s="7">
+        <v>53</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R54" s="15"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="34"/>
+      <c r="V54" s="34"/>
+      <c r="W54" s="34"/>
+      <c r="X54" s="34"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="17"/>
+      <c r="AA54" s="17"/>
+      <c r="AB54" s="17"/>
+      <c r="AC54" s="17"/>
+      <c r="AD54" s="17"/>
+      <c r="AE54" s="17"/>
+      <c r="AF54" s="17"/>
+      <c r="AG54" s="17"/>
+      <c r="AH54" s="17"/>
+      <c r="AI54" s="17"/>
+      <c r="AJ54" s="17"/>
+      <c r="AK54" s="17"/>
+    </row>
     <row r="55" spans="3:41" ht="15.75" customHeight="1">
+      <c r="C55" s="7">
+        <v>54</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R55" s="15"/>
+      <c r="S55" s="34"/>
+      <c r="T55" s="34"/>
+      <c r="U55" s="34"/>
+      <c r="V55" s="34"/>
+      <c r="W55" s="34"/>
+      <c r="X55" s="34"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="17"/>
+      <c r="AA55" s="17"/>
+      <c r="AB55" s="17"/>
+      <c r="AC55" s="17"/>
+      <c r="AD55" s="17"/>
+      <c r="AE55" s="17"/>
+      <c r="AF55" s="17"/>
+      <c r="AG55" s="17"/>
+      <c r="AH55" s="17"/>
+      <c r="AI55" s="17"/>
+      <c r="AJ55" s="17"/>
+      <c r="AK55" s="17"/>
       <c r="AL55" s="18" t="s">
         <v>37</v>
       </c>
@@ -3290,6 +3421,49 @@
       </c>
     </row>
     <row r="56" spans="3:41" ht="15.75" customHeight="1">
+      <c r="C56" s="7">
+        <v>55</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R56" s="15"/>
+      <c r="S56" s="34"/>
+      <c r="T56" s="34"/>
+      <c r="U56" s="34"/>
+      <c r="V56" s="34"/>
+      <c r="W56" s="34"/>
+      <c r="X56" s="34"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="17"/>
+      <c r="AA56" s="17"/>
+      <c r="AB56" s="17"/>
+      <c r="AC56" s="17"/>
+      <c r="AD56" s="17"/>
+      <c r="AE56" s="17"/>
+      <c r="AF56" s="17"/>
+      <c r="AG56" s="17"/>
+      <c r="AH56" s="17"/>
+      <c r="AI56" s="17"/>
+      <c r="AJ56" s="17"/>
+      <c r="AK56" s="17"/>
       <c r="AL56" s="21">
         <v>1</v>
       </c>
@@ -3307,6 +3481,49 @@
       </c>
     </row>
     <row r="57" spans="3:41" ht="15.75" customHeight="1">
+      <c r="C57" s="7">
+        <v>56</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R57" s="15"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="34"/>
+      <c r="U57" s="34"/>
+      <c r="V57" s="34"/>
+      <c r="W57" s="34"/>
+      <c r="X57" s="34"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="17"/>
+      <c r="AA57" s="17"/>
+      <c r="AB57" s="17"/>
+      <c r="AC57" s="17"/>
+      <c r="AD57" s="17"/>
+      <c r="AE57" s="17"/>
+      <c r="AF57" s="17"/>
+      <c r="AG57" s="17"/>
+      <c r="AH57" s="17"/>
+      <c r="AI57" s="17"/>
+      <c r="AJ57" s="17"/>
+      <c r="AK57" s="17"/>
       <c r="AL57" s="21">
         <v>2</v>
       </c>
@@ -3324,6 +3541,49 @@
       </c>
     </row>
     <row r="58" spans="3:41" ht="15.75" customHeight="1">
+      <c r="C58" s="7">
+        <v>57</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R58" s="15"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="34"/>
+      <c r="U58" s="34"/>
+      <c r="V58" s="34"/>
+      <c r="W58" s="34"/>
+      <c r="X58" s="34"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="17"/>
+      <c r="AA58" s="17"/>
+      <c r="AB58" s="17"/>
+      <c r="AC58" s="17"/>
+      <c r="AD58" s="17"/>
+      <c r="AE58" s="17"/>
+      <c r="AF58" s="17"/>
+      <c r="AG58" s="17"/>
+      <c r="AH58" s="17"/>
+      <c r="AI58" s="17"/>
+      <c r="AJ58" s="17"/>
+      <c r="AK58" s="17"/>
       <c r="AL58" s="21">
         <v>3</v>
       </c>
@@ -3341,6 +3601,49 @@
       </c>
     </row>
     <row r="59" spans="3:41" ht="15.75" customHeight="1">
+      <c r="C59" s="7">
+        <v>58</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R59" s="15"/>
+      <c r="S59" s="34"/>
+      <c r="T59" s="34"/>
+      <c r="U59" s="34"/>
+      <c r="V59" s="34"/>
+      <c r="W59" s="34"/>
+      <c r="X59" s="34"/>
+      <c r="Y59" s="12"/>
+      <c r="Z59" s="17"/>
+      <c r="AA59" s="17"/>
+      <c r="AB59" s="17"/>
+      <c r="AC59" s="17"/>
+      <c r="AD59" s="17"/>
+      <c r="AE59" s="17"/>
+      <c r="AF59" s="17"/>
+      <c r="AG59" s="17"/>
+      <c r="AH59" s="17"/>
+      <c r="AI59" s="17"/>
+      <c r="AJ59" s="17"/>
+      <c r="AK59" s="17"/>
       <c r="AL59" s="21">
         <v>4</v>
       </c>
@@ -3358,6 +3661,49 @@
       </c>
     </row>
     <row r="60" spans="3:41" ht="15.75" customHeight="1">
+      <c r="C60" s="7">
+        <v>59</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R60" s="15"/>
+      <c r="S60" s="34"/>
+      <c r="T60" s="34"/>
+      <c r="U60" s="34"/>
+      <c r="V60" s="34"/>
+      <c r="W60" s="34"/>
+      <c r="X60" s="34"/>
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="17"/>
+      <c r="AA60" s="17"/>
+      <c r="AB60" s="17"/>
+      <c r="AC60" s="17"/>
+      <c r="AD60" s="17"/>
+      <c r="AE60" s="17"/>
+      <c r="AF60" s="17"/>
+      <c r="AG60" s="17"/>
+      <c r="AH60" s="17"/>
+      <c r="AI60" s="17"/>
+      <c r="AJ60" s="17"/>
+      <c r="AK60" s="17"/>
       <c r="AL60" s="21">
         <v>5</v>
       </c>
@@ -3375,6 +3721,49 @@
       </c>
     </row>
     <row r="61" spans="3:41" ht="15.75" customHeight="1">
+      <c r="C61" s="7">
+        <v>60</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R61" s="15"/>
+      <c r="S61" s="34"/>
+      <c r="T61" s="34"/>
+      <c r="U61" s="34"/>
+      <c r="V61" s="34"/>
+      <c r="W61" s="34"/>
+      <c r="X61" s="34"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="17"/>
+      <c r="AA61" s="17"/>
+      <c r="AB61" s="17"/>
+      <c r="AC61" s="17"/>
+      <c r="AD61" s="17"/>
+      <c r="AE61" s="17"/>
+      <c r="AF61" s="17"/>
+      <c r="AG61" s="17"/>
+      <c r="AH61" s="17"/>
+      <c r="AI61" s="17"/>
+      <c r="AJ61" s="17"/>
+      <c r="AK61" s="17"/>
       <c r="AL61" s="21">
         <v>6</v>
       </c>
@@ -3392,6 +3781,49 @@
       </c>
     </row>
     <row r="62" spans="3:41" ht="15.75" customHeight="1">
+      <c r="C62" s="7">
+        <v>61</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R62" s="15"/>
+      <c r="S62" s="34"/>
+      <c r="T62" s="34"/>
+      <c r="U62" s="34"/>
+      <c r="V62" s="34"/>
+      <c r="W62" s="34"/>
+      <c r="X62" s="34"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="17"/>
+      <c r="AA62" s="17"/>
+      <c r="AB62" s="17"/>
+      <c r="AC62" s="17"/>
+      <c r="AD62" s="17"/>
+      <c r="AE62" s="17"/>
+      <c r="AF62" s="17"/>
+      <c r="AG62" s="17"/>
+      <c r="AH62" s="17"/>
+      <c r="AI62" s="17"/>
+      <c r="AJ62" s="17"/>
+      <c r="AK62" s="17"/>
       <c r="AL62" s="21">
         <v>7</v>
       </c>
@@ -3409,6 +3841,49 @@
       </c>
     </row>
     <row r="63" spans="3:41" ht="15.75" customHeight="1">
+      <c r="C63" s="7">
+        <v>62</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R63" s="15"/>
+      <c r="S63" s="34"/>
+      <c r="T63" s="34"/>
+      <c r="U63" s="34"/>
+      <c r="V63" s="34"/>
+      <c r="W63" s="34"/>
+      <c r="X63" s="34"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="17"/>
+      <c r="AA63" s="17"/>
+      <c r="AB63" s="17"/>
+      <c r="AC63" s="17"/>
+      <c r="AD63" s="17"/>
+      <c r="AE63" s="17"/>
+      <c r="AF63" s="17"/>
+      <c r="AG63" s="17"/>
+      <c r="AH63" s="17"/>
+      <c r="AI63" s="17"/>
+      <c r="AJ63" s="17"/>
+      <c r="AK63" s="17"/>
       <c r="AL63" s="21">
         <v>8</v>
       </c>
@@ -3426,6 +3901,49 @@
       </c>
     </row>
     <row r="64" spans="3:41" ht="15.75" customHeight="1">
+      <c r="C64" s="7">
+        <v>63</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R64" s="15"/>
+      <c r="S64" s="34"/>
+      <c r="T64" s="34"/>
+      <c r="U64" s="34"/>
+      <c r="V64" s="34"/>
+      <c r="W64" s="34"/>
+      <c r="X64" s="34"/>
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="17"/>
+      <c r="AA64" s="17"/>
+      <c r="AB64" s="17"/>
+      <c r="AC64" s="17"/>
+      <c r="AD64" s="17"/>
+      <c r="AE64" s="17"/>
+      <c r="AF64" s="17"/>
+      <c r="AG64" s="17"/>
+      <c r="AH64" s="17"/>
+      <c r="AI64" s="17"/>
+      <c r="AJ64" s="17"/>
+      <c r="AK64" s="17"/>
       <c r="AL64" s="21">
         <v>9</v>
       </c>
@@ -3442,7 +3960,50 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="65" spans="38:41" ht="15.75" customHeight="1">
+    <row r="65" spans="3:41" ht="15" customHeight="1">
+      <c r="C65" s="7">
+        <v>64</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R65" s="15"/>
+      <c r="S65" s="34"/>
+      <c r="T65" s="34"/>
+      <c r="U65" s="34"/>
+      <c r="V65" s="34"/>
+      <c r="W65" s="34"/>
+      <c r="X65" s="34"/>
+      <c r="Y65" s="12"/>
+      <c r="Z65" s="17"/>
+      <c r="AA65" s="17"/>
+      <c r="AB65" s="17"/>
+      <c r="AC65" s="17"/>
+      <c r="AD65" s="17"/>
+      <c r="AE65" s="17"/>
+      <c r="AF65" s="17"/>
+      <c r="AG65" s="17"/>
+      <c r="AH65" s="17"/>
+      <c r="AI65" s="17"/>
+      <c r="AJ65" s="17"/>
+      <c r="AK65" s="17"/>
       <c r="AL65" s="25">
         <v>10</v>
       </c>
@@ -3459,10 +4020,96 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="66" spans="38:41" ht="3.75" customHeight="1">
+    <row r="66" spans="3:41" ht="15" customHeight="1">
+      <c r="C66" s="7">
+        <v>65</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R66" s="15"/>
+      <c r="S66" s="34"/>
+      <c r="T66" s="34"/>
+      <c r="U66" s="34"/>
+      <c r="V66" s="34"/>
+      <c r="W66" s="34"/>
+      <c r="X66" s="34"/>
+      <c r="Y66" s="12"/>
+      <c r="Z66" s="17"/>
+      <c r="AA66" s="17"/>
+      <c r="AB66" s="17"/>
+      <c r="AC66" s="17"/>
+      <c r="AD66" s="17"/>
+      <c r="AE66" s="17"/>
+      <c r="AF66" s="17"/>
+      <c r="AG66" s="17"/>
+      <c r="AH66" s="17"/>
+      <c r="AI66" s="17"/>
+      <c r="AJ66" s="17"/>
+      <c r="AK66" s="17"/>
       <c r="AO66" s="31"/>
     </row>
-    <row r="67" spans="38:41" ht="15.75" customHeight="1">
+    <row r="67" spans="3:41" ht="15.75" customHeight="1">
+      <c r="C67" s="7">
+        <v>66</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R67" s="15"/>
+      <c r="S67" s="34"/>
+      <c r="T67" s="34"/>
+      <c r="U67" s="34"/>
+      <c r="V67" s="34"/>
+      <c r="W67" s="34"/>
+      <c r="X67" s="34"/>
+      <c r="Y67" s="12"/>
+      <c r="Z67" s="17"/>
+      <c r="AA67" s="17"/>
+      <c r="AB67" s="17"/>
+      <c r="AC67" s="17"/>
+      <c r="AD67" s="17"/>
+      <c r="AE67" s="17"/>
+      <c r="AF67" s="17"/>
+      <c r="AG67" s="17"/>
+      <c r="AH67" s="17"/>
+      <c r="AI67" s="17"/>
+      <c r="AJ67" s="17"/>
+      <c r="AK67" s="17"/>
       <c r="AL67" s="7">
         <v>11</v>
       </c>
@@ -3478,11 +4125,54 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="68" spans="38:41" ht="15.75" customHeight="1">
-      <c r="AL68" s="34" t="s">
+    <row r="68" spans="3:41" ht="15.75" customHeight="1">
+      <c r="C68" s="7">
+        <v>67</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R68" s="15"/>
+      <c r="S68" s="34"/>
+      <c r="T68" s="34"/>
+      <c r="U68" s="34"/>
+      <c r="V68" s="34"/>
+      <c r="W68" s="34"/>
+      <c r="X68" s="34"/>
+      <c r="Y68" s="12"/>
+      <c r="Z68" s="17"/>
+      <c r="AA68" s="17"/>
+      <c r="AB68" s="17"/>
+      <c r="AC68" s="17"/>
+      <c r="AD68" s="17"/>
+      <c r="AE68" s="17"/>
+      <c r="AF68" s="17"/>
+      <c r="AG68" s="17"/>
+      <c r="AH68" s="17"/>
+      <c r="AI68" s="17"/>
+      <c r="AJ68" s="17"/>
+      <c r="AK68" s="17"/>
+      <c r="AL68" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AM68" s="35"/>
+      <c r="AM68" s="36"/>
       <c r="AN68" s="29" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -3492,162 +4182,6674 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="69" spans="38:41" ht="15.75" customHeight="1"/>
-    <row r="70" spans="38:41" ht="15.75" customHeight="1"/>
-    <row r="71" spans="38:41" ht="15.75" customHeight="1"/>
-    <row r="72" spans="38:41" ht="15.75" customHeight="1"/>
-    <row r="73" spans="38:41" ht="15.75" customHeight="1"/>
-    <row r="74" spans="38:41" ht="15.75" customHeight="1"/>
-    <row r="75" spans="38:41" ht="15.75" customHeight="1"/>
-    <row r="76" spans="38:41" ht="15.75" customHeight="1"/>
-    <row r="77" spans="38:41" ht="15.75" customHeight="1"/>
-    <row r="78" spans="38:41" ht="15.75" customHeight="1"/>
-    <row r="79" spans="38:41" ht="15.75" customHeight="1"/>
-    <row r="80" spans="38:41" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="69" spans="3:41" ht="15.75" customHeight="1">
+      <c r="C69" s="7">
+        <v>68</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R69" s="15"/>
+      <c r="S69" s="34"/>
+      <c r="T69" s="34"/>
+      <c r="U69" s="34"/>
+      <c r="V69" s="34"/>
+      <c r="W69" s="34"/>
+      <c r="X69" s="34"/>
+      <c r="Y69" s="12"/>
+      <c r="Z69" s="17"/>
+      <c r="AA69" s="17"/>
+      <c r="AB69" s="17"/>
+      <c r="AC69" s="17"/>
+      <c r="AD69" s="17"/>
+      <c r="AE69" s="17"/>
+      <c r="AF69" s="17"/>
+      <c r="AG69" s="17"/>
+      <c r="AH69" s="17"/>
+      <c r="AI69" s="17"/>
+      <c r="AJ69" s="17"/>
+      <c r="AK69" s="17"/>
+    </row>
+    <row r="70" spans="3:41" ht="15.75" customHeight="1">
+      <c r="C70" s="7">
+        <v>69</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R70" s="15"/>
+      <c r="S70" s="34"/>
+      <c r="T70" s="34"/>
+      <c r="U70" s="34"/>
+      <c r="V70" s="34"/>
+      <c r="W70" s="34"/>
+      <c r="X70" s="34"/>
+      <c r="Y70" s="12"/>
+      <c r="Z70" s="17"/>
+      <c r="AA70" s="17"/>
+      <c r="AB70" s="17"/>
+      <c r="AC70" s="17"/>
+      <c r="AD70" s="17"/>
+      <c r="AE70" s="17"/>
+      <c r="AF70" s="17"/>
+      <c r="AG70" s="17"/>
+      <c r="AH70" s="17"/>
+      <c r="AI70" s="17"/>
+      <c r="AJ70" s="17"/>
+      <c r="AK70" s="17"/>
+    </row>
+    <row r="71" spans="3:41" ht="15.75" customHeight="1">
+      <c r="C71" s="7">
+        <v>70</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R71" s="15"/>
+      <c r="S71" s="34"/>
+      <c r="T71" s="34"/>
+      <c r="U71" s="34"/>
+      <c r="V71" s="34"/>
+      <c r="W71" s="34"/>
+      <c r="X71" s="34"/>
+      <c r="Y71" s="12"/>
+      <c r="Z71" s="17"/>
+      <c r="AA71" s="17"/>
+      <c r="AB71" s="17"/>
+      <c r="AC71" s="17"/>
+      <c r="AD71" s="17"/>
+      <c r="AE71" s="17"/>
+      <c r="AF71" s="17"/>
+      <c r="AG71" s="17"/>
+      <c r="AH71" s="17"/>
+      <c r="AI71" s="17"/>
+      <c r="AJ71" s="17"/>
+      <c r="AK71" s="17"/>
+    </row>
+    <row r="72" spans="3:41" ht="15.75" customHeight="1">
+      <c r="C72" s="7">
+        <v>71</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R72" s="15"/>
+      <c r="S72" s="34"/>
+      <c r="T72" s="34"/>
+      <c r="U72" s="34"/>
+      <c r="V72" s="34"/>
+      <c r="W72" s="34"/>
+      <c r="X72" s="34"/>
+      <c r="Y72" s="12"/>
+      <c r="Z72" s="17"/>
+      <c r="AA72" s="17"/>
+      <c r="AB72" s="17"/>
+      <c r="AC72" s="17"/>
+      <c r="AD72" s="17"/>
+      <c r="AE72" s="17"/>
+      <c r="AF72" s="17"/>
+      <c r="AG72" s="17"/>
+      <c r="AH72" s="17"/>
+      <c r="AI72" s="17"/>
+      <c r="AJ72" s="17"/>
+      <c r="AK72" s="17"/>
+    </row>
+    <row r="73" spans="3:41" ht="15.75" customHeight="1">
+      <c r="C73" s="7">
+        <v>72</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R73" s="15"/>
+      <c r="S73" s="34"/>
+      <c r="T73" s="34"/>
+      <c r="U73" s="34"/>
+      <c r="V73" s="34"/>
+      <c r="W73" s="34"/>
+      <c r="X73" s="34"/>
+      <c r="Y73" s="12"/>
+      <c r="Z73" s="17"/>
+      <c r="AA73" s="17"/>
+      <c r="AB73" s="17"/>
+      <c r="AC73" s="17"/>
+      <c r="AD73" s="17"/>
+      <c r="AE73" s="17"/>
+      <c r="AF73" s="17"/>
+      <c r="AG73" s="17"/>
+      <c r="AH73" s="17"/>
+      <c r="AI73" s="17"/>
+      <c r="AJ73" s="17"/>
+      <c r="AK73" s="17"/>
+    </row>
+    <row r="74" spans="3:41" ht="15.75" customHeight="1">
+      <c r="C74" s="7">
+        <v>73</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R74" s="15"/>
+      <c r="S74" s="34"/>
+      <c r="T74" s="34"/>
+      <c r="U74" s="34"/>
+      <c r="V74" s="34"/>
+      <c r="W74" s="34"/>
+      <c r="X74" s="34"/>
+      <c r="Y74" s="12"/>
+      <c r="Z74" s="17"/>
+      <c r="AA74" s="17"/>
+      <c r="AB74" s="17"/>
+      <c r="AC74" s="17"/>
+      <c r="AD74" s="17"/>
+      <c r="AE74" s="17"/>
+      <c r="AF74" s="17"/>
+      <c r="AG74" s="17"/>
+      <c r="AH74" s="17"/>
+      <c r="AI74" s="17"/>
+      <c r="AJ74" s="17"/>
+      <c r="AK74" s="17"/>
+    </row>
+    <row r="75" spans="3:41" ht="15.75" customHeight="1">
+      <c r="C75" s="7">
+        <v>74</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R75" s="15"/>
+      <c r="S75" s="34"/>
+      <c r="T75" s="34"/>
+      <c r="U75" s="34"/>
+      <c r="V75" s="34"/>
+      <c r="W75" s="34"/>
+      <c r="X75" s="34"/>
+      <c r="Y75" s="12"/>
+      <c r="Z75" s="17"/>
+      <c r="AA75" s="17"/>
+      <c r="AB75" s="17"/>
+      <c r="AC75" s="17"/>
+      <c r="AD75" s="17"/>
+      <c r="AE75" s="17"/>
+      <c r="AF75" s="17"/>
+      <c r="AG75" s="17"/>
+      <c r="AH75" s="17"/>
+      <c r="AI75" s="17"/>
+      <c r="AJ75" s="17"/>
+      <c r="AK75" s="17"/>
+    </row>
+    <row r="76" spans="3:41" ht="15.75" customHeight="1">
+      <c r="C76" s="7">
+        <v>75</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R76" s="15"/>
+      <c r="S76" s="34"/>
+      <c r="T76" s="34"/>
+      <c r="U76" s="34"/>
+      <c r="V76" s="34"/>
+      <c r="W76" s="34"/>
+      <c r="X76" s="34"/>
+      <c r="Y76" s="12"/>
+      <c r="Z76" s="17"/>
+      <c r="AA76" s="17"/>
+      <c r="AB76" s="17"/>
+      <c r="AC76" s="17"/>
+      <c r="AD76" s="17"/>
+      <c r="AE76" s="17"/>
+      <c r="AF76" s="17"/>
+      <c r="AG76" s="17"/>
+      <c r="AH76" s="17"/>
+      <c r="AI76" s="17"/>
+      <c r="AJ76" s="17"/>
+      <c r="AK76" s="17"/>
+    </row>
+    <row r="77" spans="3:41" ht="15.75" customHeight="1">
+      <c r="C77" s="7">
+        <v>76</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R77" s="15"/>
+      <c r="S77" s="34"/>
+      <c r="T77" s="34"/>
+      <c r="U77" s="34"/>
+      <c r="V77" s="34"/>
+      <c r="W77" s="34"/>
+      <c r="X77" s="34"/>
+      <c r="Y77" s="12"/>
+      <c r="Z77" s="17"/>
+      <c r="AA77" s="17"/>
+      <c r="AB77" s="17"/>
+      <c r="AC77" s="17"/>
+      <c r="AD77" s="17"/>
+      <c r="AE77" s="17"/>
+      <c r="AF77" s="17"/>
+      <c r="AG77" s="17"/>
+      <c r="AH77" s="17"/>
+      <c r="AI77" s="17"/>
+      <c r="AJ77" s="17"/>
+      <c r="AK77" s="17"/>
+    </row>
+    <row r="78" spans="3:41" ht="15.75" customHeight="1">
+      <c r="C78" s="7">
+        <v>77</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R78" s="15"/>
+      <c r="S78" s="34"/>
+      <c r="T78" s="34"/>
+      <c r="U78" s="34"/>
+      <c r="V78" s="34"/>
+      <c r="W78" s="34"/>
+      <c r="X78" s="34"/>
+      <c r="Y78" s="12"/>
+      <c r="Z78" s="17"/>
+      <c r="AA78" s="17"/>
+      <c r="AB78" s="17"/>
+      <c r="AC78" s="17"/>
+      <c r="AD78" s="17"/>
+      <c r="AE78" s="17"/>
+      <c r="AF78" s="17"/>
+      <c r="AG78" s="17"/>
+      <c r="AH78" s="17"/>
+      <c r="AI78" s="17"/>
+      <c r="AJ78" s="17"/>
+      <c r="AK78" s="17"/>
+    </row>
+    <row r="79" spans="3:41" ht="15.75" customHeight="1">
+      <c r="C79" s="7">
+        <v>78</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R79" s="15"/>
+      <c r="S79" s="34"/>
+      <c r="T79" s="34"/>
+      <c r="U79" s="34"/>
+      <c r="V79" s="34"/>
+      <c r="W79" s="34"/>
+      <c r="X79" s="34"/>
+      <c r="Y79" s="12"/>
+      <c r="Z79" s="17"/>
+      <c r="AA79" s="17"/>
+      <c r="AB79" s="17"/>
+      <c r="AC79" s="17"/>
+      <c r="AD79" s="17"/>
+      <c r="AE79" s="17"/>
+      <c r="AF79" s="17"/>
+      <c r="AG79" s="17"/>
+      <c r="AH79" s="17"/>
+      <c r="AI79" s="17"/>
+      <c r="AJ79" s="17"/>
+      <c r="AK79" s="17"/>
+    </row>
+    <row r="80" spans="3:41" ht="15.75" customHeight="1">
+      <c r="C80" s="7">
+        <v>79</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R80" s="15"/>
+      <c r="S80" s="34"/>
+      <c r="T80" s="34"/>
+      <c r="U80" s="34"/>
+      <c r="V80" s="34"/>
+      <c r="W80" s="34"/>
+      <c r="X80" s="34"/>
+      <c r="Y80" s="12"/>
+      <c r="Z80" s="17"/>
+      <c r="AA80" s="17"/>
+      <c r="AB80" s="17"/>
+      <c r="AC80" s="17"/>
+      <c r="AD80" s="17"/>
+      <c r="AE80" s="17"/>
+      <c r="AF80" s="17"/>
+      <c r="AG80" s="17"/>
+      <c r="AH80" s="17"/>
+      <c r="AI80" s="17"/>
+      <c r="AJ80" s="17"/>
+      <c r="AK80" s="17"/>
+    </row>
+    <row r="81" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C81" s="7">
+        <v>80</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R81" s="15"/>
+      <c r="S81" s="34"/>
+      <c r="T81" s="34"/>
+      <c r="U81" s="34"/>
+      <c r="V81" s="34"/>
+      <c r="W81" s="34"/>
+      <c r="X81" s="34"/>
+      <c r="Y81" s="12"/>
+      <c r="Z81" s="17"/>
+      <c r="AA81" s="17"/>
+      <c r="AB81" s="17"/>
+      <c r="AC81" s="17"/>
+      <c r="AD81" s="17"/>
+      <c r="AE81" s="17"/>
+      <c r="AF81" s="17"/>
+      <c r="AG81" s="17"/>
+      <c r="AH81" s="17"/>
+      <c r="AI81" s="17"/>
+      <c r="AJ81" s="17"/>
+      <c r="AK81" s="17"/>
+    </row>
+    <row r="82" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C82" s="7">
+        <v>81</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R82" s="15"/>
+      <c r="S82" s="34"/>
+      <c r="T82" s="34"/>
+      <c r="U82" s="34"/>
+      <c r="V82" s="34"/>
+      <c r="W82" s="34"/>
+      <c r="X82" s="34"/>
+      <c r="Y82" s="12"/>
+      <c r="Z82" s="17"/>
+      <c r="AA82" s="17"/>
+      <c r="AB82" s="17"/>
+      <c r="AC82" s="17"/>
+      <c r="AD82" s="17"/>
+      <c r="AE82" s="17"/>
+      <c r="AF82" s="17"/>
+      <c r="AG82" s="17"/>
+      <c r="AH82" s="17"/>
+      <c r="AI82" s="17"/>
+      <c r="AJ82" s="17"/>
+      <c r="AK82" s="17"/>
+    </row>
+    <row r="83" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C83" s="7">
+        <v>82</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R83" s="15"/>
+      <c r="S83" s="34"/>
+      <c r="T83" s="34"/>
+      <c r="U83" s="34"/>
+      <c r="V83" s="34"/>
+      <c r="W83" s="34"/>
+      <c r="X83" s="34"/>
+      <c r="Y83" s="12"/>
+      <c r="Z83" s="17"/>
+      <c r="AA83" s="17"/>
+      <c r="AB83" s="17"/>
+      <c r="AC83" s="17"/>
+      <c r="AD83" s="17"/>
+      <c r="AE83" s="17"/>
+      <c r="AF83" s="17"/>
+      <c r="AG83" s="17"/>
+      <c r="AH83" s="17"/>
+      <c r="AI83" s="17"/>
+      <c r="AJ83" s="17"/>
+      <c r="AK83" s="17"/>
+    </row>
+    <row r="84" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C84" s="7">
+        <v>83</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R84" s="15"/>
+      <c r="S84" s="34"/>
+      <c r="T84" s="34"/>
+      <c r="U84" s="34"/>
+      <c r="V84" s="34"/>
+      <c r="W84" s="34"/>
+      <c r="X84" s="34"/>
+      <c r="Y84" s="12"/>
+      <c r="Z84" s="17"/>
+      <c r="AA84" s="17"/>
+      <c r="AB84" s="17"/>
+      <c r="AC84" s="17"/>
+      <c r="AD84" s="17"/>
+      <c r="AE84" s="17"/>
+      <c r="AF84" s="17"/>
+      <c r="AG84" s="17"/>
+      <c r="AH84" s="17"/>
+      <c r="AI84" s="17"/>
+      <c r="AJ84" s="17"/>
+      <c r="AK84" s="17"/>
+    </row>
+    <row r="85" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C85" s="7">
+        <v>84</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R85" s="15"/>
+      <c r="S85" s="34"/>
+      <c r="T85" s="34"/>
+      <c r="U85" s="34"/>
+      <c r="V85" s="34"/>
+      <c r="W85" s="34"/>
+      <c r="X85" s="34"/>
+      <c r="Y85" s="12"/>
+      <c r="Z85" s="17"/>
+      <c r="AA85" s="17"/>
+      <c r="AB85" s="17"/>
+      <c r="AC85" s="17"/>
+      <c r="AD85" s="17"/>
+      <c r="AE85" s="17"/>
+      <c r="AF85" s="17"/>
+      <c r="AG85" s="17"/>
+      <c r="AH85" s="17"/>
+      <c r="AI85" s="17"/>
+      <c r="AJ85" s="17"/>
+      <c r="AK85" s="17"/>
+    </row>
+    <row r="86" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C86" s="7">
+        <v>85</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R86" s="15"/>
+      <c r="S86" s="34"/>
+      <c r="T86" s="34"/>
+      <c r="U86" s="34"/>
+      <c r="V86" s="34"/>
+      <c r="W86" s="34"/>
+      <c r="X86" s="34"/>
+      <c r="Y86" s="12"/>
+      <c r="Z86" s="17"/>
+      <c r="AA86" s="17"/>
+      <c r="AB86" s="17"/>
+      <c r="AC86" s="17"/>
+      <c r="AD86" s="17"/>
+      <c r="AE86" s="17"/>
+      <c r="AF86" s="17"/>
+      <c r="AG86" s="17"/>
+      <c r="AH86" s="17"/>
+      <c r="AI86" s="17"/>
+      <c r="AJ86" s="17"/>
+      <c r="AK86" s="17"/>
+    </row>
+    <row r="87" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C87" s="7">
+        <v>86</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R87" s="15"/>
+      <c r="S87" s="34"/>
+      <c r="T87" s="34"/>
+      <c r="U87" s="34"/>
+      <c r="V87" s="34"/>
+      <c r="W87" s="34"/>
+      <c r="X87" s="34"/>
+      <c r="Y87" s="12"/>
+      <c r="Z87" s="17"/>
+      <c r="AA87" s="17"/>
+      <c r="AB87" s="17"/>
+      <c r="AC87" s="17"/>
+      <c r="AD87" s="17"/>
+      <c r="AE87" s="17"/>
+      <c r="AF87" s="17"/>
+      <c r="AG87" s="17"/>
+      <c r="AH87" s="17"/>
+      <c r="AI87" s="17"/>
+      <c r="AJ87" s="17"/>
+      <c r="AK87" s="17"/>
+    </row>
+    <row r="88" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C88" s="7">
+        <v>87</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R88" s="15"/>
+      <c r="S88" s="34"/>
+      <c r="T88" s="34"/>
+      <c r="U88" s="34"/>
+      <c r="V88" s="34"/>
+      <c r="W88" s="34"/>
+      <c r="X88" s="34"/>
+      <c r="Y88" s="12"/>
+      <c r="Z88" s="17"/>
+      <c r="AA88" s="17"/>
+      <c r="AB88" s="17"/>
+      <c r="AC88" s="17"/>
+      <c r="AD88" s="17"/>
+      <c r="AE88" s="17"/>
+      <c r="AF88" s="17"/>
+      <c r="AG88" s="17"/>
+      <c r="AH88" s="17"/>
+      <c r="AI88" s="17"/>
+      <c r="AJ88" s="17"/>
+      <c r="AK88" s="17"/>
+    </row>
+    <row r="89" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C89" s="7">
+        <v>88</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R89" s="15"/>
+      <c r="S89" s="34"/>
+      <c r="T89" s="34"/>
+      <c r="U89" s="34"/>
+      <c r="V89" s="34"/>
+      <c r="W89" s="34"/>
+      <c r="X89" s="34"/>
+      <c r="Y89" s="12"/>
+      <c r="Z89" s="17"/>
+      <c r="AA89" s="17"/>
+      <c r="AB89" s="17"/>
+      <c r="AC89" s="17"/>
+      <c r="AD89" s="17"/>
+      <c r="AE89" s="17"/>
+      <c r="AF89" s="17"/>
+      <c r="AG89" s="17"/>
+      <c r="AH89" s="17"/>
+      <c r="AI89" s="17"/>
+      <c r="AJ89" s="17"/>
+      <c r="AK89" s="17"/>
+    </row>
+    <row r="90" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C90" s="7">
+        <v>89</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R90" s="15"/>
+      <c r="S90" s="34"/>
+      <c r="T90" s="34"/>
+      <c r="U90" s="34"/>
+      <c r="V90" s="34"/>
+      <c r="W90" s="34"/>
+      <c r="X90" s="34"/>
+      <c r="Y90" s="12"/>
+      <c r="Z90" s="17"/>
+      <c r="AA90" s="17"/>
+      <c r="AB90" s="17"/>
+      <c r="AC90" s="17"/>
+      <c r="AD90" s="17"/>
+      <c r="AE90" s="17"/>
+      <c r="AF90" s="17"/>
+      <c r="AG90" s="17"/>
+      <c r="AH90" s="17"/>
+      <c r="AI90" s="17"/>
+      <c r="AJ90" s="17"/>
+      <c r="AK90" s="17"/>
+    </row>
+    <row r="91" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C91" s="7">
+        <v>90</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="12"/>
+      <c r="Q91" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R91" s="15"/>
+      <c r="S91" s="34"/>
+      <c r="T91" s="34"/>
+      <c r="U91" s="34"/>
+      <c r="V91" s="34"/>
+      <c r="W91" s="34"/>
+      <c r="X91" s="34"/>
+      <c r="Y91" s="12"/>
+      <c r="Z91" s="17"/>
+      <c r="AA91" s="17"/>
+      <c r="AB91" s="17"/>
+      <c r="AC91" s="17"/>
+      <c r="AD91" s="17"/>
+      <c r="AE91" s="17"/>
+      <c r="AF91" s="17"/>
+      <c r="AG91" s="17"/>
+      <c r="AH91" s="17"/>
+      <c r="AI91" s="17"/>
+      <c r="AJ91" s="17"/>
+      <c r="AK91" s="17"/>
+    </row>
+    <row r="92" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C92" s="7">
+        <v>91</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="12"/>
+      <c r="Q92" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R92" s="15"/>
+      <c r="S92" s="34"/>
+      <c r="T92" s="34"/>
+      <c r="U92" s="34"/>
+      <c r="V92" s="34"/>
+      <c r="W92" s="34"/>
+      <c r="X92" s="34"/>
+      <c r="Y92" s="12"/>
+      <c r="Z92" s="17"/>
+      <c r="AA92" s="17"/>
+      <c r="AB92" s="17"/>
+      <c r="AC92" s="17"/>
+      <c r="AD92" s="17"/>
+      <c r="AE92" s="17"/>
+      <c r="AF92" s="17"/>
+      <c r="AG92" s="17"/>
+      <c r="AH92" s="17"/>
+      <c r="AI92" s="17"/>
+      <c r="AJ92" s="17"/>
+      <c r="AK92" s="17"/>
+    </row>
+    <row r="93" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C93" s="7">
+        <v>92</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R93" s="15"/>
+      <c r="S93" s="34"/>
+      <c r="T93" s="34"/>
+      <c r="U93" s="34"/>
+      <c r="V93" s="34"/>
+      <c r="W93" s="34"/>
+      <c r="X93" s="34"/>
+      <c r="Y93" s="12"/>
+      <c r="Z93" s="17"/>
+      <c r="AA93" s="17"/>
+      <c r="AB93" s="17"/>
+      <c r="AC93" s="17"/>
+      <c r="AD93" s="17"/>
+      <c r="AE93" s="17"/>
+      <c r="AF93" s="17"/>
+      <c r="AG93" s="17"/>
+      <c r="AH93" s="17"/>
+      <c r="AI93" s="17"/>
+      <c r="AJ93" s="17"/>
+      <c r="AK93" s="17"/>
+    </row>
+    <row r="94" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C94" s="7">
+        <v>93</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="8"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R94" s="15"/>
+      <c r="S94" s="34"/>
+      <c r="T94" s="34"/>
+      <c r="U94" s="34"/>
+      <c r="V94" s="34"/>
+      <c r="W94" s="34"/>
+      <c r="X94" s="34"/>
+      <c r="Y94" s="12"/>
+      <c r="Z94" s="17"/>
+      <c r="AA94" s="17"/>
+      <c r="AB94" s="17"/>
+      <c r="AC94" s="17"/>
+      <c r="AD94" s="17"/>
+      <c r="AE94" s="17"/>
+      <c r="AF94" s="17"/>
+      <c r="AG94" s="17"/>
+      <c r="AH94" s="17"/>
+      <c r="AI94" s="17"/>
+      <c r="AJ94" s="17"/>
+      <c r="AK94" s="17"/>
+    </row>
+    <row r="95" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C95" s="7">
+        <v>94</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="8"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="12"/>
+      <c r="Q95" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R95" s="15"/>
+      <c r="S95" s="34"/>
+      <c r="T95" s="34"/>
+      <c r="U95" s="34"/>
+      <c r="V95" s="34"/>
+      <c r="W95" s="34"/>
+      <c r="X95" s="34"/>
+      <c r="Y95" s="12"/>
+      <c r="Z95" s="17"/>
+      <c r="AA95" s="17"/>
+      <c r="AB95" s="17"/>
+      <c r="AC95" s="17"/>
+      <c r="AD95" s="17"/>
+      <c r="AE95" s="17"/>
+      <c r="AF95" s="17"/>
+      <c r="AG95" s="17"/>
+      <c r="AH95" s="17"/>
+      <c r="AI95" s="17"/>
+      <c r="AJ95" s="17"/>
+      <c r="AK95" s="17"/>
+    </row>
+    <row r="96" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C96" s="7">
+        <v>95</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="12"/>
+      <c r="Q96" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R96" s="15"/>
+      <c r="S96" s="34"/>
+      <c r="T96" s="34"/>
+      <c r="U96" s="34"/>
+      <c r="V96" s="34"/>
+      <c r="W96" s="34"/>
+      <c r="X96" s="34"/>
+      <c r="Y96" s="12"/>
+      <c r="Z96" s="17"/>
+      <c r="AA96" s="17"/>
+      <c r="AB96" s="17"/>
+      <c r="AC96" s="17"/>
+      <c r="AD96" s="17"/>
+      <c r="AE96" s="17"/>
+      <c r="AF96" s="17"/>
+      <c r="AG96" s="17"/>
+      <c r="AH96" s="17"/>
+      <c r="AI96" s="17"/>
+      <c r="AJ96" s="17"/>
+      <c r="AK96" s="17"/>
+    </row>
+    <row r="97" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C97" s="7">
+        <v>96</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="8"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R97" s="15"/>
+      <c r="S97" s="34"/>
+      <c r="T97" s="34"/>
+      <c r="U97" s="34"/>
+      <c r="V97" s="34"/>
+      <c r="W97" s="34"/>
+      <c r="X97" s="34"/>
+      <c r="Y97" s="12"/>
+      <c r="Z97" s="17"/>
+      <c r="AA97" s="17"/>
+      <c r="AB97" s="17"/>
+      <c r="AC97" s="17"/>
+      <c r="AD97" s="17"/>
+      <c r="AE97" s="17"/>
+      <c r="AF97" s="17"/>
+      <c r="AG97" s="17"/>
+      <c r="AH97" s="17"/>
+      <c r="AI97" s="17"/>
+      <c r="AJ97" s="17"/>
+      <c r="AK97" s="17"/>
+    </row>
+    <row r="98" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C98" s="7">
+        <v>97</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="8"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R98" s="15"/>
+      <c r="S98" s="34"/>
+      <c r="T98" s="34"/>
+      <c r="U98" s="34"/>
+      <c r="V98" s="34"/>
+      <c r="W98" s="34"/>
+      <c r="X98" s="34"/>
+      <c r="Y98" s="12"/>
+      <c r="Z98" s="17"/>
+      <c r="AA98" s="17"/>
+      <c r="AB98" s="17"/>
+      <c r="AC98" s="17"/>
+      <c r="AD98" s="17"/>
+      <c r="AE98" s="17"/>
+      <c r="AF98" s="17"/>
+      <c r="AG98" s="17"/>
+      <c r="AH98" s="17"/>
+      <c r="AI98" s="17"/>
+      <c r="AJ98" s="17"/>
+      <c r="AK98" s="17"/>
+    </row>
+    <row r="99" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C99" s="7">
+        <v>98</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="8"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R99" s="15"/>
+      <c r="S99" s="34"/>
+      <c r="T99" s="34"/>
+      <c r="U99" s="34"/>
+      <c r="V99" s="34"/>
+      <c r="W99" s="34"/>
+      <c r="X99" s="34"/>
+      <c r="Y99" s="12"/>
+      <c r="Z99" s="17"/>
+      <c r="AA99" s="17"/>
+      <c r="AB99" s="17"/>
+      <c r="AC99" s="17"/>
+      <c r="AD99" s="17"/>
+      <c r="AE99" s="17"/>
+      <c r="AF99" s="17"/>
+      <c r="AG99" s="17"/>
+      <c r="AH99" s="17"/>
+      <c r="AI99" s="17"/>
+      <c r="AJ99" s="17"/>
+      <c r="AK99" s="17"/>
+    </row>
+    <row r="100" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C100" s="7">
+        <v>99</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="8"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R100" s="15"/>
+      <c r="S100" s="34"/>
+      <c r="T100" s="34"/>
+      <c r="U100" s="34"/>
+      <c r="V100" s="34"/>
+      <c r="W100" s="34"/>
+      <c r="X100" s="34"/>
+      <c r="Y100" s="12"/>
+      <c r="Z100" s="17"/>
+      <c r="AA100" s="17"/>
+      <c r="AB100" s="17"/>
+      <c r="AC100" s="17"/>
+      <c r="AD100" s="17"/>
+      <c r="AE100" s="17"/>
+      <c r="AF100" s="17"/>
+      <c r="AG100" s="17"/>
+      <c r="AH100" s="17"/>
+      <c r="AI100" s="17"/>
+      <c r="AJ100" s="17"/>
+      <c r="AK100" s="17"/>
+    </row>
+    <row r="101" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C101" s="7">
+        <v>100</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="8"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="12"/>
+      <c r="Q101" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R101" s="15"/>
+      <c r="S101" s="34"/>
+      <c r="T101" s="34"/>
+      <c r="U101" s="34"/>
+      <c r="V101" s="34"/>
+      <c r="W101" s="34"/>
+      <c r="X101" s="34"/>
+      <c r="Y101" s="12"/>
+      <c r="Z101" s="17"/>
+      <c r="AA101" s="17"/>
+      <c r="AB101" s="17"/>
+      <c r="AC101" s="17"/>
+      <c r="AD101" s="17"/>
+      <c r="AE101" s="17"/>
+      <c r="AF101" s="17"/>
+      <c r="AG101" s="17"/>
+      <c r="AH101" s="17"/>
+      <c r="AI101" s="17"/>
+      <c r="AJ101" s="17"/>
+      <c r="AK101" s="17"/>
+    </row>
+    <row r="102" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C102" s="7">
+        <v>101</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="8"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R102" s="15"/>
+      <c r="S102" s="34"/>
+      <c r="T102" s="34"/>
+      <c r="U102" s="34"/>
+      <c r="V102" s="34"/>
+      <c r="W102" s="34"/>
+      <c r="X102" s="34"/>
+      <c r="Y102" s="12"/>
+      <c r="Z102" s="17"/>
+      <c r="AA102" s="17"/>
+      <c r="AB102" s="17"/>
+      <c r="AC102" s="17"/>
+      <c r="AD102" s="17"/>
+      <c r="AE102" s="17"/>
+      <c r="AF102" s="17"/>
+      <c r="AG102" s="17"/>
+      <c r="AH102" s="17"/>
+      <c r="AI102" s="17"/>
+      <c r="AJ102" s="17"/>
+      <c r="AK102" s="17"/>
+    </row>
+    <row r="103" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C103" s="7">
+        <v>102</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="8"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="12"/>
+      <c r="Q103" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R103" s="15"/>
+      <c r="S103" s="34"/>
+      <c r="T103" s="34"/>
+      <c r="U103" s="34"/>
+      <c r="V103" s="34"/>
+      <c r="W103" s="34"/>
+      <c r="X103" s="34"/>
+      <c r="Y103" s="12"/>
+      <c r="Z103" s="17"/>
+      <c r="AA103" s="17"/>
+      <c r="AB103" s="17"/>
+      <c r="AC103" s="17"/>
+      <c r="AD103" s="17"/>
+      <c r="AE103" s="17"/>
+      <c r="AF103" s="17"/>
+      <c r="AG103" s="17"/>
+      <c r="AH103" s="17"/>
+      <c r="AI103" s="17"/>
+      <c r="AJ103" s="17"/>
+      <c r="AK103" s="17"/>
+    </row>
+    <row r="104" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C104" s="7">
+        <v>103</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="8"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R104" s="15"/>
+      <c r="S104" s="34"/>
+      <c r="T104" s="34"/>
+      <c r="U104" s="34"/>
+      <c r="V104" s="34"/>
+      <c r="W104" s="34"/>
+      <c r="X104" s="34"/>
+      <c r="Y104" s="12"/>
+      <c r="Z104" s="17"/>
+      <c r="AA104" s="17"/>
+      <c r="AB104" s="17"/>
+      <c r="AC104" s="17"/>
+      <c r="AD104" s="17"/>
+      <c r="AE104" s="17"/>
+      <c r="AF104" s="17"/>
+      <c r="AG104" s="17"/>
+      <c r="AH104" s="17"/>
+      <c r="AI104" s="17"/>
+      <c r="AJ104" s="17"/>
+      <c r="AK104" s="17"/>
+    </row>
+    <row r="105" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C105" s="7">
+        <v>104</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="12"/>
+      <c r="Q105" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R105" s="15"/>
+      <c r="S105" s="34"/>
+      <c r="T105" s="34"/>
+      <c r="U105" s="34"/>
+      <c r="V105" s="34"/>
+      <c r="W105" s="34"/>
+      <c r="X105" s="34"/>
+      <c r="Y105" s="12"/>
+      <c r="Z105" s="17"/>
+      <c r="AA105" s="17"/>
+      <c r="AB105" s="17"/>
+      <c r="AC105" s="17"/>
+      <c r="AD105" s="17"/>
+      <c r="AE105" s="17"/>
+      <c r="AF105" s="17"/>
+      <c r="AG105" s="17"/>
+      <c r="AH105" s="17"/>
+      <c r="AI105" s="17"/>
+      <c r="AJ105" s="17"/>
+      <c r="AK105" s="17"/>
+    </row>
+    <row r="106" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C106" s="7">
+        <v>105</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="8"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R106" s="15"/>
+      <c r="S106" s="34"/>
+      <c r="T106" s="34"/>
+      <c r="U106" s="34"/>
+      <c r="V106" s="34"/>
+      <c r="W106" s="34"/>
+      <c r="X106" s="34"/>
+      <c r="Y106" s="12"/>
+      <c r="Z106" s="17"/>
+      <c r="AA106" s="17"/>
+      <c r="AB106" s="17"/>
+      <c r="AC106" s="17"/>
+      <c r="AD106" s="17"/>
+      <c r="AE106" s="17"/>
+      <c r="AF106" s="17"/>
+      <c r="AG106" s="17"/>
+      <c r="AH106" s="17"/>
+      <c r="AI106" s="17"/>
+      <c r="AJ106" s="17"/>
+      <c r="AK106" s="17"/>
+    </row>
+    <row r="107" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C107" s="7">
+        <v>106</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="8"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="12"/>
+      <c r="Q107" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R107" s="15"/>
+      <c r="S107" s="34"/>
+      <c r="T107" s="34"/>
+      <c r="U107" s="34"/>
+      <c r="V107" s="34"/>
+      <c r="W107" s="34"/>
+      <c r="X107" s="34"/>
+      <c r="Y107" s="12"/>
+      <c r="Z107" s="17"/>
+      <c r="AA107" s="17"/>
+      <c r="AB107" s="17"/>
+      <c r="AC107" s="17"/>
+      <c r="AD107" s="17"/>
+      <c r="AE107" s="17"/>
+      <c r="AF107" s="17"/>
+      <c r="AG107" s="17"/>
+      <c r="AH107" s="17"/>
+      <c r="AI107" s="17"/>
+      <c r="AJ107" s="17"/>
+      <c r="AK107" s="17"/>
+    </row>
+    <row r="108" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C108" s="7">
+        <v>107</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R108" s="15"/>
+      <c r="S108" s="34"/>
+      <c r="T108" s="34"/>
+      <c r="U108" s="34"/>
+      <c r="V108" s="34"/>
+      <c r="W108" s="34"/>
+      <c r="X108" s="34"/>
+      <c r="Y108" s="12"/>
+      <c r="Z108" s="17"/>
+      <c r="AA108" s="17"/>
+      <c r="AB108" s="17"/>
+      <c r="AC108" s="17"/>
+      <c r="AD108" s="17"/>
+      <c r="AE108" s="17"/>
+      <c r="AF108" s="17"/>
+      <c r="AG108" s="17"/>
+      <c r="AH108" s="17"/>
+      <c r="AI108" s="17"/>
+      <c r="AJ108" s="17"/>
+      <c r="AK108" s="17"/>
+    </row>
+    <row r="109" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C109" s="7">
+        <v>108</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="8"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="12"/>
+      <c r="Q109" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R109" s="15"/>
+      <c r="S109" s="34"/>
+      <c r="T109" s="34"/>
+      <c r="U109" s="34"/>
+      <c r="V109" s="34"/>
+      <c r="W109" s="34"/>
+      <c r="X109" s="34"/>
+      <c r="Y109" s="12"/>
+      <c r="Z109" s="17"/>
+      <c r="AA109" s="17"/>
+      <c r="AB109" s="17"/>
+      <c r="AC109" s="17"/>
+      <c r="AD109" s="17"/>
+      <c r="AE109" s="17"/>
+      <c r="AF109" s="17"/>
+      <c r="AG109" s="17"/>
+      <c r="AH109" s="17"/>
+      <c r="AI109" s="17"/>
+      <c r="AJ109" s="17"/>
+      <c r="AK109" s="17"/>
+    </row>
+    <row r="110" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C110" s="7">
+        <v>109</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="8"/>
+      <c r="O110" s="9"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R110" s="15"/>
+      <c r="S110" s="34"/>
+      <c r="T110" s="34"/>
+      <c r="U110" s="34"/>
+      <c r="V110" s="34"/>
+      <c r="W110" s="34"/>
+      <c r="X110" s="34"/>
+      <c r="Y110" s="12"/>
+      <c r="Z110" s="17"/>
+      <c r="AA110" s="17"/>
+      <c r="AB110" s="17"/>
+      <c r="AC110" s="17"/>
+      <c r="AD110" s="17"/>
+      <c r="AE110" s="17"/>
+      <c r="AF110" s="17"/>
+      <c r="AG110" s="17"/>
+      <c r="AH110" s="17"/>
+      <c r="AI110" s="17"/>
+      <c r="AJ110" s="17"/>
+      <c r="AK110" s="17"/>
+    </row>
+    <row r="111" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C111" s="7">
+        <v>110</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="8"/>
+      <c r="O111" s="9"/>
+      <c r="P111" s="12"/>
+      <c r="Q111" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R111" s="15"/>
+      <c r="S111" s="34"/>
+      <c r="T111" s="34"/>
+      <c r="U111" s="34"/>
+      <c r="V111" s="34"/>
+      <c r="W111" s="34"/>
+      <c r="X111" s="34"/>
+      <c r="Y111" s="12"/>
+      <c r="Z111" s="17"/>
+      <c r="AA111" s="17"/>
+      <c r="AB111" s="17"/>
+      <c r="AC111" s="17"/>
+      <c r="AD111" s="17"/>
+      <c r="AE111" s="17"/>
+      <c r="AF111" s="17"/>
+      <c r="AG111" s="17"/>
+      <c r="AH111" s="17"/>
+      <c r="AI111" s="17"/>
+      <c r="AJ111" s="17"/>
+      <c r="AK111" s="17"/>
+    </row>
+    <row r="112" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C112" s="7">
+        <v>111</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="8"/>
+      <c r="O112" s="9"/>
+      <c r="P112" s="12"/>
+      <c r="Q112" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R112" s="15"/>
+      <c r="S112" s="34"/>
+      <c r="T112" s="34"/>
+      <c r="U112" s="34"/>
+      <c r="V112" s="34"/>
+      <c r="W112" s="34"/>
+      <c r="X112" s="34"/>
+      <c r="Y112" s="12"/>
+      <c r="Z112" s="17"/>
+      <c r="AA112" s="17"/>
+      <c r="AB112" s="17"/>
+      <c r="AC112" s="17"/>
+      <c r="AD112" s="17"/>
+      <c r="AE112" s="17"/>
+      <c r="AF112" s="17"/>
+      <c r="AG112" s="17"/>
+      <c r="AH112" s="17"/>
+      <c r="AI112" s="17"/>
+      <c r="AJ112" s="17"/>
+      <c r="AK112" s="17"/>
+    </row>
+    <row r="113" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C113" s="7">
+        <v>112</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="8"/>
+      <c r="O113" s="9"/>
+      <c r="P113" s="12"/>
+      <c r="Q113" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R113" s="15"/>
+      <c r="S113" s="34"/>
+      <c r="T113" s="34"/>
+      <c r="U113" s="34"/>
+      <c r="V113" s="34"/>
+      <c r="W113" s="34"/>
+      <c r="X113" s="34"/>
+      <c r="Y113" s="12"/>
+      <c r="Z113" s="17"/>
+      <c r="AA113" s="17"/>
+      <c r="AB113" s="17"/>
+      <c r="AC113" s="17"/>
+      <c r="AD113" s="17"/>
+      <c r="AE113" s="17"/>
+      <c r="AF113" s="17"/>
+      <c r="AG113" s="17"/>
+      <c r="AH113" s="17"/>
+      <c r="AI113" s="17"/>
+      <c r="AJ113" s="17"/>
+      <c r="AK113" s="17"/>
+    </row>
+    <row r="114" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C114" s="7">
+        <v>113</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="8"/>
+      <c r="O114" s="9"/>
+      <c r="P114" s="12"/>
+      <c r="Q114" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R114" s="15"/>
+      <c r="S114" s="34"/>
+      <c r="T114" s="34"/>
+      <c r="U114" s="34"/>
+      <c r="V114" s="34"/>
+      <c r="W114" s="34"/>
+      <c r="X114" s="34"/>
+      <c r="Y114" s="12"/>
+      <c r="Z114" s="17"/>
+      <c r="AA114" s="17"/>
+      <c r="AB114" s="17"/>
+      <c r="AC114" s="17"/>
+      <c r="AD114" s="17"/>
+      <c r="AE114" s="17"/>
+      <c r="AF114" s="17"/>
+      <c r="AG114" s="17"/>
+      <c r="AH114" s="17"/>
+      <c r="AI114" s="17"/>
+      <c r="AJ114" s="17"/>
+      <c r="AK114" s="17"/>
+    </row>
+    <row r="115" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C115" s="7">
+        <v>114</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="8"/>
+      <c r="O115" s="9"/>
+      <c r="P115" s="12"/>
+      <c r="Q115" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R115" s="15"/>
+      <c r="S115" s="34"/>
+      <c r="T115" s="34"/>
+      <c r="U115" s="34"/>
+      <c r="V115" s="34"/>
+      <c r="W115" s="34"/>
+      <c r="X115" s="34"/>
+      <c r="Y115" s="12"/>
+      <c r="Z115" s="17"/>
+      <c r="AA115" s="17"/>
+      <c r="AB115" s="17"/>
+      <c r="AC115" s="17"/>
+      <c r="AD115" s="17"/>
+      <c r="AE115" s="17"/>
+      <c r="AF115" s="17"/>
+      <c r="AG115" s="17"/>
+      <c r="AH115" s="17"/>
+      <c r="AI115" s="17"/>
+      <c r="AJ115" s="17"/>
+      <c r="AK115" s="17"/>
+    </row>
+    <row r="116" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C116" s="7">
+        <v>115</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="8"/>
+      <c r="O116" s="9"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R116" s="15"/>
+      <c r="S116" s="34"/>
+      <c r="T116" s="34"/>
+      <c r="U116" s="34"/>
+      <c r="V116" s="34"/>
+      <c r="W116" s="34"/>
+      <c r="X116" s="34"/>
+      <c r="Y116" s="12"/>
+      <c r="Z116" s="17"/>
+      <c r="AA116" s="17"/>
+      <c r="AB116" s="17"/>
+      <c r="AC116" s="17"/>
+      <c r="AD116" s="17"/>
+      <c r="AE116" s="17"/>
+      <c r="AF116" s="17"/>
+      <c r="AG116" s="17"/>
+      <c r="AH116" s="17"/>
+      <c r="AI116" s="17"/>
+      <c r="AJ116" s="17"/>
+      <c r="AK116" s="17"/>
+    </row>
+    <row r="117" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C117" s="7">
+        <v>116</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="8"/>
+      <c r="O117" s="9"/>
+      <c r="P117" s="12"/>
+      <c r="Q117" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R117" s="15"/>
+      <c r="S117" s="34"/>
+      <c r="T117" s="34"/>
+      <c r="U117" s="34"/>
+      <c r="V117" s="34"/>
+      <c r="W117" s="34"/>
+      <c r="X117" s="34"/>
+      <c r="Y117" s="12"/>
+      <c r="Z117" s="17"/>
+      <c r="AA117" s="17"/>
+      <c r="AB117" s="17"/>
+      <c r="AC117" s="17"/>
+      <c r="AD117" s="17"/>
+      <c r="AE117" s="17"/>
+      <c r="AF117" s="17"/>
+      <c r="AG117" s="17"/>
+      <c r="AH117" s="17"/>
+      <c r="AI117" s="17"/>
+      <c r="AJ117" s="17"/>
+      <c r="AK117" s="17"/>
+    </row>
+    <row r="118" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C118" s="7">
+        <v>117</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="8"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="12"/>
+      <c r="Q118" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R118" s="15"/>
+      <c r="S118" s="34"/>
+      <c r="T118" s="34"/>
+      <c r="U118" s="34"/>
+      <c r="V118" s="34"/>
+      <c r="W118" s="34"/>
+      <c r="X118" s="34"/>
+      <c r="Y118" s="12"/>
+      <c r="Z118" s="17"/>
+      <c r="AA118" s="17"/>
+      <c r="AB118" s="17"/>
+      <c r="AC118" s="17"/>
+      <c r="AD118" s="17"/>
+      <c r="AE118" s="17"/>
+      <c r="AF118" s="17"/>
+      <c r="AG118" s="17"/>
+      <c r="AH118" s="17"/>
+      <c r="AI118" s="17"/>
+      <c r="AJ118" s="17"/>
+      <c r="AK118" s="17"/>
+    </row>
+    <row r="119" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C119" s="7">
+        <v>118</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="8"/>
+      <c r="O119" s="9"/>
+      <c r="P119" s="12"/>
+      <c r="Q119" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R119" s="15"/>
+      <c r="S119" s="34"/>
+      <c r="T119" s="34"/>
+      <c r="U119" s="34"/>
+      <c r="V119" s="34"/>
+      <c r="W119" s="34"/>
+      <c r="X119" s="34"/>
+      <c r="Y119" s="12"/>
+      <c r="Z119" s="17"/>
+      <c r="AA119" s="17"/>
+      <c r="AB119" s="17"/>
+      <c r="AC119" s="17"/>
+      <c r="AD119" s="17"/>
+      <c r="AE119" s="17"/>
+      <c r="AF119" s="17"/>
+      <c r="AG119" s="17"/>
+      <c r="AH119" s="17"/>
+      <c r="AI119" s="17"/>
+      <c r="AJ119" s="17"/>
+      <c r="AK119" s="17"/>
+    </row>
+    <row r="120" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C120" s="7">
+        <v>119</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="8"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="12"/>
+      <c r="Q120" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R120" s="15"/>
+      <c r="S120" s="34"/>
+      <c r="T120" s="34"/>
+      <c r="U120" s="34"/>
+      <c r="V120" s="34"/>
+      <c r="W120" s="34"/>
+      <c r="X120" s="34"/>
+      <c r="Y120" s="12"/>
+      <c r="Z120" s="17"/>
+      <c r="AA120" s="17"/>
+      <c r="AB120" s="17"/>
+      <c r="AC120" s="17"/>
+      <c r="AD120" s="17"/>
+      <c r="AE120" s="17"/>
+      <c r="AF120" s="17"/>
+      <c r="AG120" s="17"/>
+      <c r="AH120" s="17"/>
+      <c r="AI120" s="17"/>
+      <c r="AJ120" s="17"/>
+      <c r="AK120" s="17"/>
+    </row>
+    <row r="121" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C121" s="7">
+        <v>120</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="8"/>
+      <c r="O121" s="9"/>
+      <c r="P121" s="12"/>
+      <c r="Q121" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R121" s="15"/>
+      <c r="S121" s="34"/>
+      <c r="T121" s="34"/>
+      <c r="U121" s="34"/>
+      <c r="V121" s="34"/>
+      <c r="W121" s="34"/>
+      <c r="X121" s="34"/>
+      <c r="Y121" s="12"/>
+      <c r="Z121" s="17"/>
+      <c r="AA121" s="17"/>
+      <c r="AB121" s="17"/>
+      <c r="AC121" s="17"/>
+      <c r="AD121" s="17"/>
+      <c r="AE121" s="17"/>
+      <c r="AF121" s="17"/>
+      <c r="AG121" s="17"/>
+      <c r="AH121" s="17"/>
+      <c r="AI121" s="17"/>
+      <c r="AJ121" s="17"/>
+      <c r="AK121" s="17"/>
+    </row>
+    <row r="122" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C122" s="7">
+        <v>121</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="8"/>
+      <c r="O122" s="9"/>
+      <c r="P122" s="12"/>
+      <c r="Q122" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R122" s="15"/>
+      <c r="S122" s="34"/>
+      <c r="T122" s="34"/>
+      <c r="U122" s="34"/>
+      <c r="V122" s="34"/>
+      <c r="W122" s="34"/>
+      <c r="X122" s="34"/>
+      <c r="Y122" s="12"/>
+      <c r="Z122" s="17"/>
+      <c r="AA122" s="17"/>
+      <c r="AB122" s="17"/>
+      <c r="AC122" s="17"/>
+      <c r="AD122" s="17"/>
+      <c r="AE122" s="17"/>
+      <c r="AF122" s="17"/>
+      <c r="AG122" s="17"/>
+      <c r="AH122" s="17"/>
+      <c r="AI122" s="17"/>
+      <c r="AJ122" s="17"/>
+      <c r="AK122" s="17"/>
+    </row>
+    <row r="123" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C123" s="7">
+        <v>122</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="9"/>
+      <c r="N123" s="8"/>
+      <c r="O123" s="9"/>
+      <c r="P123" s="12"/>
+      <c r="Q123" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R123" s="15"/>
+      <c r="S123" s="34"/>
+      <c r="T123" s="34"/>
+      <c r="U123" s="34"/>
+      <c r="V123" s="34"/>
+      <c r="W123" s="34"/>
+      <c r="X123" s="34"/>
+      <c r="Y123" s="12"/>
+      <c r="Z123" s="17"/>
+      <c r="AA123" s="17"/>
+      <c r="AB123" s="17"/>
+      <c r="AC123" s="17"/>
+      <c r="AD123" s="17"/>
+      <c r="AE123" s="17"/>
+      <c r="AF123" s="17"/>
+      <c r="AG123" s="17"/>
+      <c r="AH123" s="17"/>
+      <c r="AI123" s="17"/>
+      <c r="AJ123" s="17"/>
+      <c r="AK123" s="17"/>
+    </row>
+    <row r="124" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C124" s="7">
+        <v>123</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="8"/>
+      <c r="O124" s="9"/>
+      <c r="P124" s="12"/>
+      <c r="Q124" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R124" s="15"/>
+      <c r="S124" s="34"/>
+      <c r="T124" s="34"/>
+      <c r="U124" s="34"/>
+      <c r="V124" s="34"/>
+      <c r="W124" s="34"/>
+      <c r="X124" s="34"/>
+      <c r="Y124" s="12"/>
+      <c r="Z124" s="17"/>
+      <c r="AA124" s="17"/>
+      <c r="AB124" s="17"/>
+      <c r="AC124" s="17"/>
+      <c r="AD124" s="17"/>
+      <c r="AE124" s="17"/>
+      <c r="AF124" s="17"/>
+      <c r="AG124" s="17"/>
+      <c r="AH124" s="17"/>
+      <c r="AI124" s="17"/>
+      <c r="AJ124" s="17"/>
+      <c r="AK124" s="17"/>
+    </row>
+    <row r="125" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C125" s="7">
+        <v>124</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="8"/>
+      <c r="O125" s="9"/>
+      <c r="P125" s="12"/>
+      <c r="Q125" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R125" s="15"/>
+      <c r="S125" s="34"/>
+      <c r="T125" s="34"/>
+      <c r="U125" s="34"/>
+      <c r="V125" s="34"/>
+      <c r="W125" s="34"/>
+      <c r="X125" s="34"/>
+      <c r="Y125" s="12"/>
+      <c r="Z125" s="17"/>
+      <c r="AA125" s="17"/>
+      <c r="AB125" s="17"/>
+      <c r="AC125" s="17"/>
+      <c r="AD125" s="17"/>
+      <c r="AE125" s="17"/>
+      <c r="AF125" s="17"/>
+      <c r="AG125" s="17"/>
+      <c r="AH125" s="17"/>
+      <c r="AI125" s="17"/>
+      <c r="AJ125" s="17"/>
+      <c r="AK125" s="17"/>
+    </row>
+    <row r="126" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C126" s="7">
+        <v>125</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="8"/>
+      <c r="O126" s="9"/>
+      <c r="P126" s="12"/>
+      <c r="Q126" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R126" s="15"/>
+      <c r="S126" s="34"/>
+      <c r="T126" s="34"/>
+      <c r="U126" s="34"/>
+      <c r="V126" s="34"/>
+      <c r="W126" s="34"/>
+      <c r="X126" s="34"/>
+      <c r="Y126" s="12"/>
+      <c r="Z126" s="17"/>
+      <c r="AA126" s="17"/>
+      <c r="AB126" s="17"/>
+      <c r="AC126" s="17"/>
+      <c r="AD126" s="17"/>
+      <c r="AE126" s="17"/>
+      <c r="AF126" s="17"/>
+      <c r="AG126" s="17"/>
+      <c r="AH126" s="17"/>
+      <c r="AI126" s="17"/>
+      <c r="AJ126" s="17"/>
+      <c r="AK126" s="17"/>
+    </row>
+    <row r="127" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C127" s="7">
+        <v>126</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="8"/>
+      <c r="O127" s="9"/>
+      <c r="P127" s="12"/>
+      <c r="Q127" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R127" s="15"/>
+      <c r="S127" s="34"/>
+      <c r="T127" s="34"/>
+      <c r="U127" s="34"/>
+      <c r="V127" s="34"/>
+      <c r="W127" s="34"/>
+      <c r="X127" s="34"/>
+      <c r="Y127" s="12"/>
+      <c r="Z127" s="17"/>
+      <c r="AA127" s="17"/>
+      <c r="AB127" s="17"/>
+      <c r="AC127" s="17"/>
+      <c r="AD127" s="17"/>
+      <c r="AE127" s="17"/>
+      <c r="AF127" s="17"/>
+      <c r="AG127" s="17"/>
+      <c r="AH127" s="17"/>
+      <c r="AI127" s="17"/>
+      <c r="AJ127" s="17"/>
+      <c r="AK127" s="17"/>
+    </row>
+    <row r="128" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C128" s="7">
+        <v>127</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="8"/>
+      <c r="O128" s="9"/>
+      <c r="P128" s="12"/>
+      <c r="Q128" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R128" s="15"/>
+      <c r="S128" s="34"/>
+      <c r="T128" s="34"/>
+      <c r="U128" s="34"/>
+      <c r="V128" s="34"/>
+      <c r="W128" s="34"/>
+      <c r="X128" s="34"/>
+      <c r="Y128" s="12"/>
+      <c r="Z128" s="17"/>
+      <c r="AA128" s="17"/>
+      <c r="AB128" s="17"/>
+      <c r="AC128" s="17"/>
+      <c r="AD128" s="17"/>
+      <c r="AE128" s="17"/>
+      <c r="AF128" s="17"/>
+      <c r="AG128" s="17"/>
+      <c r="AH128" s="17"/>
+      <c r="AI128" s="17"/>
+      <c r="AJ128" s="17"/>
+      <c r="AK128" s="17"/>
+    </row>
+    <row r="129" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C129" s="7">
+        <v>128</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="8"/>
+      <c r="O129" s="9"/>
+      <c r="P129" s="12"/>
+      <c r="Q129" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R129" s="15"/>
+      <c r="S129" s="34"/>
+      <c r="T129" s="34"/>
+      <c r="U129" s="34"/>
+      <c r="V129" s="34"/>
+      <c r="W129" s="34"/>
+      <c r="X129" s="34"/>
+      <c r="Y129" s="12"/>
+      <c r="Z129" s="17"/>
+      <c r="AA129" s="17"/>
+      <c r="AB129" s="17"/>
+      <c r="AC129" s="17"/>
+      <c r="AD129" s="17"/>
+      <c r="AE129" s="17"/>
+      <c r="AF129" s="17"/>
+      <c r="AG129" s="17"/>
+      <c r="AH129" s="17"/>
+      <c r="AI129" s="17"/>
+      <c r="AJ129" s="17"/>
+      <c r="AK129" s="17"/>
+    </row>
+    <row r="130" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C130" s="7">
+        <v>129</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="9"/>
+      <c r="M130" s="9"/>
+      <c r="N130" s="8"/>
+      <c r="O130" s="9"/>
+      <c r="P130" s="12"/>
+      <c r="Q130" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R130" s="15"/>
+      <c r="S130" s="34"/>
+      <c r="T130" s="34"/>
+      <c r="U130" s="34"/>
+      <c r="V130" s="34"/>
+      <c r="W130" s="34"/>
+      <c r="X130" s="34"/>
+      <c r="Y130" s="12"/>
+      <c r="Z130" s="17"/>
+      <c r="AA130" s="17"/>
+      <c r="AB130" s="17"/>
+      <c r="AC130" s="17"/>
+      <c r="AD130" s="17"/>
+      <c r="AE130" s="17"/>
+      <c r="AF130" s="17"/>
+      <c r="AG130" s="17"/>
+      <c r="AH130" s="17"/>
+      <c r="AI130" s="17"/>
+      <c r="AJ130" s="17"/>
+      <c r="AK130" s="17"/>
+    </row>
+    <row r="131" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C131" s="7">
+        <v>130</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="8"/>
+      <c r="O131" s="9"/>
+      <c r="P131" s="12"/>
+      <c r="Q131" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R131" s="15"/>
+      <c r="S131" s="34"/>
+      <c r="T131" s="34"/>
+      <c r="U131" s="34"/>
+      <c r="V131" s="34"/>
+      <c r="W131" s="34"/>
+      <c r="X131" s="34"/>
+      <c r="Y131" s="12"/>
+      <c r="Z131" s="17"/>
+      <c r="AA131" s="17"/>
+      <c r="AB131" s="17"/>
+      <c r="AC131" s="17"/>
+      <c r="AD131" s="17"/>
+      <c r="AE131" s="17"/>
+      <c r="AF131" s="17"/>
+      <c r="AG131" s="17"/>
+      <c r="AH131" s="17"/>
+      <c r="AI131" s="17"/>
+      <c r="AJ131" s="17"/>
+      <c r="AK131" s="17"/>
+    </row>
+    <row r="132" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C132" s="7">
+        <v>131</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="8"/>
+      <c r="O132" s="9"/>
+      <c r="P132" s="12"/>
+      <c r="Q132" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R132" s="15"/>
+      <c r="S132" s="34"/>
+      <c r="T132" s="34"/>
+      <c r="U132" s="34"/>
+      <c r="V132" s="34"/>
+      <c r="W132" s="34"/>
+      <c r="X132" s="34"/>
+      <c r="Y132" s="12"/>
+      <c r="Z132" s="17"/>
+      <c r="AA132" s="17"/>
+      <c r="AB132" s="17"/>
+      <c r="AC132" s="17"/>
+      <c r="AD132" s="17"/>
+      <c r="AE132" s="17"/>
+      <c r="AF132" s="17"/>
+      <c r="AG132" s="17"/>
+      <c r="AH132" s="17"/>
+      <c r="AI132" s="17"/>
+      <c r="AJ132" s="17"/>
+      <c r="AK132" s="17"/>
+    </row>
+    <row r="133" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C133" s="7">
+        <v>132</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="8"/>
+      <c r="O133" s="9"/>
+      <c r="P133" s="12"/>
+      <c r="Q133" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R133" s="15"/>
+      <c r="S133" s="34"/>
+      <c r="T133" s="34"/>
+      <c r="U133" s="34"/>
+      <c r="V133" s="34"/>
+      <c r="W133" s="34"/>
+      <c r="X133" s="34"/>
+      <c r="Y133" s="12"/>
+      <c r="Z133" s="17"/>
+      <c r="AA133" s="17"/>
+      <c r="AB133" s="17"/>
+      <c r="AC133" s="17"/>
+      <c r="AD133" s="17"/>
+      <c r="AE133" s="17"/>
+      <c r="AF133" s="17"/>
+      <c r="AG133" s="17"/>
+      <c r="AH133" s="17"/>
+      <c r="AI133" s="17"/>
+      <c r="AJ133" s="17"/>
+      <c r="AK133" s="17"/>
+    </row>
+    <row r="134" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C134" s="7">
+        <v>133</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="8"/>
+      <c r="O134" s="9"/>
+      <c r="P134" s="12"/>
+      <c r="Q134" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R134" s="15"/>
+      <c r="S134" s="34"/>
+      <c r="T134" s="34"/>
+      <c r="U134" s="34"/>
+      <c r="V134" s="34"/>
+      <c r="W134" s="34"/>
+      <c r="X134" s="34"/>
+      <c r="Y134" s="12"/>
+      <c r="Z134" s="17"/>
+      <c r="AA134" s="17"/>
+      <c r="AB134" s="17"/>
+      <c r="AC134" s="17"/>
+      <c r="AD134" s="17"/>
+      <c r="AE134" s="17"/>
+      <c r="AF134" s="17"/>
+      <c r="AG134" s="17"/>
+      <c r="AH134" s="17"/>
+      <c r="AI134" s="17"/>
+      <c r="AJ134" s="17"/>
+      <c r="AK134" s="17"/>
+    </row>
+    <row r="135" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C135" s="7">
+        <v>134</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="9"/>
+      <c r="M135" s="9"/>
+      <c r="N135" s="8"/>
+      <c r="O135" s="9"/>
+      <c r="P135" s="12"/>
+      <c r="Q135" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R135" s="15"/>
+      <c r="S135" s="34"/>
+      <c r="T135" s="34"/>
+      <c r="U135" s="34"/>
+      <c r="V135" s="34"/>
+      <c r="W135" s="34"/>
+      <c r="X135" s="34"/>
+      <c r="Y135" s="12"/>
+      <c r="Z135" s="17"/>
+      <c r="AA135" s="17"/>
+      <c r="AB135" s="17"/>
+      <c r="AC135" s="17"/>
+      <c r="AD135" s="17"/>
+      <c r="AE135" s="17"/>
+      <c r="AF135" s="17"/>
+      <c r="AG135" s="17"/>
+      <c r="AH135" s="17"/>
+      <c r="AI135" s="17"/>
+      <c r="AJ135" s="17"/>
+      <c r="AK135" s="17"/>
+    </row>
+    <row r="136" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C136" s="7">
+        <v>135</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="9"/>
+      <c r="M136" s="9"/>
+      <c r="N136" s="8"/>
+      <c r="O136" s="9"/>
+      <c r="P136" s="12"/>
+      <c r="Q136" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R136" s="15"/>
+      <c r="S136" s="34"/>
+      <c r="T136" s="34"/>
+      <c r="U136" s="34"/>
+      <c r="V136" s="34"/>
+      <c r="W136" s="34"/>
+      <c r="X136" s="34"/>
+      <c r="Y136" s="12"/>
+      <c r="Z136" s="17"/>
+      <c r="AA136" s="17"/>
+      <c r="AB136" s="17"/>
+      <c r="AC136" s="17"/>
+      <c r="AD136" s="17"/>
+      <c r="AE136" s="17"/>
+      <c r="AF136" s="17"/>
+      <c r="AG136" s="17"/>
+      <c r="AH136" s="17"/>
+      <c r="AI136" s="17"/>
+      <c r="AJ136" s="17"/>
+      <c r="AK136" s="17"/>
+    </row>
+    <row r="137" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C137" s="7">
+        <v>136</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="9"/>
+      <c r="M137" s="9"/>
+      <c r="N137" s="8"/>
+      <c r="O137" s="9"/>
+      <c r="P137" s="12"/>
+      <c r="Q137" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R137" s="15"/>
+      <c r="S137" s="34"/>
+      <c r="T137" s="34"/>
+      <c r="U137" s="34"/>
+      <c r="V137" s="34"/>
+      <c r="W137" s="34"/>
+      <c r="X137" s="34"/>
+      <c r="Y137" s="12"/>
+      <c r="Z137" s="17"/>
+      <c r="AA137" s="17"/>
+      <c r="AB137" s="17"/>
+      <c r="AC137" s="17"/>
+      <c r="AD137" s="17"/>
+      <c r="AE137" s="17"/>
+      <c r="AF137" s="17"/>
+      <c r="AG137" s="17"/>
+      <c r="AH137" s="17"/>
+      <c r="AI137" s="17"/>
+      <c r="AJ137" s="17"/>
+      <c r="AK137" s="17"/>
+    </row>
+    <row r="138" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C138" s="7">
+        <v>137</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="9"/>
+      <c r="M138" s="9"/>
+      <c r="N138" s="8"/>
+      <c r="O138" s="9"/>
+      <c r="P138" s="12"/>
+      <c r="Q138" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R138" s="15"/>
+      <c r="S138" s="34"/>
+      <c r="T138" s="34"/>
+      <c r="U138" s="34"/>
+      <c r="V138" s="34"/>
+      <c r="W138" s="34"/>
+      <c r="X138" s="34"/>
+      <c r="Y138" s="12"/>
+      <c r="Z138" s="17"/>
+      <c r="AA138" s="17"/>
+      <c r="AB138" s="17"/>
+      <c r="AC138" s="17"/>
+      <c r="AD138" s="17"/>
+      <c r="AE138" s="17"/>
+      <c r="AF138" s="17"/>
+      <c r="AG138" s="17"/>
+      <c r="AH138" s="17"/>
+      <c r="AI138" s="17"/>
+      <c r="AJ138" s="17"/>
+      <c r="AK138" s="17"/>
+    </row>
+    <row r="139" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C139" s="7">
+        <v>138</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
+      <c r="M139" s="9"/>
+      <c r="N139" s="8"/>
+      <c r="O139" s="9"/>
+      <c r="P139" s="12"/>
+      <c r="Q139" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R139" s="15"/>
+      <c r="S139" s="34"/>
+      <c r="T139" s="34"/>
+      <c r="U139" s="34"/>
+      <c r="V139" s="34"/>
+      <c r="W139" s="34"/>
+      <c r="X139" s="34"/>
+      <c r="Y139" s="12"/>
+      <c r="Z139" s="17"/>
+      <c r="AA139" s="17"/>
+      <c r="AB139" s="17"/>
+      <c r="AC139" s="17"/>
+      <c r="AD139" s="17"/>
+      <c r="AE139" s="17"/>
+      <c r="AF139" s="17"/>
+      <c r="AG139" s="17"/>
+      <c r="AH139" s="17"/>
+      <c r="AI139" s="17"/>
+      <c r="AJ139" s="17"/>
+      <c r="AK139" s="17"/>
+    </row>
+    <row r="140" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C140" s="7">
+        <v>139</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
+      <c r="M140" s="9"/>
+      <c r="N140" s="8"/>
+      <c r="O140" s="9"/>
+      <c r="P140" s="12"/>
+      <c r="Q140" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R140" s="15"/>
+      <c r="S140" s="34"/>
+      <c r="T140" s="34"/>
+      <c r="U140" s="34"/>
+      <c r="V140" s="34"/>
+      <c r="W140" s="34"/>
+      <c r="X140" s="34"/>
+      <c r="Y140" s="12"/>
+      <c r="Z140" s="17"/>
+      <c r="AA140" s="17"/>
+      <c r="AB140" s="17"/>
+      <c r="AC140" s="17"/>
+      <c r="AD140" s="17"/>
+      <c r="AE140" s="17"/>
+      <c r="AF140" s="17"/>
+      <c r="AG140" s="17"/>
+      <c r="AH140" s="17"/>
+      <c r="AI140" s="17"/>
+      <c r="AJ140" s="17"/>
+      <c r="AK140" s="17"/>
+    </row>
+    <row r="141" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C141" s="7">
+        <v>140</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
+      <c r="M141" s="9"/>
+      <c r="N141" s="8"/>
+      <c r="O141" s="9"/>
+      <c r="P141" s="12"/>
+      <c r="Q141" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R141" s="15"/>
+      <c r="S141" s="34"/>
+      <c r="T141" s="34"/>
+      <c r="U141" s="34"/>
+      <c r="V141" s="34"/>
+      <c r="W141" s="34"/>
+      <c r="X141" s="34"/>
+      <c r="Y141" s="12"/>
+      <c r="Z141" s="17"/>
+      <c r="AA141" s="17"/>
+      <c r="AB141" s="17"/>
+      <c r="AC141" s="17"/>
+      <c r="AD141" s="17"/>
+      <c r="AE141" s="17"/>
+      <c r="AF141" s="17"/>
+      <c r="AG141" s="17"/>
+      <c r="AH141" s="17"/>
+      <c r="AI141" s="17"/>
+      <c r="AJ141" s="17"/>
+      <c r="AK141" s="17"/>
+    </row>
+    <row r="142" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C142" s="7">
+        <v>141</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="9"/>
+      <c r="M142" s="9"/>
+      <c r="N142" s="8"/>
+      <c r="O142" s="9"/>
+      <c r="P142" s="12"/>
+      <c r="Q142" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R142" s="15"/>
+      <c r="S142" s="34"/>
+      <c r="T142" s="34"/>
+      <c r="U142" s="34"/>
+      <c r="V142" s="34"/>
+      <c r="W142" s="34"/>
+      <c r="X142" s="34"/>
+      <c r="Y142" s="12"/>
+      <c r="Z142" s="17"/>
+      <c r="AA142" s="17"/>
+      <c r="AB142" s="17"/>
+      <c r="AC142" s="17"/>
+      <c r="AD142" s="17"/>
+      <c r="AE142" s="17"/>
+      <c r="AF142" s="17"/>
+      <c r="AG142" s="17"/>
+      <c r="AH142" s="17"/>
+      <c r="AI142" s="17"/>
+      <c r="AJ142" s="17"/>
+      <c r="AK142" s="17"/>
+    </row>
+    <row r="143" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C143" s="7">
+        <v>142</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
+      <c r="N143" s="8"/>
+      <c r="O143" s="9"/>
+      <c r="P143" s="12"/>
+      <c r="Q143" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R143" s="15"/>
+      <c r="S143" s="34"/>
+      <c r="T143" s="34"/>
+      <c r="U143" s="34"/>
+      <c r="V143" s="34"/>
+      <c r="W143" s="34"/>
+      <c r="X143" s="34"/>
+      <c r="Y143" s="12"/>
+      <c r="Z143" s="17"/>
+      <c r="AA143" s="17"/>
+      <c r="AB143" s="17"/>
+      <c r="AC143" s="17"/>
+      <c r="AD143" s="17"/>
+      <c r="AE143" s="17"/>
+      <c r="AF143" s="17"/>
+      <c r="AG143" s="17"/>
+      <c r="AH143" s="17"/>
+      <c r="AI143" s="17"/>
+      <c r="AJ143" s="17"/>
+      <c r="AK143" s="17"/>
+    </row>
+    <row r="144" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C144" s="7">
+        <v>143</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H144" s="9"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c r="L144" s="9"/>
+      <c r="M144" s="9"/>
+      <c r="N144" s="8"/>
+      <c r="O144" s="9"/>
+      <c r="P144" s="12"/>
+      <c r="Q144" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R144" s="15"/>
+      <c r="S144" s="34"/>
+      <c r="T144" s="34"/>
+      <c r="U144" s="34"/>
+      <c r="V144" s="34"/>
+      <c r="W144" s="34"/>
+      <c r="X144" s="34"/>
+      <c r="Y144" s="12"/>
+      <c r="Z144" s="17"/>
+      <c r="AA144" s="17"/>
+      <c r="AB144" s="17"/>
+      <c r="AC144" s="17"/>
+      <c r="AD144" s="17"/>
+      <c r="AE144" s="17"/>
+      <c r="AF144" s="17"/>
+      <c r="AG144" s="17"/>
+      <c r="AH144" s="17"/>
+      <c r="AI144" s="17"/>
+      <c r="AJ144" s="17"/>
+      <c r="AK144" s="17"/>
+    </row>
+    <row r="145" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C145" s="7">
+        <v>144</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9"/>
+      <c r="M145" s="9"/>
+      <c r="N145" s="8"/>
+      <c r="O145" s="9"/>
+      <c r="P145" s="12"/>
+      <c r="Q145" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R145" s="15"/>
+      <c r="S145" s="34"/>
+      <c r="T145" s="34"/>
+      <c r="U145" s="34"/>
+      <c r="V145" s="34"/>
+      <c r="W145" s="34"/>
+      <c r="X145" s="34"/>
+      <c r="Y145" s="12"/>
+      <c r="Z145" s="17"/>
+      <c r="AA145" s="17"/>
+      <c r="AB145" s="17"/>
+      <c r="AC145" s="17"/>
+      <c r="AD145" s="17"/>
+      <c r="AE145" s="17"/>
+      <c r="AF145" s="17"/>
+      <c r="AG145" s="17"/>
+      <c r="AH145" s="17"/>
+      <c r="AI145" s="17"/>
+      <c r="AJ145" s="17"/>
+      <c r="AK145" s="17"/>
+    </row>
+    <row r="146" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C146" s="7">
+        <v>145</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H146" s="9"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="9"/>
+      <c r="M146" s="9"/>
+      <c r="N146" s="8"/>
+      <c r="O146" s="9"/>
+      <c r="P146" s="12"/>
+      <c r="Q146" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R146" s="15"/>
+      <c r="S146" s="34"/>
+      <c r="T146" s="34"/>
+      <c r="U146" s="34"/>
+      <c r="V146" s="34"/>
+      <c r="W146" s="34"/>
+      <c r="X146" s="34"/>
+      <c r="Y146" s="12"/>
+      <c r="Z146" s="17"/>
+      <c r="AA146" s="17"/>
+      <c r="AB146" s="17"/>
+      <c r="AC146" s="17"/>
+      <c r="AD146" s="17"/>
+      <c r="AE146" s="17"/>
+      <c r="AF146" s="17"/>
+      <c r="AG146" s="17"/>
+      <c r="AH146" s="17"/>
+      <c r="AI146" s="17"/>
+      <c r="AJ146" s="17"/>
+      <c r="AK146" s="17"/>
+    </row>
+    <row r="147" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C147" s="7">
+        <v>146</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H147" s="9"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c r="L147" s="9"/>
+      <c r="M147" s="9"/>
+      <c r="N147" s="8"/>
+      <c r="O147" s="9"/>
+      <c r="P147" s="12"/>
+      <c r="Q147" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R147" s="15"/>
+      <c r="S147" s="34"/>
+      <c r="T147" s="34"/>
+      <c r="U147" s="34"/>
+      <c r="V147" s="34"/>
+      <c r="W147" s="34"/>
+      <c r="X147" s="34"/>
+      <c r="Y147" s="12"/>
+      <c r="Z147" s="17"/>
+      <c r="AA147" s="17"/>
+      <c r="AB147" s="17"/>
+      <c r="AC147" s="17"/>
+      <c r="AD147" s="17"/>
+      <c r="AE147" s="17"/>
+      <c r="AF147" s="17"/>
+      <c r="AG147" s="17"/>
+      <c r="AH147" s="17"/>
+      <c r="AI147" s="17"/>
+      <c r="AJ147" s="17"/>
+      <c r="AK147" s="17"/>
+    </row>
+    <row r="148" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C148" s="7">
+        <v>147</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H148" s="9"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c r="L148" s="9"/>
+      <c r="M148" s="9"/>
+      <c r="N148" s="8"/>
+      <c r="O148" s="9"/>
+      <c r="P148" s="12"/>
+      <c r="Q148" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R148" s="15"/>
+      <c r="S148" s="34"/>
+      <c r="T148" s="34"/>
+      <c r="U148" s="34"/>
+      <c r="V148" s="34"/>
+      <c r="W148" s="34"/>
+      <c r="X148" s="34"/>
+      <c r="Y148" s="12"/>
+      <c r="Z148" s="17"/>
+      <c r="AA148" s="17"/>
+      <c r="AB148" s="17"/>
+      <c r="AC148" s="17"/>
+      <c r="AD148" s="17"/>
+      <c r="AE148" s="17"/>
+      <c r="AF148" s="17"/>
+      <c r="AG148" s="17"/>
+      <c r="AH148" s="17"/>
+      <c r="AI148" s="17"/>
+      <c r="AJ148" s="17"/>
+      <c r="AK148" s="17"/>
+    </row>
+    <row r="149" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C149" s="7">
+        <v>148</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H149" s="9"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c r="L149" s="9"/>
+      <c r="M149" s="9"/>
+      <c r="N149" s="8"/>
+      <c r="O149" s="9"/>
+      <c r="P149" s="12"/>
+      <c r="Q149" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R149" s="15"/>
+      <c r="S149" s="34"/>
+      <c r="T149" s="34"/>
+      <c r="U149" s="34"/>
+      <c r="V149" s="34"/>
+      <c r="W149" s="34"/>
+      <c r="X149" s="34"/>
+      <c r="Y149" s="12"/>
+      <c r="Z149" s="17"/>
+      <c r="AA149" s="17"/>
+      <c r="AB149" s="17"/>
+      <c r="AC149" s="17"/>
+      <c r="AD149" s="17"/>
+      <c r="AE149" s="17"/>
+      <c r="AF149" s="17"/>
+      <c r="AG149" s="17"/>
+      <c r="AH149" s="17"/>
+      <c r="AI149" s="17"/>
+      <c r="AJ149" s="17"/>
+      <c r="AK149" s="17"/>
+    </row>
+    <row r="150" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C150" s="7">
+        <v>149</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H150" s="9"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+      <c r="L150" s="9"/>
+      <c r="M150" s="9"/>
+      <c r="N150" s="8"/>
+      <c r="O150" s="9"/>
+      <c r="P150" s="12"/>
+      <c r="Q150" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R150" s="15"/>
+      <c r="S150" s="34"/>
+      <c r="T150" s="34"/>
+      <c r="U150" s="34"/>
+      <c r="V150" s="34"/>
+      <c r="W150" s="34"/>
+      <c r="X150" s="34"/>
+      <c r="Y150" s="12"/>
+      <c r="Z150" s="17"/>
+      <c r="AA150" s="17"/>
+      <c r="AB150" s="17"/>
+      <c r="AC150" s="17"/>
+      <c r="AD150" s="17"/>
+      <c r="AE150" s="17"/>
+      <c r="AF150" s="17"/>
+      <c r="AG150" s="17"/>
+      <c r="AH150" s="17"/>
+      <c r="AI150" s="17"/>
+      <c r="AJ150" s="17"/>
+      <c r="AK150" s="17"/>
+    </row>
+    <row r="151" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C151" s="7">
+        <v>150</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c r="L151" s="9"/>
+      <c r="M151" s="9"/>
+      <c r="N151" s="8"/>
+      <c r="O151" s="9"/>
+      <c r="P151" s="12"/>
+      <c r="Q151" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R151" s="15"/>
+      <c r="S151" s="34"/>
+      <c r="T151" s="34"/>
+      <c r="U151" s="34"/>
+      <c r="V151" s="34"/>
+      <c r="W151" s="34"/>
+      <c r="X151" s="34"/>
+      <c r="Y151" s="12"/>
+      <c r="Z151" s="17"/>
+      <c r="AA151" s="17"/>
+      <c r="AB151" s="17"/>
+      <c r="AC151" s="17"/>
+      <c r="AD151" s="17"/>
+      <c r="AE151" s="17"/>
+      <c r="AF151" s="17"/>
+      <c r="AG151" s="17"/>
+      <c r="AH151" s="17"/>
+      <c r="AI151" s="17"/>
+      <c r="AJ151" s="17"/>
+      <c r="AK151" s="17"/>
+    </row>
+    <row r="152" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C152" s="7">
+        <v>151</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
+      <c r="L152" s="9"/>
+      <c r="M152" s="9"/>
+      <c r="N152" s="8"/>
+      <c r="O152" s="9"/>
+      <c r="P152" s="12"/>
+      <c r="Q152" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R152" s="15"/>
+      <c r="S152" s="34"/>
+      <c r="T152" s="34"/>
+      <c r="U152" s="34"/>
+      <c r="V152" s="34"/>
+      <c r="W152" s="34"/>
+      <c r="X152" s="34"/>
+      <c r="Y152" s="12"/>
+      <c r="Z152" s="17"/>
+      <c r="AA152" s="17"/>
+      <c r="AB152" s="17"/>
+      <c r="AC152" s="17"/>
+      <c r="AD152" s="17"/>
+      <c r="AE152" s="17"/>
+      <c r="AF152" s="17"/>
+      <c r="AG152" s="17"/>
+      <c r="AH152" s="17"/>
+      <c r="AI152" s="17"/>
+      <c r="AJ152" s="17"/>
+      <c r="AK152" s="17"/>
+    </row>
+    <row r="153" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C153" s="7">
+        <v>152</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H153" s="9"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="9"/>
+      <c r="L153" s="9"/>
+      <c r="M153" s="9"/>
+      <c r="N153" s="8"/>
+      <c r="O153" s="9"/>
+      <c r="P153" s="12"/>
+      <c r="Q153" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R153" s="15"/>
+      <c r="S153" s="34"/>
+      <c r="T153" s="34"/>
+      <c r="U153" s="34"/>
+      <c r="V153" s="34"/>
+      <c r="W153" s="34"/>
+      <c r="X153" s="34"/>
+      <c r="Y153" s="12"/>
+      <c r="Z153" s="17"/>
+      <c r="AA153" s="17"/>
+      <c r="AB153" s="17"/>
+      <c r="AC153" s="17"/>
+      <c r="AD153" s="17"/>
+      <c r="AE153" s="17"/>
+      <c r="AF153" s="17"/>
+      <c r="AG153" s="17"/>
+      <c r="AH153" s="17"/>
+      <c r="AI153" s="17"/>
+      <c r="AJ153" s="17"/>
+      <c r="AK153" s="17"/>
+    </row>
+    <row r="154" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C154" s="7">
+        <v>153</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H154" s="9"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="9"/>
+      <c r="L154" s="9"/>
+      <c r="M154" s="9"/>
+      <c r="N154" s="8"/>
+      <c r="O154" s="9"/>
+      <c r="P154" s="12"/>
+      <c r="Q154" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R154" s="15"/>
+      <c r="S154" s="34"/>
+      <c r="T154" s="34"/>
+      <c r="U154" s="34"/>
+      <c r="V154" s="34"/>
+      <c r="W154" s="34"/>
+      <c r="X154" s="34"/>
+      <c r="Y154" s="12"/>
+      <c r="Z154" s="17"/>
+      <c r="AA154" s="17"/>
+      <c r="AB154" s="17"/>
+      <c r="AC154" s="17"/>
+      <c r="AD154" s="17"/>
+      <c r="AE154" s="17"/>
+      <c r="AF154" s="17"/>
+      <c r="AG154" s="17"/>
+      <c r="AH154" s="17"/>
+      <c r="AI154" s="17"/>
+      <c r="AJ154" s="17"/>
+      <c r="AK154" s="17"/>
+    </row>
+    <row r="155" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C155" s="7">
+        <v>154</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H155" s="9"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
+      <c r="L155" s="9"/>
+      <c r="M155" s="9"/>
+      <c r="N155" s="8"/>
+      <c r="O155" s="9"/>
+      <c r="P155" s="12"/>
+      <c r="Q155" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R155" s="15"/>
+      <c r="S155" s="34"/>
+      <c r="T155" s="34"/>
+      <c r="U155" s="34"/>
+      <c r="V155" s="34"/>
+      <c r="W155" s="34"/>
+      <c r="X155" s="34"/>
+      <c r="Y155" s="12"/>
+      <c r="Z155" s="17"/>
+      <c r="AA155" s="17"/>
+      <c r="AB155" s="17"/>
+      <c r="AC155" s="17"/>
+      <c r="AD155" s="17"/>
+      <c r="AE155" s="17"/>
+      <c r="AF155" s="17"/>
+      <c r="AG155" s="17"/>
+      <c r="AH155" s="17"/>
+      <c r="AI155" s="17"/>
+      <c r="AJ155" s="17"/>
+      <c r="AK155" s="17"/>
+    </row>
+    <row r="156" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C156" s="7">
+        <v>155</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H156" s="9"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
+      <c r="K156" s="9"/>
+      <c r="L156" s="9"/>
+      <c r="M156" s="9"/>
+      <c r="N156" s="8"/>
+      <c r="O156" s="9"/>
+      <c r="P156" s="12"/>
+      <c r="Q156" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R156" s="15"/>
+      <c r="S156" s="34"/>
+      <c r="T156" s="34"/>
+      <c r="U156" s="34"/>
+      <c r="V156" s="34"/>
+      <c r="W156" s="34"/>
+      <c r="X156" s="34"/>
+      <c r="Y156" s="12"/>
+      <c r="Z156" s="17"/>
+      <c r="AA156" s="17"/>
+      <c r="AB156" s="17"/>
+      <c r="AC156" s="17"/>
+      <c r="AD156" s="17"/>
+      <c r="AE156" s="17"/>
+      <c r="AF156" s="17"/>
+      <c r="AG156" s="17"/>
+      <c r="AH156" s="17"/>
+      <c r="AI156" s="17"/>
+      <c r="AJ156" s="17"/>
+      <c r="AK156" s="17"/>
+    </row>
+    <row r="157" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C157" s="7">
+        <v>156</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H157" s="9"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="9"/>
+      <c r="K157" s="9"/>
+      <c r="L157" s="9"/>
+      <c r="M157" s="9"/>
+      <c r="N157" s="8"/>
+      <c r="O157" s="9"/>
+      <c r="P157" s="12"/>
+      <c r="Q157" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R157" s="15"/>
+      <c r="S157" s="34"/>
+      <c r="T157" s="34"/>
+      <c r="U157" s="34"/>
+      <c r="V157" s="34"/>
+      <c r="W157" s="34"/>
+      <c r="X157" s="34"/>
+      <c r="Y157" s="12"/>
+      <c r="Z157" s="17"/>
+      <c r="AA157" s="17"/>
+      <c r="AB157" s="17"/>
+      <c r="AC157" s="17"/>
+      <c r="AD157" s="17"/>
+      <c r="AE157" s="17"/>
+      <c r="AF157" s="17"/>
+      <c r="AG157" s="17"/>
+      <c r="AH157" s="17"/>
+      <c r="AI157" s="17"/>
+      <c r="AJ157" s="17"/>
+      <c r="AK157" s="17"/>
+    </row>
+    <row r="158" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C158" s="7">
+        <v>157</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H158" s="9"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="9"/>
+      <c r="K158" s="9"/>
+      <c r="L158" s="9"/>
+      <c r="M158" s="9"/>
+      <c r="N158" s="8"/>
+      <c r="O158" s="9"/>
+      <c r="P158" s="12"/>
+      <c r="Q158" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R158" s="15"/>
+      <c r="S158" s="34"/>
+      <c r="T158" s="34"/>
+      <c r="U158" s="34"/>
+      <c r="V158" s="34"/>
+      <c r="W158" s="34"/>
+      <c r="X158" s="34"/>
+      <c r="Y158" s="12"/>
+      <c r="Z158" s="17"/>
+      <c r="AA158" s="17"/>
+      <c r="AB158" s="17"/>
+      <c r="AC158" s="17"/>
+      <c r="AD158" s="17"/>
+      <c r="AE158" s="17"/>
+      <c r="AF158" s="17"/>
+      <c r="AG158" s="17"/>
+      <c r="AH158" s="17"/>
+      <c r="AI158" s="17"/>
+      <c r="AJ158" s="17"/>
+      <c r="AK158" s="17"/>
+    </row>
+    <row r="159" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C159" s="7">
+        <v>158</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H159" s="9"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="9"/>
+      <c r="K159" s="9"/>
+      <c r="L159" s="9"/>
+      <c r="M159" s="9"/>
+      <c r="N159" s="8"/>
+      <c r="O159" s="9"/>
+      <c r="P159" s="12"/>
+      <c r="Q159" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R159" s="15"/>
+      <c r="S159" s="34"/>
+      <c r="T159" s="34"/>
+      <c r="U159" s="34"/>
+      <c r="V159" s="34"/>
+      <c r="W159" s="34"/>
+      <c r="X159" s="34"/>
+      <c r="Y159" s="12"/>
+      <c r="Z159" s="17"/>
+      <c r="AA159" s="17"/>
+      <c r="AB159" s="17"/>
+      <c r="AC159" s="17"/>
+      <c r="AD159" s="17"/>
+      <c r="AE159" s="17"/>
+      <c r="AF159" s="17"/>
+      <c r="AG159" s="17"/>
+      <c r="AH159" s="17"/>
+      <c r="AI159" s="17"/>
+      <c r="AJ159" s="17"/>
+      <c r="AK159" s="17"/>
+    </row>
+    <row r="160" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C160" s="7">
+        <v>159</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H160" s="9"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
+      <c r="K160" s="9"/>
+      <c r="L160" s="9"/>
+      <c r="M160" s="9"/>
+      <c r="N160" s="8"/>
+      <c r="O160" s="9"/>
+      <c r="P160" s="12"/>
+      <c r="Q160" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R160" s="15"/>
+      <c r="S160" s="34"/>
+      <c r="T160" s="34"/>
+      <c r="U160" s="34"/>
+      <c r="V160" s="34"/>
+      <c r="W160" s="34"/>
+      <c r="X160" s="34"/>
+      <c r="Y160" s="12"/>
+      <c r="Z160" s="17"/>
+      <c r="AA160" s="17"/>
+      <c r="AB160" s="17"/>
+      <c r="AC160" s="17"/>
+      <c r="AD160" s="17"/>
+      <c r="AE160" s="17"/>
+      <c r="AF160" s="17"/>
+      <c r="AG160" s="17"/>
+      <c r="AH160" s="17"/>
+      <c r="AI160" s="17"/>
+      <c r="AJ160" s="17"/>
+      <c r="AK160" s="17"/>
+    </row>
+    <row r="161" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C161" s="7">
+        <v>160</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H161" s="9"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
+      <c r="K161" s="9"/>
+      <c r="L161" s="9"/>
+      <c r="M161" s="9"/>
+      <c r="N161" s="8"/>
+      <c r="O161" s="9"/>
+      <c r="P161" s="12"/>
+      <c r="Q161" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R161" s="15"/>
+      <c r="S161" s="34"/>
+      <c r="T161" s="34"/>
+      <c r="U161" s="34"/>
+      <c r="V161" s="34"/>
+      <c r="W161" s="34"/>
+      <c r="X161" s="34"/>
+      <c r="Y161" s="12"/>
+      <c r="Z161" s="17"/>
+      <c r="AA161" s="17"/>
+      <c r="AB161" s="17"/>
+      <c r="AC161" s="17"/>
+      <c r="AD161" s="17"/>
+      <c r="AE161" s="17"/>
+      <c r="AF161" s="17"/>
+      <c r="AG161" s="17"/>
+      <c r="AH161" s="17"/>
+      <c r="AI161" s="17"/>
+      <c r="AJ161" s="17"/>
+      <c r="AK161" s="17"/>
+    </row>
+    <row r="162" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C162" s="7">
+        <v>161</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H162" s="9"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
+      <c r="K162" s="9"/>
+      <c r="L162" s="9"/>
+      <c r="M162" s="9"/>
+      <c r="N162" s="8"/>
+      <c r="O162" s="9"/>
+      <c r="P162" s="12"/>
+      <c r="Q162" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R162" s="15"/>
+      <c r="S162" s="34"/>
+      <c r="T162" s="34"/>
+      <c r="U162" s="34"/>
+      <c r="V162" s="34"/>
+      <c r="W162" s="34"/>
+      <c r="X162" s="34"/>
+      <c r="Y162" s="12"/>
+      <c r="Z162" s="17"/>
+      <c r="AA162" s="17"/>
+      <c r="AB162" s="17"/>
+      <c r="AC162" s="17"/>
+      <c r="AD162" s="17"/>
+      <c r="AE162" s="17"/>
+      <c r="AF162" s="17"/>
+      <c r="AG162" s="17"/>
+      <c r="AH162" s="17"/>
+      <c r="AI162" s="17"/>
+      <c r="AJ162" s="17"/>
+      <c r="AK162" s="17"/>
+    </row>
+    <row r="163" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C163" s="7">
+        <v>162</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H163" s="9"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="9"/>
+      <c r="K163" s="9"/>
+      <c r="L163" s="9"/>
+      <c r="M163" s="9"/>
+      <c r="N163" s="8"/>
+      <c r="O163" s="9"/>
+      <c r="P163" s="12"/>
+      <c r="Q163" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R163" s="15"/>
+      <c r="S163" s="34"/>
+      <c r="T163" s="34"/>
+      <c r="U163" s="34"/>
+      <c r="V163" s="34"/>
+      <c r="W163" s="34"/>
+      <c r="X163" s="34"/>
+      <c r="Y163" s="12"/>
+      <c r="Z163" s="17"/>
+      <c r="AA163" s="17"/>
+      <c r="AB163" s="17"/>
+      <c r="AC163" s="17"/>
+      <c r="AD163" s="17"/>
+      <c r="AE163" s="17"/>
+      <c r="AF163" s="17"/>
+      <c r="AG163" s="17"/>
+      <c r="AH163" s="17"/>
+      <c r="AI163" s="17"/>
+      <c r="AJ163" s="17"/>
+      <c r="AK163" s="17"/>
+    </row>
+    <row r="164" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C164" s="7">
+        <v>163</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H164" s="9"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="9"/>
+      <c r="K164" s="9"/>
+      <c r="L164" s="9"/>
+      <c r="M164" s="9"/>
+      <c r="N164" s="8"/>
+      <c r="O164" s="9"/>
+      <c r="P164" s="12"/>
+      <c r="Q164" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R164" s="15"/>
+      <c r="S164" s="34"/>
+      <c r="T164" s="34"/>
+      <c r="U164" s="34"/>
+      <c r="V164" s="34"/>
+      <c r="W164" s="34"/>
+      <c r="X164" s="34"/>
+      <c r="Y164" s="12"/>
+      <c r="Z164" s="17"/>
+      <c r="AA164" s="17"/>
+      <c r="AB164" s="17"/>
+      <c r="AC164" s="17"/>
+      <c r="AD164" s="17"/>
+      <c r="AE164" s="17"/>
+      <c r="AF164" s="17"/>
+      <c r="AG164" s="17"/>
+      <c r="AH164" s="17"/>
+      <c r="AI164" s="17"/>
+      <c r="AJ164" s="17"/>
+      <c r="AK164" s="17"/>
+    </row>
+    <row r="165" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C165" s="7">
+        <v>164</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H165" s="9"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="9"/>
+      <c r="K165" s="9"/>
+      <c r="L165" s="9"/>
+      <c r="M165" s="9"/>
+      <c r="N165" s="8"/>
+      <c r="O165" s="9"/>
+      <c r="P165" s="12"/>
+      <c r="Q165" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R165" s="15"/>
+      <c r="S165" s="34"/>
+      <c r="T165" s="34"/>
+      <c r="U165" s="34"/>
+      <c r="V165" s="34"/>
+      <c r="W165" s="34"/>
+      <c r="X165" s="34"/>
+      <c r="Y165" s="12"/>
+      <c r="Z165" s="17"/>
+      <c r="AA165" s="17"/>
+      <c r="AB165" s="17"/>
+      <c r="AC165" s="17"/>
+      <c r="AD165" s="17"/>
+      <c r="AE165" s="17"/>
+      <c r="AF165" s="17"/>
+      <c r="AG165" s="17"/>
+      <c r="AH165" s="17"/>
+      <c r="AI165" s="17"/>
+      <c r="AJ165" s="17"/>
+      <c r="AK165" s="17"/>
+    </row>
+    <row r="166" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C166" s="7">
+        <v>165</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H166" s="9"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="9"/>
+      <c r="K166" s="9"/>
+      <c r="L166" s="9"/>
+      <c r="M166" s="9"/>
+      <c r="N166" s="8"/>
+      <c r="O166" s="9"/>
+      <c r="P166" s="12"/>
+      <c r="Q166" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R166" s="15"/>
+      <c r="S166" s="34"/>
+      <c r="T166" s="34"/>
+      <c r="U166" s="34"/>
+      <c r="V166" s="34"/>
+      <c r="W166" s="34"/>
+      <c r="X166" s="34"/>
+      <c r="Y166" s="12"/>
+      <c r="Z166" s="17"/>
+      <c r="AA166" s="17"/>
+      <c r="AB166" s="17"/>
+      <c r="AC166" s="17"/>
+      <c r="AD166" s="17"/>
+      <c r="AE166" s="17"/>
+      <c r="AF166" s="17"/>
+      <c r="AG166" s="17"/>
+      <c r="AH166" s="17"/>
+      <c r="AI166" s="17"/>
+      <c r="AJ166" s="17"/>
+      <c r="AK166" s="17"/>
+    </row>
+    <row r="167" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C167" s="7">
+        <v>166</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H167" s="9"/>
+      <c r="I167" s="9"/>
+      <c r="J167" s="9"/>
+      <c r="K167" s="9"/>
+      <c r="L167" s="9"/>
+      <c r="M167" s="9"/>
+      <c r="N167" s="8"/>
+      <c r="O167" s="9"/>
+      <c r="P167" s="12"/>
+      <c r="Q167" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R167" s="15"/>
+      <c r="S167" s="34"/>
+      <c r="T167" s="34"/>
+      <c r="U167" s="34"/>
+      <c r="V167" s="34"/>
+      <c r="W167" s="34"/>
+      <c r="X167" s="34"/>
+      <c r="Y167" s="12"/>
+      <c r="Z167" s="17"/>
+      <c r="AA167" s="17"/>
+      <c r="AB167" s="17"/>
+      <c r="AC167" s="17"/>
+      <c r="AD167" s="17"/>
+      <c r="AE167" s="17"/>
+      <c r="AF167" s="17"/>
+      <c r="AG167" s="17"/>
+      <c r="AH167" s="17"/>
+      <c r="AI167" s="17"/>
+      <c r="AJ167" s="17"/>
+      <c r="AK167" s="17"/>
+    </row>
+    <row r="168" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C168" s="7">
+        <v>167</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H168" s="9"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="9"/>
+      <c r="K168" s="9"/>
+      <c r="L168" s="9"/>
+      <c r="M168" s="9"/>
+      <c r="N168" s="8"/>
+      <c r="O168" s="9"/>
+      <c r="P168" s="12"/>
+      <c r="Q168" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R168" s="15"/>
+      <c r="S168" s="34"/>
+      <c r="T168" s="34"/>
+      <c r="U168" s="34"/>
+      <c r="V168" s="34"/>
+      <c r="W168" s="34"/>
+      <c r="X168" s="34"/>
+      <c r="Y168" s="12"/>
+      <c r="Z168" s="17"/>
+      <c r="AA168" s="17"/>
+      <c r="AB168" s="17"/>
+      <c r="AC168" s="17"/>
+      <c r="AD168" s="17"/>
+      <c r="AE168" s="17"/>
+      <c r="AF168" s="17"/>
+      <c r="AG168" s="17"/>
+      <c r="AH168" s="17"/>
+      <c r="AI168" s="17"/>
+      <c r="AJ168" s="17"/>
+      <c r="AK168" s="17"/>
+    </row>
+    <row r="169" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C169" s="7">
+        <v>168</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H169" s="9"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="9"/>
+      <c r="K169" s="9"/>
+      <c r="L169" s="9"/>
+      <c r="M169" s="9"/>
+      <c r="N169" s="8"/>
+      <c r="O169" s="9"/>
+      <c r="P169" s="12"/>
+      <c r="Q169" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R169" s="15"/>
+      <c r="S169" s="34"/>
+      <c r="T169" s="34"/>
+      <c r="U169" s="34"/>
+      <c r="V169" s="34"/>
+      <c r="W169" s="34"/>
+      <c r="X169" s="34"/>
+      <c r="Y169" s="12"/>
+      <c r="Z169" s="17"/>
+      <c r="AA169" s="17"/>
+      <c r="AB169" s="17"/>
+      <c r="AC169" s="17"/>
+      <c r="AD169" s="17"/>
+      <c r="AE169" s="17"/>
+      <c r="AF169" s="17"/>
+      <c r="AG169" s="17"/>
+      <c r="AH169" s="17"/>
+      <c r="AI169" s="17"/>
+      <c r="AJ169" s="17"/>
+      <c r="AK169" s="17"/>
+    </row>
+    <row r="170" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C170" s="7">
+        <v>169</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H170" s="9"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="9"/>
+      <c r="K170" s="9"/>
+      <c r="L170" s="9"/>
+      <c r="M170" s="9"/>
+      <c r="N170" s="8"/>
+      <c r="O170" s="9"/>
+      <c r="P170" s="12"/>
+      <c r="Q170" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R170" s="15"/>
+      <c r="S170" s="34"/>
+      <c r="T170" s="34"/>
+      <c r="U170" s="34"/>
+      <c r="V170" s="34"/>
+      <c r="W170" s="34"/>
+      <c r="X170" s="34"/>
+      <c r="Y170" s="12"/>
+      <c r="Z170" s="17"/>
+      <c r="AA170" s="17"/>
+      <c r="AB170" s="17"/>
+      <c r="AC170" s="17"/>
+      <c r="AD170" s="17"/>
+      <c r="AE170" s="17"/>
+      <c r="AF170" s="17"/>
+      <c r="AG170" s="17"/>
+      <c r="AH170" s="17"/>
+      <c r="AI170" s="17"/>
+      <c r="AJ170" s="17"/>
+      <c r="AK170" s="17"/>
+    </row>
+    <row r="171" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C171" s="7">
+        <v>170</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H171" s="9"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="9"/>
+      <c r="K171" s="9"/>
+      <c r="L171" s="9"/>
+      <c r="M171" s="9"/>
+      <c r="N171" s="8"/>
+      <c r="O171" s="9"/>
+      <c r="P171" s="12"/>
+      <c r="Q171" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R171" s="15"/>
+      <c r="S171" s="34"/>
+      <c r="T171" s="34"/>
+      <c r="U171" s="34"/>
+      <c r="V171" s="34"/>
+      <c r="W171" s="34"/>
+      <c r="X171" s="34"/>
+      <c r="Y171" s="12"/>
+      <c r="Z171" s="17"/>
+      <c r="AA171" s="17"/>
+      <c r="AB171" s="17"/>
+      <c r="AC171" s="17"/>
+      <c r="AD171" s="17"/>
+      <c r="AE171" s="17"/>
+      <c r="AF171" s="17"/>
+      <c r="AG171" s="17"/>
+      <c r="AH171" s="17"/>
+      <c r="AI171" s="17"/>
+      <c r="AJ171" s="17"/>
+      <c r="AK171" s="17"/>
+    </row>
+    <row r="172" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C172" s="7">
+        <v>171</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H172" s="9"/>
+      <c r="I172" s="9"/>
+      <c r="J172" s="9"/>
+      <c r="K172" s="9"/>
+      <c r="L172" s="9"/>
+      <c r="M172" s="9"/>
+      <c r="N172" s="8"/>
+      <c r="O172" s="9"/>
+      <c r="P172" s="12"/>
+      <c r="Q172" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R172" s="15"/>
+      <c r="S172" s="34"/>
+      <c r="T172" s="34"/>
+      <c r="U172" s="34"/>
+      <c r="V172" s="34"/>
+      <c r="W172" s="34"/>
+      <c r="X172" s="34"/>
+      <c r="Y172" s="12"/>
+      <c r="Z172" s="17"/>
+      <c r="AA172" s="17"/>
+      <c r="AB172" s="17"/>
+      <c r="AC172" s="17"/>
+      <c r="AD172" s="17"/>
+      <c r="AE172" s="17"/>
+      <c r="AF172" s="17"/>
+      <c r="AG172" s="17"/>
+      <c r="AH172" s="17"/>
+      <c r="AI172" s="17"/>
+      <c r="AJ172" s="17"/>
+      <c r="AK172" s="17"/>
+    </row>
+    <row r="173" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C173" s="7">
+        <v>172</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H173" s="9"/>
+      <c r="I173" s="9"/>
+      <c r="J173" s="9"/>
+      <c r="K173" s="9"/>
+      <c r="L173" s="9"/>
+      <c r="M173" s="9"/>
+      <c r="N173" s="8"/>
+      <c r="O173" s="9"/>
+      <c r="P173" s="12"/>
+      <c r="Q173" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R173" s="15"/>
+      <c r="S173" s="34"/>
+      <c r="T173" s="34"/>
+      <c r="U173" s="34"/>
+      <c r="V173" s="34"/>
+      <c r="W173" s="34"/>
+      <c r="X173" s="34"/>
+      <c r="Y173" s="12"/>
+      <c r="Z173" s="17"/>
+      <c r="AA173" s="17"/>
+      <c r="AB173" s="17"/>
+      <c r="AC173" s="17"/>
+      <c r="AD173" s="17"/>
+      <c r="AE173" s="17"/>
+      <c r="AF173" s="17"/>
+      <c r="AG173" s="17"/>
+      <c r="AH173" s="17"/>
+      <c r="AI173" s="17"/>
+      <c r="AJ173" s="17"/>
+      <c r="AK173" s="17"/>
+    </row>
+    <row r="174" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C174" s="7">
+        <v>173</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H174" s="9"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="9"/>
+      <c r="K174" s="9"/>
+      <c r="L174" s="9"/>
+      <c r="M174" s="9"/>
+      <c r="N174" s="8"/>
+      <c r="O174" s="9"/>
+      <c r="P174" s="12"/>
+      <c r="Q174" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R174" s="15"/>
+      <c r="S174" s="34"/>
+      <c r="T174" s="34"/>
+      <c r="U174" s="34"/>
+      <c r="V174" s="34"/>
+      <c r="W174" s="34"/>
+      <c r="X174" s="34"/>
+      <c r="Y174" s="12"/>
+      <c r="Z174" s="17"/>
+      <c r="AA174" s="17"/>
+      <c r="AB174" s="17"/>
+      <c r="AC174" s="17"/>
+      <c r="AD174" s="17"/>
+      <c r="AE174" s="17"/>
+      <c r="AF174" s="17"/>
+      <c r="AG174" s="17"/>
+      <c r="AH174" s="17"/>
+      <c r="AI174" s="17"/>
+      <c r="AJ174" s="17"/>
+      <c r="AK174" s="17"/>
+    </row>
+    <row r="175" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C175" s="7">
+        <v>174</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H175" s="9"/>
+      <c r="I175" s="9"/>
+      <c r="J175" s="9"/>
+      <c r="K175" s="9"/>
+      <c r="L175" s="9"/>
+      <c r="M175" s="9"/>
+      <c r="N175" s="8"/>
+      <c r="O175" s="9"/>
+      <c r="P175" s="12"/>
+      <c r="Q175" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R175" s="15"/>
+      <c r="S175" s="34"/>
+      <c r="T175" s="34"/>
+      <c r="U175" s="34"/>
+      <c r="V175" s="34"/>
+      <c r="W175" s="34"/>
+      <c r="X175" s="34"/>
+      <c r="Y175" s="12"/>
+      <c r="Z175" s="17"/>
+      <c r="AA175" s="17"/>
+      <c r="AB175" s="17"/>
+      <c r="AC175" s="17"/>
+      <c r="AD175" s="17"/>
+      <c r="AE175" s="17"/>
+      <c r="AF175" s="17"/>
+      <c r="AG175" s="17"/>
+      <c r="AH175" s="17"/>
+      <c r="AI175" s="17"/>
+      <c r="AJ175" s="17"/>
+      <c r="AK175" s="17"/>
+    </row>
+    <row r="176" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C176" s="7">
+        <v>175</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H176" s="9"/>
+      <c r="I176" s="9"/>
+      <c r="J176" s="9"/>
+      <c r="K176" s="9"/>
+      <c r="L176" s="9"/>
+      <c r="M176" s="9"/>
+      <c r="N176" s="8"/>
+      <c r="O176" s="9"/>
+      <c r="P176" s="12"/>
+      <c r="Q176" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R176" s="15"/>
+      <c r="S176" s="34"/>
+      <c r="T176" s="34"/>
+      <c r="U176" s="34"/>
+      <c r="V176" s="34"/>
+      <c r="W176" s="34"/>
+      <c r="X176" s="34"/>
+      <c r="Y176" s="12"/>
+      <c r="Z176" s="17"/>
+      <c r="AA176" s="17"/>
+      <c r="AB176" s="17"/>
+      <c r="AC176" s="17"/>
+      <c r="AD176" s="17"/>
+      <c r="AE176" s="17"/>
+      <c r="AF176" s="17"/>
+      <c r="AG176" s="17"/>
+      <c r="AH176" s="17"/>
+      <c r="AI176" s="17"/>
+      <c r="AJ176" s="17"/>
+      <c r="AK176" s="17"/>
+    </row>
+    <row r="177" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C177" s="7">
+        <v>176</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H177" s="9"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="9"/>
+      <c r="K177" s="9"/>
+      <c r="L177" s="9"/>
+      <c r="M177" s="9"/>
+      <c r="N177" s="8"/>
+      <c r="O177" s="9"/>
+      <c r="P177" s="12"/>
+      <c r="Q177" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R177" s="15"/>
+      <c r="S177" s="34"/>
+      <c r="T177" s="34"/>
+      <c r="U177" s="34"/>
+      <c r="V177" s="34"/>
+      <c r="W177" s="34"/>
+      <c r="X177" s="34"/>
+      <c r="Y177" s="12"/>
+      <c r="Z177" s="17"/>
+      <c r="AA177" s="17"/>
+      <c r="AB177" s="17"/>
+      <c r="AC177" s="17"/>
+      <c r="AD177" s="17"/>
+      <c r="AE177" s="17"/>
+      <c r="AF177" s="17"/>
+      <c r="AG177" s="17"/>
+      <c r="AH177" s="17"/>
+      <c r="AI177" s="17"/>
+      <c r="AJ177" s="17"/>
+      <c r="AK177" s="17"/>
+    </row>
+    <row r="178" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C178" s="7">
+        <v>177</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H178" s="9"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="9"/>
+      <c r="K178" s="9"/>
+      <c r="L178" s="9"/>
+      <c r="M178" s="9"/>
+      <c r="N178" s="8"/>
+      <c r="O178" s="9"/>
+      <c r="P178" s="12"/>
+      <c r="Q178" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R178" s="15"/>
+      <c r="S178" s="34"/>
+      <c r="T178" s="34"/>
+      <c r="U178" s="34"/>
+      <c r="V178" s="34"/>
+      <c r="W178" s="34"/>
+      <c r="X178" s="34"/>
+      <c r="Y178" s="12"/>
+      <c r="Z178" s="17"/>
+      <c r="AA178" s="17"/>
+      <c r="AB178" s="17"/>
+      <c r="AC178" s="17"/>
+      <c r="AD178" s="17"/>
+      <c r="AE178" s="17"/>
+      <c r="AF178" s="17"/>
+      <c r="AG178" s="17"/>
+      <c r="AH178" s="17"/>
+      <c r="AI178" s="17"/>
+      <c r="AJ178" s="17"/>
+      <c r="AK178" s="17"/>
+    </row>
+    <row r="179" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C179" s="7">
+        <v>178</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E179" s="9"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H179" s="9"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="9"/>
+      <c r="K179" s="9"/>
+      <c r="L179" s="9"/>
+      <c r="M179" s="9"/>
+      <c r="N179" s="8"/>
+      <c r="O179" s="9"/>
+      <c r="P179" s="12"/>
+      <c r="Q179" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R179" s="15"/>
+      <c r="S179" s="34"/>
+      <c r="T179" s="34"/>
+      <c r="U179" s="34"/>
+      <c r="V179" s="34"/>
+      <c r="W179" s="34"/>
+      <c r="X179" s="34"/>
+      <c r="Y179" s="12"/>
+      <c r="Z179" s="17"/>
+      <c r="AA179" s="17"/>
+      <c r="AB179" s="17"/>
+      <c r="AC179" s="17"/>
+      <c r="AD179" s="17"/>
+      <c r="AE179" s="17"/>
+      <c r="AF179" s="17"/>
+      <c r="AG179" s="17"/>
+      <c r="AH179" s="17"/>
+      <c r="AI179" s="17"/>
+      <c r="AJ179" s="17"/>
+      <c r="AK179" s="17"/>
+    </row>
+    <row r="180" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C180" s="7">
+        <v>179</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H180" s="9"/>
+      <c r="I180" s="9"/>
+      <c r="J180" s="9"/>
+      <c r="K180" s="9"/>
+      <c r="L180" s="9"/>
+      <c r="M180" s="9"/>
+      <c r="N180" s="8"/>
+      <c r="O180" s="9"/>
+      <c r="P180" s="12"/>
+      <c r="Q180" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R180" s="15"/>
+      <c r="S180" s="34"/>
+      <c r="T180" s="34"/>
+      <c r="U180" s="34"/>
+      <c r="V180" s="34"/>
+      <c r="W180" s="34"/>
+      <c r="X180" s="34"/>
+      <c r="Y180" s="12"/>
+      <c r="Z180" s="17"/>
+      <c r="AA180" s="17"/>
+      <c r="AB180" s="17"/>
+      <c r="AC180" s="17"/>
+      <c r="AD180" s="17"/>
+      <c r="AE180" s="17"/>
+      <c r="AF180" s="17"/>
+      <c r="AG180" s="17"/>
+      <c r="AH180" s="17"/>
+      <c r="AI180" s="17"/>
+      <c r="AJ180" s="17"/>
+      <c r="AK180" s="17"/>
+    </row>
+    <row r="181" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C181" s="7">
+        <v>180</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H181" s="9"/>
+      <c r="I181" s="9"/>
+      <c r="J181" s="9"/>
+      <c r="K181" s="9"/>
+      <c r="L181" s="9"/>
+      <c r="M181" s="9"/>
+      <c r="N181" s="8"/>
+      <c r="O181" s="9"/>
+      <c r="P181" s="12"/>
+      <c r="Q181" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R181" s="15"/>
+      <c r="S181" s="34"/>
+      <c r="T181" s="34"/>
+      <c r="U181" s="34"/>
+      <c r="V181" s="34"/>
+      <c r="W181" s="34"/>
+      <c r="X181" s="34"/>
+      <c r="Y181" s="12"/>
+      <c r="Z181" s="17"/>
+      <c r="AA181" s="17"/>
+      <c r="AB181" s="17"/>
+      <c r="AC181" s="17"/>
+      <c r="AD181" s="17"/>
+      <c r="AE181" s="17"/>
+      <c r="AF181" s="17"/>
+      <c r="AG181" s="17"/>
+      <c r="AH181" s="17"/>
+      <c r="AI181" s="17"/>
+      <c r="AJ181" s="17"/>
+      <c r="AK181" s="17"/>
+    </row>
+    <row r="182" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C182" s="7">
+        <v>181</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E182" s="9"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H182" s="9"/>
+      <c r="I182" s="9"/>
+      <c r="J182" s="9"/>
+      <c r="K182" s="9"/>
+      <c r="L182" s="9"/>
+      <c r="M182" s="9"/>
+      <c r="N182" s="8"/>
+      <c r="O182" s="9"/>
+      <c r="P182" s="12"/>
+      <c r="Q182" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R182" s="15"/>
+      <c r="S182" s="34"/>
+      <c r="T182" s="34"/>
+      <c r="U182" s="34"/>
+      <c r="V182" s="34"/>
+      <c r="W182" s="34"/>
+      <c r="X182" s="34"/>
+      <c r="Y182" s="12"/>
+      <c r="Z182" s="17"/>
+      <c r="AA182" s="17"/>
+      <c r="AB182" s="17"/>
+      <c r="AC182" s="17"/>
+      <c r="AD182" s="17"/>
+      <c r="AE182" s="17"/>
+      <c r="AF182" s="17"/>
+      <c r="AG182" s="17"/>
+      <c r="AH182" s="17"/>
+      <c r="AI182" s="17"/>
+      <c r="AJ182" s="17"/>
+      <c r="AK182" s="17"/>
+    </row>
+    <row r="183" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C183" s="7">
+        <v>182</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E183" s="9"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H183" s="9"/>
+      <c r="I183" s="9"/>
+      <c r="J183" s="9"/>
+      <c r="K183" s="9"/>
+      <c r="L183" s="9"/>
+      <c r="M183" s="9"/>
+      <c r="N183" s="8"/>
+      <c r="O183" s="9"/>
+      <c r="P183" s="12"/>
+      <c r="Q183" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R183" s="15"/>
+      <c r="S183" s="34"/>
+      <c r="T183" s="34"/>
+      <c r="U183" s="34"/>
+      <c r="V183" s="34"/>
+      <c r="W183" s="34"/>
+      <c r="X183" s="34"/>
+      <c r="Y183" s="12"/>
+      <c r="Z183" s="17"/>
+      <c r="AA183" s="17"/>
+      <c r="AB183" s="17"/>
+      <c r="AC183" s="17"/>
+      <c r="AD183" s="17"/>
+      <c r="AE183" s="17"/>
+      <c r="AF183" s="17"/>
+      <c r="AG183" s="17"/>
+      <c r="AH183" s="17"/>
+      <c r="AI183" s="17"/>
+      <c r="AJ183" s="17"/>
+      <c r="AK183" s="17"/>
+    </row>
+    <row r="184" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C184" s="7">
+        <v>183</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E184" s="9"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H184" s="9"/>
+      <c r="I184" s="9"/>
+      <c r="J184" s="9"/>
+      <c r="K184" s="9"/>
+      <c r="L184" s="9"/>
+      <c r="M184" s="9"/>
+      <c r="N184" s="8"/>
+      <c r="O184" s="9"/>
+      <c r="P184" s="12"/>
+      <c r="Q184" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R184" s="15"/>
+      <c r="S184" s="34"/>
+      <c r="T184" s="34"/>
+      <c r="U184" s="34"/>
+      <c r="V184" s="34"/>
+      <c r="W184" s="34"/>
+      <c r="X184" s="34"/>
+      <c r="Y184" s="12"/>
+      <c r="Z184" s="17"/>
+      <c r="AA184" s="17"/>
+      <c r="AB184" s="17"/>
+      <c r="AC184" s="17"/>
+      <c r="AD184" s="17"/>
+      <c r="AE184" s="17"/>
+      <c r="AF184" s="17"/>
+      <c r="AG184" s="17"/>
+      <c r="AH184" s="17"/>
+      <c r="AI184" s="17"/>
+      <c r="AJ184" s="17"/>
+      <c r="AK184" s="17"/>
+    </row>
+    <row r="185" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C185" s="7">
+        <v>184</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E185" s="9"/>
+      <c r="F185" s="9"/>
+      <c r="G185" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H185" s="9"/>
+      <c r="I185" s="9"/>
+      <c r="J185" s="9"/>
+      <c r="K185" s="9"/>
+      <c r="L185" s="9"/>
+      <c r="M185" s="9"/>
+      <c r="N185" s="8"/>
+      <c r="O185" s="9"/>
+      <c r="P185" s="12"/>
+      <c r="Q185" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R185" s="15"/>
+      <c r="S185" s="34"/>
+      <c r="T185" s="34"/>
+      <c r="U185" s="34"/>
+      <c r="V185" s="34"/>
+      <c r="W185" s="34"/>
+      <c r="X185" s="34"/>
+      <c r="Y185" s="12"/>
+      <c r="Z185" s="17"/>
+      <c r="AA185" s="17"/>
+      <c r="AB185" s="17"/>
+      <c r="AC185" s="17"/>
+      <c r="AD185" s="17"/>
+      <c r="AE185" s="17"/>
+      <c r="AF185" s="17"/>
+      <c r="AG185" s="17"/>
+      <c r="AH185" s="17"/>
+      <c r="AI185" s="17"/>
+      <c r="AJ185" s="17"/>
+      <c r="AK185" s="17"/>
+    </row>
+    <row r="186" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C186" s="7">
+        <v>185</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E186" s="9"/>
+      <c r="F186" s="9"/>
+      <c r="G186" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H186" s="9"/>
+      <c r="I186" s="9"/>
+      <c r="J186" s="9"/>
+      <c r="K186" s="9"/>
+      <c r="L186" s="9"/>
+      <c r="M186" s="9"/>
+      <c r="N186" s="8"/>
+      <c r="O186" s="9"/>
+      <c r="P186" s="12"/>
+      <c r="Q186" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R186" s="15"/>
+      <c r="S186" s="34"/>
+      <c r="T186" s="34"/>
+      <c r="U186" s="34"/>
+      <c r="V186" s="34"/>
+      <c r="W186" s="34"/>
+      <c r="X186" s="34"/>
+      <c r="Y186" s="12"/>
+      <c r="Z186" s="17"/>
+      <c r="AA186" s="17"/>
+      <c r="AB186" s="17"/>
+      <c r="AC186" s="17"/>
+      <c r="AD186" s="17"/>
+      <c r="AE186" s="17"/>
+      <c r="AF186" s="17"/>
+      <c r="AG186" s="17"/>
+      <c r="AH186" s="17"/>
+      <c r="AI186" s="17"/>
+      <c r="AJ186" s="17"/>
+      <c r="AK186" s="17"/>
+    </row>
+    <row r="187" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C187" s="7">
+        <v>186</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H187" s="9"/>
+      <c r="I187" s="9"/>
+      <c r="J187" s="9"/>
+      <c r="K187" s="9"/>
+      <c r="L187" s="9"/>
+      <c r="M187" s="9"/>
+      <c r="N187" s="8"/>
+      <c r="O187" s="9"/>
+      <c r="P187" s="12"/>
+      <c r="Q187" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R187" s="15"/>
+      <c r="S187" s="34"/>
+      <c r="T187" s="34"/>
+      <c r="U187" s="34"/>
+      <c r="V187" s="34"/>
+      <c r="W187" s="34"/>
+      <c r="X187" s="34"/>
+      <c r="Y187" s="12"/>
+      <c r="Z187" s="17"/>
+      <c r="AA187" s="17"/>
+      <c r="AB187" s="17"/>
+      <c r="AC187" s="17"/>
+      <c r="AD187" s="17"/>
+      <c r="AE187" s="17"/>
+      <c r="AF187" s="17"/>
+      <c r="AG187" s="17"/>
+      <c r="AH187" s="17"/>
+      <c r="AI187" s="17"/>
+      <c r="AJ187" s="17"/>
+      <c r="AK187" s="17"/>
+    </row>
+    <row r="188" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C188" s="7">
+        <v>187</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E188" s="9"/>
+      <c r="F188" s="9"/>
+      <c r="G188" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H188" s="9"/>
+      <c r="I188" s="9"/>
+      <c r="J188" s="9"/>
+      <c r="K188" s="9"/>
+      <c r="L188" s="9"/>
+      <c r="M188" s="9"/>
+      <c r="N188" s="8"/>
+      <c r="O188" s="9"/>
+      <c r="P188" s="12"/>
+      <c r="Q188" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R188" s="15"/>
+      <c r="S188" s="34"/>
+      <c r="T188" s="34"/>
+      <c r="U188" s="34"/>
+      <c r="V188" s="34"/>
+      <c r="W188" s="34"/>
+      <c r="X188" s="34"/>
+      <c r="Y188" s="12"/>
+      <c r="Z188" s="17"/>
+      <c r="AA188" s="17"/>
+      <c r="AB188" s="17"/>
+      <c r="AC188" s="17"/>
+      <c r="AD188" s="17"/>
+      <c r="AE188" s="17"/>
+      <c r="AF188" s="17"/>
+      <c r="AG188" s="17"/>
+      <c r="AH188" s="17"/>
+      <c r="AI188" s="17"/>
+      <c r="AJ188" s="17"/>
+      <c r="AK188" s="17"/>
+    </row>
+    <row r="189" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C189" s="7">
+        <v>188</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H189" s="9"/>
+      <c r="I189" s="9"/>
+      <c r="J189" s="9"/>
+      <c r="K189" s="9"/>
+      <c r="L189" s="9"/>
+      <c r="M189" s="9"/>
+      <c r="N189" s="8"/>
+      <c r="O189" s="9"/>
+      <c r="P189" s="12"/>
+      <c r="Q189" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R189" s="15"/>
+      <c r="S189" s="34"/>
+      <c r="T189" s="34"/>
+      <c r="U189" s="34"/>
+      <c r="V189" s="34"/>
+      <c r="W189" s="34"/>
+      <c r="X189" s="34"/>
+      <c r="Y189" s="12"/>
+      <c r="Z189" s="17"/>
+      <c r="AA189" s="17"/>
+      <c r="AB189" s="17"/>
+      <c r="AC189" s="17"/>
+      <c r="AD189" s="17"/>
+      <c r="AE189" s="17"/>
+      <c r="AF189" s="17"/>
+      <c r="AG189" s="17"/>
+      <c r="AH189" s="17"/>
+      <c r="AI189" s="17"/>
+      <c r="AJ189" s="17"/>
+      <c r="AK189" s="17"/>
+    </row>
+    <row r="190" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C190" s="7">
+        <v>189</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E190" s="9"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H190" s="9"/>
+      <c r="I190" s="9"/>
+      <c r="J190" s="9"/>
+      <c r="K190" s="9"/>
+      <c r="L190" s="9"/>
+      <c r="M190" s="9"/>
+      <c r="N190" s="8"/>
+      <c r="O190" s="9"/>
+      <c r="P190" s="12"/>
+      <c r="Q190" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R190" s="15"/>
+      <c r="S190" s="34"/>
+      <c r="T190" s="34"/>
+      <c r="U190" s="34"/>
+      <c r="V190" s="34"/>
+      <c r="W190" s="34"/>
+      <c r="X190" s="34"/>
+      <c r="Y190" s="12"/>
+      <c r="Z190" s="17"/>
+      <c r="AA190" s="17"/>
+      <c r="AB190" s="17"/>
+      <c r="AC190" s="17"/>
+      <c r="AD190" s="17"/>
+      <c r="AE190" s="17"/>
+      <c r="AF190" s="17"/>
+      <c r="AG190" s="17"/>
+      <c r="AH190" s="17"/>
+      <c r="AI190" s="17"/>
+      <c r="AJ190" s="17"/>
+      <c r="AK190" s="17"/>
+    </row>
+    <row r="191" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C191" s="7">
+        <v>190</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E191" s="9"/>
+      <c r="F191" s="9"/>
+      <c r="G191" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H191" s="9"/>
+      <c r="I191" s="9"/>
+      <c r="J191" s="9"/>
+      <c r="K191" s="9"/>
+      <c r="L191" s="9"/>
+      <c r="M191" s="9"/>
+      <c r="N191" s="8"/>
+      <c r="O191" s="9"/>
+      <c r="P191" s="12"/>
+      <c r="Q191" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R191" s="15"/>
+      <c r="S191" s="34"/>
+      <c r="T191" s="34"/>
+      <c r="U191" s="34"/>
+      <c r="V191" s="34"/>
+      <c r="W191" s="34"/>
+      <c r="X191" s="34"/>
+      <c r="Y191" s="12"/>
+      <c r="Z191" s="17"/>
+      <c r="AA191" s="17"/>
+      <c r="AB191" s="17"/>
+      <c r="AC191" s="17"/>
+      <c r="AD191" s="17"/>
+      <c r="AE191" s="17"/>
+      <c r="AF191" s="17"/>
+      <c r="AG191" s="17"/>
+      <c r="AH191" s="17"/>
+      <c r="AI191" s="17"/>
+      <c r="AJ191" s="17"/>
+      <c r="AK191" s="17"/>
+    </row>
+    <row r="192" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C192" s="7">
+        <v>191</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E192" s="9"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H192" s="9"/>
+      <c r="I192" s="9"/>
+      <c r="J192" s="9"/>
+      <c r="K192" s="9"/>
+      <c r="L192" s="9"/>
+      <c r="M192" s="9"/>
+      <c r="N192" s="8"/>
+      <c r="O192" s="9"/>
+      <c r="P192" s="12"/>
+      <c r="Q192" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R192" s="15"/>
+      <c r="S192" s="34"/>
+      <c r="T192" s="34"/>
+      <c r="U192" s="34"/>
+      <c r="V192" s="34"/>
+      <c r="W192" s="34"/>
+      <c r="X192" s="34"/>
+      <c r="Y192" s="12"/>
+      <c r="Z192" s="17"/>
+      <c r="AA192" s="17"/>
+      <c r="AB192" s="17"/>
+      <c r="AC192" s="17"/>
+      <c r="AD192" s="17"/>
+      <c r="AE192" s="17"/>
+      <c r="AF192" s="17"/>
+      <c r="AG192" s="17"/>
+      <c r="AH192" s="17"/>
+      <c r="AI192" s="17"/>
+      <c r="AJ192" s="17"/>
+      <c r="AK192" s="17"/>
+    </row>
+    <row r="193" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C193" s="7">
+        <v>192</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E193" s="9"/>
+      <c r="F193" s="9"/>
+      <c r="G193" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H193" s="9"/>
+      <c r="I193" s="9"/>
+      <c r="J193" s="9"/>
+      <c r="K193" s="9"/>
+      <c r="L193" s="9"/>
+      <c r="M193" s="9"/>
+      <c r="N193" s="8"/>
+      <c r="O193" s="9"/>
+      <c r="P193" s="12"/>
+      <c r="Q193" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R193" s="15"/>
+      <c r="S193" s="34"/>
+      <c r="T193" s="34"/>
+      <c r="U193" s="34"/>
+      <c r="V193" s="34"/>
+      <c r="W193" s="34"/>
+      <c r="X193" s="34"/>
+      <c r="Y193" s="12"/>
+      <c r="Z193" s="17"/>
+      <c r="AA193" s="17"/>
+      <c r="AB193" s="17"/>
+      <c r="AC193" s="17"/>
+      <c r="AD193" s="17"/>
+      <c r="AE193" s="17"/>
+      <c r="AF193" s="17"/>
+      <c r="AG193" s="17"/>
+      <c r="AH193" s="17"/>
+      <c r="AI193" s="17"/>
+      <c r="AJ193" s="17"/>
+      <c r="AK193" s="17"/>
+    </row>
+    <row r="194" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C194" s="7">
+        <v>193</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E194" s="9"/>
+      <c r="F194" s="9"/>
+      <c r="G194" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H194" s="9"/>
+      <c r="I194" s="9"/>
+      <c r="J194" s="9"/>
+      <c r="K194" s="9"/>
+      <c r="L194" s="9"/>
+      <c r="M194" s="9"/>
+      <c r="N194" s="8"/>
+      <c r="O194" s="9"/>
+      <c r="P194" s="12"/>
+      <c r="Q194" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R194" s="15"/>
+      <c r="S194" s="34"/>
+      <c r="T194" s="34"/>
+      <c r="U194" s="34"/>
+      <c r="V194" s="34"/>
+      <c r="W194" s="34"/>
+      <c r="X194" s="34"/>
+      <c r="Y194" s="12"/>
+      <c r="Z194" s="17"/>
+      <c r="AA194" s="17"/>
+      <c r="AB194" s="17"/>
+      <c r="AC194" s="17"/>
+      <c r="AD194" s="17"/>
+      <c r="AE194" s="17"/>
+      <c r="AF194" s="17"/>
+      <c r="AG194" s="17"/>
+      <c r="AH194" s="17"/>
+      <c r="AI194" s="17"/>
+      <c r="AJ194" s="17"/>
+      <c r="AK194" s="17"/>
+    </row>
+    <row r="195" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C195" s="7">
+        <v>194</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E195" s="9"/>
+      <c r="F195" s="9"/>
+      <c r="G195" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H195" s="9"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="9"/>
+      <c r="K195" s="9"/>
+      <c r="L195" s="9"/>
+      <c r="M195" s="9"/>
+      <c r="N195" s="8"/>
+      <c r="O195" s="9"/>
+      <c r="P195" s="12"/>
+      <c r="Q195" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R195" s="15"/>
+      <c r="S195" s="34"/>
+      <c r="T195" s="34"/>
+      <c r="U195" s="34"/>
+      <c r="V195" s="34"/>
+      <c r="W195" s="34"/>
+      <c r="X195" s="34"/>
+      <c r="Y195" s="12"/>
+      <c r="Z195" s="17"/>
+      <c r="AA195" s="17"/>
+      <c r="AB195" s="17"/>
+      <c r="AC195" s="17"/>
+      <c r="AD195" s="17"/>
+      <c r="AE195" s="17"/>
+      <c r="AF195" s="17"/>
+      <c r="AG195" s="17"/>
+      <c r="AH195" s="17"/>
+      <c r="AI195" s="17"/>
+      <c r="AJ195" s="17"/>
+      <c r="AK195" s="17"/>
+    </row>
+    <row r="196" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C196" s="7">
+        <v>195</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E196" s="9"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H196" s="9"/>
+      <c r="I196" s="9"/>
+      <c r="J196" s="9"/>
+      <c r="K196" s="9"/>
+      <c r="L196" s="9"/>
+      <c r="M196" s="9"/>
+      <c r="N196" s="8"/>
+      <c r="O196" s="9"/>
+      <c r="P196" s="12"/>
+      <c r="Q196" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R196" s="15"/>
+      <c r="S196" s="34"/>
+      <c r="T196" s="34"/>
+      <c r="U196" s="34"/>
+      <c r="V196" s="34"/>
+      <c r="W196" s="34"/>
+      <c r="X196" s="34"/>
+      <c r="Y196" s="12"/>
+      <c r="Z196" s="17"/>
+      <c r="AA196" s="17"/>
+      <c r="AB196" s="17"/>
+      <c r="AC196" s="17"/>
+      <c r="AD196" s="17"/>
+      <c r="AE196" s="17"/>
+      <c r="AF196" s="17"/>
+      <c r="AG196" s="17"/>
+      <c r="AH196" s="17"/>
+      <c r="AI196" s="17"/>
+      <c r="AJ196" s="17"/>
+      <c r="AK196" s="17"/>
+    </row>
+    <row r="197" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C197" s="7">
+        <v>196</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H197" s="9"/>
+      <c r="I197" s="9"/>
+      <c r="J197" s="9"/>
+      <c r="K197" s="9"/>
+      <c r="L197" s="9"/>
+      <c r="M197" s="9"/>
+      <c r="N197" s="8"/>
+      <c r="O197" s="9"/>
+      <c r="P197" s="12"/>
+      <c r="Q197" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R197" s="15"/>
+      <c r="S197" s="34"/>
+      <c r="T197" s="34"/>
+      <c r="U197" s="34"/>
+      <c r="V197" s="34"/>
+      <c r="W197" s="34"/>
+      <c r="X197" s="34"/>
+      <c r="Y197" s="12"/>
+      <c r="Z197" s="17"/>
+      <c r="AA197" s="17"/>
+      <c r="AB197" s="17"/>
+      <c r="AC197" s="17"/>
+      <c r="AD197" s="17"/>
+      <c r="AE197" s="17"/>
+      <c r="AF197" s="17"/>
+      <c r="AG197" s="17"/>
+      <c r="AH197" s="17"/>
+      <c r="AI197" s="17"/>
+      <c r="AJ197" s="17"/>
+      <c r="AK197" s="17"/>
+    </row>
+    <row r="198" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C198" s="7">
+        <v>197</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E198" s="9"/>
+      <c r="F198" s="9"/>
+      <c r="G198" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H198" s="9"/>
+      <c r="I198" s="9"/>
+      <c r="J198" s="9"/>
+      <c r="K198" s="9"/>
+      <c r="L198" s="9"/>
+      <c r="M198" s="9"/>
+      <c r="N198" s="8"/>
+      <c r="O198" s="9"/>
+      <c r="P198" s="12"/>
+      <c r="Q198" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R198" s="15"/>
+      <c r="S198" s="34"/>
+      <c r="T198" s="34"/>
+      <c r="U198" s="34"/>
+      <c r="V198" s="34"/>
+      <c r="W198" s="34"/>
+      <c r="X198" s="34"/>
+      <c r="Y198" s="12"/>
+      <c r="Z198" s="17"/>
+      <c r="AA198" s="17"/>
+      <c r="AB198" s="17"/>
+      <c r="AC198" s="17"/>
+      <c r="AD198" s="17"/>
+      <c r="AE198" s="17"/>
+      <c r="AF198" s="17"/>
+      <c r="AG198" s="17"/>
+      <c r="AH198" s="17"/>
+      <c r="AI198" s="17"/>
+      <c r="AJ198" s="17"/>
+      <c r="AK198" s="17"/>
+    </row>
+    <row r="199" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C199" s="7">
+        <v>198</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E199" s="9"/>
+      <c r="F199" s="9"/>
+      <c r="G199" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H199" s="9"/>
+      <c r="I199" s="9"/>
+      <c r="J199" s="9"/>
+      <c r="K199" s="9"/>
+      <c r="L199" s="9"/>
+      <c r="M199" s="9"/>
+      <c r="N199" s="8"/>
+      <c r="O199" s="9"/>
+      <c r="P199" s="12"/>
+      <c r="Q199" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R199" s="15"/>
+      <c r="S199" s="34"/>
+      <c r="T199" s="34"/>
+      <c r="U199" s="34"/>
+      <c r="V199" s="34"/>
+      <c r="W199" s="34"/>
+      <c r="X199" s="34"/>
+      <c r="Y199" s="12"/>
+      <c r="Z199" s="17"/>
+      <c r="AA199" s="17"/>
+      <c r="AB199" s="17"/>
+      <c r="AC199" s="17"/>
+      <c r="AD199" s="17"/>
+      <c r="AE199" s="17"/>
+      <c r="AF199" s="17"/>
+      <c r="AG199" s="17"/>
+      <c r="AH199" s="17"/>
+      <c r="AI199" s="17"/>
+      <c r="AJ199" s="17"/>
+      <c r="AK199" s="17"/>
+    </row>
+    <row r="200" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C200" s="7">
+        <v>199</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E200" s="9"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H200" s="9"/>
+      <c r="I200" s="9"/>
+      <c r="J200" s="9"/>
+      <c r="K200" s="9"/>
+      <c r="L200" s="9"/>
+      <c r="M200" s="9"/>
+      <c r="N200" s="8"/>
+      <c r="O200" s="9"/>
+      <c r="P200" s="12"/>
+      <c r="Q200" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R200" s="15"/>
+      <c r="S200" s="34"/>
+      <c r="T200" s="34"/>
+      <c r="U200" s="34"/>
+      <c r="V200" s="34"/>
+      <c r="W200" s="34"/>
+      <c r="X200" s="34"/>
+      <c r="Y200" s="12"/>
+      <c r="Z200" s="17"/>
+      <c r="AA200" s="17"/>
+      <c r="AB200" s="17"/>
+      <c r="AC200" s="17"/>
+      <c r="AD200" s="17"/>
+      <c r="AE200" s="17"/>
+      <c r="AF200" s="17"/>
+      <c r="AG200" s="17"/>
+      <c r="AH200" s="17"/>
+      <c r="AI200" s="17"/>
+      <c r="AJ200" s="17"/>
+      <c r="AK200" s="17"/>
+    </row>
+    <row r="201" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C201" s="7">
+        <v>200</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E201" s="9"/>
+      <c r="F201" s="9"/>
+      <c r="G201" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H201" s="9"/>
+      <c r="I201" s="9"/>
+      <c r="J201" s="9"/>
+      <c r="K201" s="9"/>
+      <c r="L201" s="9"/>
+      <c r="M201" s="9"/>
+      <c r="N201" s="8"/>
+      <c r="O201" s="9"/>
+      <c r="P201" s="12"/>
+      <c r="Q201" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R201" s="15"/>
+      <c r="S201" s="34"/>
+      <c r="T201" s="34"/>
+      <c r="U201" s="34"/>
+      <c r="V201" s="34"/>
+      <c r="W201" s="34"/>
+      <c r="X201" s="34"/>
+      <c r="Y201" s="12"/>
+      <c r="Z201" s="17"/>
+      <c r="AA201" s="17"/>
+      <c r="AB201" s="17"/>
+      <c r="AC201" s="17"/>
+      <c r="AD201" s="17"/>
+      <c r="AE201" s="17"/>
+      <c r="AF201" s="17"/>
+      <c r="AG201" s="17"/>
+      <c r="AH201" s="17"/>
+      <c r="AI201" s="17"/>
+      <c r="AJ201" s="17"/>
+      <c r="AK201" s="17"/>
+    </row>
+    <row r="202" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C202" s="7">
+        <v>201</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E202" s="9"/>
+      <c r="F202" s="9"/>
+      <c r="G202" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H202" s="9"/>
+      <c r="I202" s="9"/>
+      <c r="J202" s="9"/>
+      <c r="K202" s="9"/>
+      <c r="L202" s="9"/>
+      <c r="M202" s="9"/>
+      <c r="N202" s="8"/>
+      <c r="O202" s="9"/>
+      <c r="P202" s="12"/>
+      <c r="Q202" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R202" s="15"/>
+      <c r="S202" s="34"/>
+      <c r="T202" s="34"/>
+      <c r="U202" s="34"/>
+      <c r="V202" s="34"/>
+      <c r="W202" s="34"/>
+      <c r="X202" s="34"/>
+      <c r="Y202" s="12"/>
+      <c r="Z202" s="17"/>
+      <c r="AA202" s="17"/>
+      <c r="AB202" s="17"/>
+      <c r="AC202" s="17"/>
+      <c r="AD202" s="17"/>
+      <c r="AE202" s="17"/>
+      <c r="AF202" s="17"/>
+      <c r="AG202" s="17"/>
+      <c r="AH202" s="17"/>
+      <c r="AI202" s="17"/>
+      <c r="AJ202" s="17"/>
+      <c r="AK202" s="17"/>
+    </row>
+    <row r="203" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C203" s="7">
+        <v>202</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E203" s="9"/>
+      <c r="F203" s="9"/>
+      <c r="G203" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H203" s="9"/>
+      <c r="I203" s="9"/>
+      <c r="J203" s="9"/>
+      <c r="K203" s="9"/>
+      <c r="L203" s="9"/>
+      <c r="M203" s="9"/>
+      <c r="N203" s="8"/>
+      <c r="O203" s="9"/>
+      <c r="P203" s="12"/>
+      <c r="Q203" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R203" s="15"/>
+      <c r="S203" s="34"/>
+      <c r="T203" s="34"/>
+      <c r="U203" s="34"/>
+      <c r="V203" s="34"/>
+      <c r="W203" s="34"/>
+      <c r="X203" s="34"/>
+      <c r="Y203" s="12"/>
+      <c r="Z203" s="17"/>
+      <c r="AA203" s="17"/>
+      <c r="AB203" s="17"/>
+      <c r="AC203" s="17"/>
+      <c r="AD203" s="17"/>
+      <c r="AE203" s="17"/>
+      <c r="AF203" s="17"/>
+      <c r="AG203" s="17"/>
+      <c r="AH203" s="17"/>
+      <c r="AI203" s="17"/>
+      <c r="AJ203" s="17"/>
+      <c r="AK203" s="17"/>
+    </row>
+    <row r="204" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C204" s="7">
+        <v>203</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E204" s="9"/>
+      <c r="F204" s="9"/>
+      <c r="G204" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H204" s="9"/>
+      <c r="I204" s="9"/>
+      <c r="J204" s="9"/>
+      <c r="K204" s="9"/>
+      <c r="L204" s="9"/>
+      <c r="M204" s="9"/>
+      <c r="N204" s="8"/>
+      <c r="O204" s="9"/>
+      <c r="P204" s="12"/>
+      <c r="Q204" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R204" s="15"/>
+      <c r="S204" s="34"/>
+      <c r="T204" s="34"/>
+      <c r="U204" s="34"/>
+      <c r="V204" s="34"/>
+      <c r="W204" s="34"/>
+      <c r="X204" s="34"/>
+      <c r="Y204" s="12"/>
+      <c r="Z204" s="17"/>
+      <c r="AA204" s="17"/>
+      <c r="AB204" s="17"/>
+      <c r="AC204" s="17"/>
+      <c r="AD204" s="17"/>
+      <c r="AE204" s="17"/>
+      <c r="AF204" s="17"/>
+      <c r="AG204" s="17"/>
+      <c r="AH204" s="17"/>
+      <c r="AI204" s="17"/>
+      <c r="AJ204" s="17"/>
+      <c r="AK204" s="17"/>
+    </row>
+    <row r="205" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C205" s="7">
+        <v>204</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E205" s="9"/>
+      <c r="F205" s="9"/>
+      <c r="G205" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H205" s="9"/>
+      <c r="I205" s="9"/>
+      <c r="J205" s="9"/>
+      <c r="K205" s="9"/>
+      <c r="L205" s="9"/>
+      <c r="M205" s="9"/>
+      <c r="N205" s="8"/>
+      <c r="O205" s="9"/>
+      <c r="P205" s="12"/>
+      <c r="Q205" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R205" s="15"/>
+      <c r="S205" s="34"/>
+      <c r="T205" s="34"/>
+      <c r="U205" s="34"/>
+      <c r="V205" s="34"/>
+      <c r="W205" s="34"/>
+      <c r="X205" s="34"/>
+      <c r="Y205" s="12"/>
+      <c r="Z205" s="17"/>
+      <c r="AA205" s="17"/>
+      <c r="AB205" s="17"/>
+      <c r="AC205" s="17"/>
+      <c r="AD205" s="17"/>
+      <c r="AE205" s="17"/>
+      <c r="AF205" s="17"/>
+      <c r="AG205" s="17"/>
+      <c r="AH205" s="17"/>
+      <c r="AI205" s="17"/>
+      <c r="AJ205" s="17"/>
+      <c r="AK205" s="17"/>
+    </row>
+    <row r="206" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C206" s="7">
+        <v>205</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E206" s="9"/>
+      <c r="F206" s="9"/>
+      <c r="G206" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H206" s="9"/>
+      <c r="I206" s="9"/>
+      <c r="J206" s="9"/>
+      <c r="K206" s="9"/>
+      <c r="L206" s="9"/>
+      <c r="M206" s="9"/>
+      <c r="N206" s="8"/>
+      <c r="O206" s="9"/>
+      <c r="P206" s="12"/>
+      <c r="Q206" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R206" s="15"/>
+      <c r="S206" s="34"/>
+      <c r="T206" s="34"/>
+      <c r="U206" s="34"/>
+      <c r="V206" s="34"/>
+      <c r="W206" s="34"/>
+      <c r="X206" s="34"/>
+      <c r="Y206" s="12"/>
+      <c r="Z206" s="17"/>
+      <c r="AA206" s="17"/>
+      <c r="AB206" s="17"/>
+      <c r="AC206" s="17"/>
+      <c r="AD206" s="17"/>
+      <c r="AE206" s="17"/>
+      <c r="AF206" s="17"/>
+      <c r="AG206" s="17"/>
+      <c r="AH206" s="17"/>
+      <c r="AI206" s="17"/>
+      <c r="AJ206" s="17"/>
+      <c r="AK206" s="17"/>
+    </row>
+    <row r="207" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C207" s="7">
+        <v>206</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E207" s="9"/>
+      <c r="F207" s="9"/>
+      <c r="G207" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H207" s="9"/>
+      <c r="I207" s="9"/>
+      <c r="J207" s="9"/>
+      <c r="K207" s="9"/>
+      <c r="L207" s="9"/>
+      <c r="M207" s="9"/>
+      <c r="N207" s="8"/>
+      <c r="O207" s="9"/>
+      <c r="P207" s="12"/>
+      <c r="Q207" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R207" s="15"/>
+      <c r="S207" s="34"/>
+      <c r="T207" s="34"/>
+      <c r="U207" s="34"/>
+      <c r="V207" s="34"/>
+      <c r="W207" s="34"/>
+      <c r="X207" s="34"/>
+      <c r="Y207" s="12"/>
+      <c r="Z207" s="17"/>
+      <c r="AA207" s="17"/>
+      <c r="AB207" s="17"/>
+      <c r="AC207" s="17"/>
+      <c r="AD207" s="17"/>
+      <c r="AE207" s="17"/>
+      <c r="AF207" s="17"/>
+      <c r="AG207" s="17"/>
+      <c r="AH207" s="17"/>
+      <c r="AI207" s="17"/>
+      <c r="AJ207" s="17"/>
+      <c r="AK207" s="17"/>
+    </row>
+    <row r="208" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C208" s="7">
+        <v>207</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E208" s="9"/>
+      <c r="F208" s="9"/>
+      <c r="G208" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H208" s="9"/>
+      <c r="I208" s="9"/>
+      <c r="J208" s="9"/>
+      <c r="K208" s="9"/>
+      <c r="L208" s="9"/>
+      <c r="M208" s="9"/>
+      <c r="N208" s="8"/>
+      <c r="O208" s="9"/>
+      <c r="P208" s="12"/>
+      <c r="Q208" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R208" s="15"/>
+      <c r="S208" s="34"/>
+      <c r="T208" s="34"/>
+      <c r="U208" s="34"/>
+      <c r="V208" s="34"/>
+      <c r="W208" s="34"/>
+      <c r="X208" s="34"/>
+      <c r="Y208" s="12"/>
+      <c r="Z208" s="17"/>
+      <c r="AA208" s="17"/>
+      <c r="AB208" s="17"/>
+      <c r="AC208" s="17"/>
+      <c r="AD208" s="17"/>
+      <c r="AE208" s="17"/>
+      <c r="AF208" s="17"/>
+      <c r="AG208" s="17"/>
+      <c r="AH208" s="17"/>
+      <c r="AI208" s="17"/>
+      <c r="AJ208" s="17"/>
+      <c r="AK208" s="17"/>
+    </row>
+    <row r="209" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C209" s="7">
+        <v>208</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E209" s="9"/>
+      <c r="F209" s="9"/>
+      <c r="G209" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H209" s="9"/>
+      <c r="I209" s="9"/>
+      <c r="J209" s="9"/>
+      <c r="K209" s="9"/>
+      <c r="L209" s="9"/>
+      <c r="M209" s="9"/>
+      <c r="N209" s="8"/>
+      <c r="O209" s="9"/>
+      <c r="P209" s="12"/>
+      <c r="Q209" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R209" s="15"/>
+      <c r="S209" s="34"/>
+      <c r="T209" s="34"/>
+      <c r="U209" s="34"/>
+      <c r="V209" s="34"/>
+      <c r="W209" s="34"/>
+      <c r="X209" s="34"/>
+      <c r="Y209" s="12"/>
+      <c r="Z209" s="17"/>
+      <c r="AA209" s="17"/>
+      <c r="AB209" s="17"/>
+      <c r="AC209" s="17"/>
+      <c r="AD209" s="17"/>
+      <c r="AE209" s="17"/>
+      <c r="AF209" s="17"/>
+      <c r="AG209" s="17"/>
+      <c r="AH209" s="17"/>
+      <c r="AI209" s="17"/>
+      <c r="AJ209" s="17"/>
+      <c r="AK209" s="17"/>
+    </row>
+    <row r="210" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C210" s="7">
+        <v>209</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E210" s="9"/>
+      <c r="F210" s="9"/>
+      <c r="G210" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H210" s="9"/>
+      <c r="I210" s="9"/>
+      <c r="J210" s="9"/>
+      <c r="K210" s="9"/>
+      <c r="L210" s="9"/>
+      <c r="M210" s="9"/>
+      <c r="N210" s="8"/>
+      <c r="O210" s="9"/>
+      <c r="P210" s="12"/>
+      <c r="Q210" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R210" s="15"/>
+      <c r="S210" s="34"/>
+      <c r="T210" s="34"/>
+      <c r="U210" s="34"/>
+      <c r="V210" s="34"/>
+      <c r="W210" s="34"/>
+      <c r="X210" s="34"/>
+      <c r="Y210" s="12"/>
+      <c r="Z210" s="17"/>
+      <c r="AA210" s="17"/>
+      <c r="AB210" s="17"/>
+      <c r="AC210" s="17"/>
+      <c r="AD210" s="17"/>
+      <c r="AE210" s="17"/>
+      <c r="AF210" s="17"/>
+      <c r="AG210" s="17"/>
+      <c r="AH210" s="17"/>
+      <c r="AI210" s="17"/>
+      <c r="AJ210" s="17"/>
+      <c r="AK210" s="17"/>
+    </row>
+    <row r="211" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C211" s="7">
+        <v>210</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E211" s="9"/>
+      <c r="F211" s="9"/>
+      <c r="G211" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H211" s="9"/>
+      <c r="I211" s="9"/>
+      <c r="J211" s="9"/>
+      <c r="K211" s="9"/>
+      <c r="L211" s="9"/>
+      <c r="M211" s="9"/>
+      <c r="N211" s="8"/>
+      <c r="O211" s="9"/>
+      <c r="P211" s="12"/>
+      <c r="Q211" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R211" s="15"/>
+      <c r="S211" s="34"/>
+      <c r="T211" s="34"/>
+      <c r="U211" s="34"/>
+      <c r="V211" s="34"/>
+      <c r="W211" s="34"/>
+      <c r="X211" s="34"/>
+      <c r="Y211" s="12"/>
+      <c r="Z211" s="17"/>
+      <c r="AA211" s="17"/>
+      <c r="AB211" s="17"/>
+      <c r="AC211" s="17"/>
+      <c r="AD211" s="17"/>
+      <c r="AE211" s="17"/>
+      <c r="AF211" s="17"/>
+      <c r="AG211" s="17"/>
+      <c r="AH211" s="17"/>
+      <c r="AI211" s="17"/>
+      <c r="AJ211" s="17"/>
+      <c r="AK211" s="17"/>
+    </row>
+    <row r="212" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C212" s="7">
+        <v>211</v>
+      </c>
+      <c r="D212" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E212" s="9"/>
+      <c r="F212" s="9"/>
+      <c r="G212" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H212" s="9"/>
+      <c r="I212" s="9"/>
+      <c r="J212" s="9"/>
+      <c r="K212" s="9"/>
+      <c r="L212" s="9"/>
+      <c r="M212" s="9"/>
+      <c r="N212" s="8"/>
+      <c r="O212" s="9"/>
+      <c r="P212" s="12"/>
+      <c r="Q212" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R212" s="15"/>
+      <c r="S212" s="34"/>
+      <c r="T212" s="34"/>
+      <c r="U212" s="34"/>
+      <c r="V212" s="34"/>
+      <c r="W212" s="34"/>
+      <c r="X212" s="34"/>
+      <c r="Y212" s="12"/>
+      <c r="Z212" s="17"/>
+      <c r="AA212" s="17"/>
+      <c r="AB212" s="17"/>
+      <c r="AC212" s="17"/>
+      <c r="AD212" s="17"/>
+      <c r="AE212" s="17"/>
+      <c r="AF212" s="17"/>
+      <c r="AG212" s="17"/>
+      <c r="AH212" s="17"/>
+      <c r="AI212" s="17"/>
+      <c r="AJ212" s="17"/>
+      <c r="AK212" s="17"/>
+    </row>
+    <row r="213" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C213" s="7">
+        <v>212</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E213" s="9"/>
+      <c r="F213" s="9"/>
+      <c r="G213" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H213" s="9"/>
+      <c r="I213" s="9"/>
+      <c r="J213" s="9"/>
+      <c r="K213" s="9"/>
+      <c r="L213" s="9"/>
+      <c r="M213" s="9"/>
+      <c r="N213" s="8"/>
+      <c r="O213" s="9"/>
+      <c r="P213" s="12"/>
+      <c r="Q213" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R213" s="15"/>
+      <c r="S213" s="34"/>
+      <c r="T213" s="34"/>
+      <c r="U213" s="34"/>
+      <c r="V213" s="34"/>
+      <c r="W213" s="34"/>
+      <c r="X213" s="34"/>
+      <c r="Y213" s="12"/>
+      <c r="Z213" s="17"/>
+      <c r="AA213" s="17"/>
+      <c r="AB213" s="17"/>
+      <c r="AC213" s="17"/>
+      <c r="AD213" s="17"/>
+      <c r="AE213" s="17"/>
+      <c r="AF213" s="17"/>
+      <c r="AG213" s="17"/>
+      <c r="AH213" s="17"/>
+      <c r="AI213" s="17"/>
+      <c r="AJ213" s="17"/>
+      <c r="AK213" s="17"/>
+    </row>
+    <row r="214" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C214" s="7">
+        <v>213</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E214" s="9"/>
+      <c r="F214" s="9"/>
+      <c r="G214" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H214" s="9"/>
+      <c r="I214" s="9"/>
+      <c r="J214" s="9"/>
+      <c r="K214" s="9"/>
+      <c r="L214" s="9"/>
+      <c r="M214" s="9"/>
+      <c r="N214" s="8"/>
+      <c r="O214" s="9"/>
+      <c r="P214" s="12"/>
+      <c r="Q214" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R214" s="15"/>
+      <c r="S214" s="34"/>
+      <c r="T214" s="34"/>
+      <c r="U214" s="34"/>
+      <c r="V214" s="34"/>
+      <c r="W214" s="34"/>
+      <c r="X214" s="34"/>
+      <c r="Y214" s="12"/>
+      <c r="Z214" s="17"/>
+      <c r="AA214" s="17"/>
+      <c r="AB214" s="17"/>
+      <c r="AC214" s="17"/>
+      <c r="AD214" s="17"/>
+      <c r="AE214" s="17"/>
+      <c r="AF214" s="17"/>
+      <c r="AG214" s="17"/>
+      <c r="AH214" s="17"/>
+      <c r="AI214" s="17"/>
+      <c r="AJ214" s="17"/>
+      <c r="AK214" s="17"/>
+    </row>
+    <row r="215" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C215" s="7">
+        <v>214</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E215" s="9"/>
+      <c r="F215" s="9"/>
+      <c r="G215" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H215" s="9"/>
+      <c r="I215" s="9"/>
+      <c r="J215" s="9"/>
+      <c r="K215" s="9"/>
+      <c r="L215" s="9"/>
+      <c r="M215" s="9"/>
+      <c r="N215" s="8"/>
+      <c r="O215" s="9"/>
+      <c r="P215" s="12"/>
+      <c r="Q215" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R215" s="15"/>
+      <c r="S215" s="34"/>
+      <c r="T215" s="34"/>
+      <c r="U215" s="34"/>
+      <c r="V215" s="34"/>
+      <c r="W215" s="34"/>
+      <c r="X215" s="34"/>
+      <c r="Y215" s="12"/>
+      <c r="Z215" s="17"/>
+      <c r="AA215" s="17"/>
+      <c r="AB215" s="17"/>
+      <c r="AC215" s="17"/>
+      <c r="AD215" s="17"/>
+      <c r="AE215" s="17"/>
+      <c r="AF215" s="17"/>
+      <c r="AG215" s="17"/>
+      <c r="AH215" s="17"/>
+      <c r="AI215" s="17"/>
+      <c r="AJ215" s="17"/>
+      <c r="AK215" s="17"/>
+    </row>
+    <row r="216" spans="3:37" ht="15.75" customHeight="1">
+      <c r="C216" s="7">
+        <v>215</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E216" s="9"/>
+      <c r="F216" s="9"/>
+      <c r="G216" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H216" s="9"/>
+      <c r="I216" s="9"/>
+      <c r="J216" s="9"/>
+      <c r="K216" s="9"/>
+      <c r="L216" s="9"/>
+      <c r="M216" s="9"/>
+      <c r="N216" s="8"/>
+      <c r="O216" s="9"/>
+      <c r="P216" s="12"/>
+      <c r="Q216" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R216" s="15"/>
+      <c r="S216" s="34"/>
+      <c r="T216" s="34"/>
+      <c r="U216" s="34"/>
+      <c r="V216" s="34"/>
+      <c r="W216" s="34"/>
+      <c r="X216" s="34"/>
+      <c r="Y216" s="12"/>
+      <c r="Z216" s="17"/>
+      <c r="AA216" s="17"/>
+      <c r="AB216" s="17"/>
+      <c r="AC216" s="17"/>
+      <c r="AD216" s="17"/>
+      <c r="AE216" s="17"/>
+      <c r="AF216" s="17"/>
+      <c r="AG216" s="17"/>
+      <c r="AH216" s="17"/>
+      <c r="AI216" s="17"/>
+      <c r="AJ216" s="17"/>
+      <c r="AK216" s="17"/>
+    </row>
+    <row r="217" spans="3:37" ht="15.75" customHeight="1"/>
+    <row r="218" spans="3:37" ht="15.75" customHeight="1"/>
+    <row r="219" spans="3:37" ht="15.75" customHeight="1"/>
+    <row r="220" spans="3:37" ht="15.75" customHeight="1"/>
+    <row r="221" spans="3:37" ht="15.75" customHeight="1"/>
+    <row r="222" spans="3:37" ht="15.75" customHeight="1"/>
+    <row r="223" spans="3:37" ht="15.75" customHeight="1"/>
+    <row r="224" spans="3:37" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -4437,16 +11639,16 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>tabel_dept</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E52" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E216" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>INDIRECT($B$2)</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Equipment No - Contoh : &quot;FMJE025&quot;" sqref="M2:M52" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Equipment No - Contoh : &quot;FMJE025&quot;" sqref="M2:M216" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>AND(GTE(LEN(M2),MIN((7),(7))),LTE(LEN(M2),MAX((7),(7))))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F52 H2:H52 O2:O52" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F216 H2:H216 O2:O216" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K2:K52" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K2:K216" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>T_impdom</formula1>
     </dataValidation>
   </dataValidations>
@@ -4459,7 +11661,7 @@
           <x14:formula1>
             <xm:f>'[validation code]#REF'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I52 Y2:Y52</xm:sqref>
+          <xm:sqref>I2:I216 Y2:Y216</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
